--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333412</v>
+      </c>
       <c r="L12" t="n">
         <v>18.42000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333412</v>
+      </c>
       <c r="L13" t="n">
         <v>18.41</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-50.00000000000044</v>
+      </c>
       <c r="L14" t="n">
         <v>18.39000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>18.37000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>18.36000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>18.35000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>18.34000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>18.33000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>18.32000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>18.32000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>18.31000000000001</v>
       </c>
@@ -1416,9 +1438,7 @@
       <c r="J23" t="n">
         <v>0.399999999999995</v>
       </c>
-      <c r="K23" t="n">
-        <v>-50.00000000000044</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>18.30000000000001</v>
       </c>
@@ -1466,7 +1486,7 @@
         <v>0.4999999999999929</v>
       </c>
       <c r="K24" t="n">
-        <v>-20.00000000000057</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>18.31000000000001</v>
@@ -1515,7 +1535,7 @@
         <v>0.5999999999999908</v>
       </c>
       <c r="K25" t="n">
-        <v>-33.33333333333373</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>18.31000000000001</v>
@@ -1564,7 +1584,7 @@
         <v>0.5999999999999908</v>
       </c>
       <c r="K26" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>18.31000000000001</v>
@@ -1613,7 +1633,7 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>18.32000000000001</v>
@@ -1662,7 +1682,7 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>18.33000000000001</v>
@@ -1711,7 +1731,7 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>18.34000000000001</v>
@@ -1760,7 +1780,7 @@
         <v>0.7999999999999901</v>
       </c>
       <c r="K30" t="n">
-        <v>14.28571428571472</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L30" t="n">
         <v>18.36000000000001</v>
@@ -1809,7 +1829,7 @@
         <v>0.8999999999999915</v>
       </c>
       <c r="K31" t="n">
-        <v>14.28571428571414</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L31" t="n">
         <v>18.37000000000001</v>
@@ -1860,7 +1880,7 @@
         <v>0.8999999999999915</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L32" t="n">
         <v>18.38000000000001</v>
@@ -1911,7 +1931,7 @@
         <v>0.9999999999999929</v>
       </c>
       <c r="K33" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L33" t="n">
         <v>18.40000000000001</v>
@@ -1962,7 +1982,7 @@
         <v>1.099999999999994</v>
       </c>
       <c r="K34" t="n">
-        <v>14.285714285714</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L34" t="n">
         <v>18.40000000000001</v>
@@ -2013,7 +2033,7 @@
         <v>1.099999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>14.285714285714</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L35" t="n">
         <v>18.41</v>
@@ -2064,7 +2084,7 @@
         <v>1.199999999999992</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L36" t="n">
         <v>18.41</v>
@@ -2115,7 +2135,7 @@
         <v>1.29999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>18.41</v>
@@ -2166,7 +2186,7 @@
         <v>1.29999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>18.41</v>
@@ -2217,7 +2237,7 @@
         <v>1.399999999999988</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>18.40000000000001</v>
@@ -2268,7 +2288,7 @@
         <v>1.499999999999986</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>18.39000000000001</v>
@@ -2319,7 +2339,7 @@
         <v>1.499999999999986</v>
       </c>
       <c r="K41" t="n">
-        <v>9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>18.39000000000001</v>
@@ -2370,7 +2390,7 @@
         <v>1.499999999999986</v>
       </c>
       <c r="K42" t="n">
-        <v>9.090909090908973</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L42" t="n">
         <v>18.39000000000001</v>
@@ -2421,7 +2441,7 @@
         <v>1.599999999999984</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L43" t="n">
         <v>18.37000000000001</v>
@@ -2472,7 +2492,7 @@
         <v>1.599999999999984</v>
       </c>
       <c r="K44" t="n">
-        <v>-9.090909090908973</v>
+        <v>-20</v>
       </c>
       <c r="L44" t="n">
         <v>18.36000000000001</v>
@@ -2523,7 +2543,7 @@
         <v>1.699999999999982</v>
       </c>
       <c r="K45" t="n">
-        <v>9.090909090908973</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>18.36000000000001</v>
@@ -2574,7 +2594,7 @@
         <v>1.799999999999979</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L46" t="n">
         <v>18.36000000000001</v>
@@ -2625,7 +2645,7 @@
         <v>1.799999999999979</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090908973</v>
+        <v>-20</v>
       </c>
       <c r="L47" t="n">
         <v>18.35000000000001</v>
@@ -2676,7 +2696,7 @@
         <v>1.799999999999979</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>18.34000000000001</v>
@@ -2778,7 +2798,7 @@
         <v>1.999999999999975</v>
       </c>
       <c r="K50" t="n">
-        <v>-16.66666666666682</v>
+        <v>-20</v>
       </c>
       <c r="L50" t="n">
         <v>18.34000000000001</v>
@@ -2829,7 +2849,7 @@
         <v>1.999999999999975</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909033</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>18.33000000000001</v>
@@ -2880,7 +2900,7 @@
         <v>2.099999999999973</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>18.33000000000001</v>
@@ -2931,7 +2951,7 @@
         <v>2.199999999999971</v>
       </c>
       <c r="K53" t="n">
-        <v>-16.66666666666691</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>18.33000000000001</v>
@@ -3033,7 +3053,7 @@
         <v>2.399999999999967</v>
       </c>
       <c r="K55" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>18.33000000000001</v>
@@ -3084,7 +3104,7 @@
         <v>2.499999999999964</v>
       </c>
       <c r="K56" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L56" t="n">
         <v>18.34000000000001</v>
@@ -3135,7 +3155,7 @@
         <v>2.599999999999962</v>
       </c>
       <c r="K57" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>18.34000000000001</v>
@@ -3186,7 +3206,7 @@
         <v>2.599999999999962</v>
       </c>
       <c r="K58" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>18.34000000000001</v>
@@ -3237,7 +3257,7 @@
         <v>2.69999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>18.34000000000001</v>
@@ -3288,7 +3308,7 @@
         <v>2.799999999999958</v>
       </c>
       <c r="K60" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>18.34000000000001</v>
@@ -3390,7 +3410,7 @@
         <v>2.899999999999956</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>18.35000000000001</v>
@@ -3441,7 +3461,7 @@
         <v>2.899999999999956</v>
       </c>
       <c r="K63" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>18.36000000000001</v>
@@ -3492,7 +3512,7 @@
         <v>2.899999999999956</v>
       </c>
       <c r="K64" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L64" t="n">
         <v>18.36000000000001</v>
@@ -3594,7 +3614,7 @@
         <v>2.899999999999956</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>18.37000000000001</v>
@@ -3696,7 +3716,7 @@
         <v>3.099999999999952</v>
       </c>
       <c r="K68" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>18.38000000000001</v>
@@ -3747,7 +3767,7 @@
         <v>3.099999999999952</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>18.38000000000001</v>
@@ -3798,7 +3818,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L70" t="n">
         <v>18.38000000000001</v>
@@ -3849,7 +3869,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>18.37000000000001</v>
@@ -3900,7 +3920,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L72" t="n">
         <v>18.36000000000001</v>
@@ -3951,7 +3971,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>18.35000000000001</v>
@@ -4002,7 +4022,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K74" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>18.34000000000001</v>
@@ -4053,7 +4073,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>18.33000000000001</v>
@@ -4104,7 +4124,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>18.32000000000001</v>
@@ -4155,7 +4175,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>18.32000000000001</v>
@@ -4206,7 +4226,7 @@
         <v>3.19999999999995</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>18.31000000000001</v>
@@ -4256,9 +4276,7 @@
       <c r="J79" t="n">
         <v>3.19999999999995</v>
       </c>
-      <c r="K79" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>18.30000000000001</v>
       </c>
@@ -4307,9 +4325,7 @@
       <c r="J80" t="n">
         <v>3.19999999999995</v>
       </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>18.30000000000001</v>
       </c>
@@ -4359,7 +4375,7 @@
         <v>3.299999999999951</v>
       </c>
       <c r="K81" t="n">
-        <v>-50.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>18.29000000000001</v>
@@ -4410,7 +4426,7 @@
         <v>3.399999999999952</v>
       </c>
       <c r="K82" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>18.29000000000001</v>
@@ -4563,7 +4579,7 @@
         <v>3.599999999999952</v>
       </c>
       <c r="K85" t="n">
-        <v>-42.85714285714271</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L85" t="n">
         <v>18.25</v>
@@ -4614,7 +4630,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K86" t="n">
-        <v>-25.00000000000011</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L86" t="n">
         <v>18.24</v>
@@ -4665,7 +4681,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.28571428571458</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L87" t="n">
         <v>18.23</v>
@@ -4716,7 +4732,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K88" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L88" t="n">
         <v>18.22</v>
@@ -4767,7 +4783,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K89" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L89" t="n">
         <v>18.20999999999999</v>
@@ -4818,7 +4834,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K90" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>18.19999999999999</v>
@@ -4869,7 +4885,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K91" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L91" t="n">
         <v>18.19999999999999</v>
@@ -4920,7 +4936,7 @@
         <v>3.69999999999995</v>
       </c>
       <c r="K92" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>18.18999999999999</v>
@@ -5022,7 +5038,7 @@
         <v>3.899999999999945</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.28571428571458</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>18.17999999999999</v>
@@ -5073,7 +5089,7 @@
         <v>3.999999999999943</v>
       </c>
       <c r="K95" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>18.17999999999999</v>
@@ -5124,7 +5140,7 @@
         <v>3.999999999999943</v>
       </c>
       <c r="K96" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>18.16999999999999</v>
@@ -5175,7 +5191,7 @@
         <v>3.999999999999943</v>
       </c>
       <c r="K97" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>18.15999999999999</v>
@@ -5226,7 +5242,7 @@
         <v>4.099999999999941</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>18.15999999999999</v>
@@ -5277,7 +5293,7 @@
         <v>4.099999999999941</v>
       </c>
       <c r="K99" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>18.15999999999999</v>
@@ -5328,7 +5344,7 @@
         <v>4.199999999999939</v>
       </c>
       <c r="K100" t="n">
-        <v>-20.00000000000014</v>
+        <v>-20</v>
       </c>
       <c r="L100" t="n">
         <v>18.14999999999999</v>
@@ -5379,7 +5395,7 @@
         <v>4.199999999999939</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.11111111111102</v>
+        <v>-20</v>
       </c>
       <c r="L101" t="n">
         <v>18.13999999999999</v>
@@ -5430,7 +5446,7 @@
         <v>4.199999999999939</v>
       </c>
       <c r="K102" t="n">
-        <v>-25.00000000000033</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>18.12999999999999</v>
@@ -5532,7 +5548,7 @@
         <v>4.299999999999937</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>18.13999999999999</v>
@@ -5634,7 +5650,7 @@
         <v>4.499999999999932</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L106" t="n">
         <v>18.14999999999999</v>
@@ -5787,7 +5803,7 @@
         <v>4.59999999999993</v>
       </c>
       <c r="K109" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>18.14999999999999</v>
@@ -5838,7 +5854,7 @@
         <v>4.699999999999928</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L110" t="n">
         <v>18.15999999999999</v>
@@ -5889,7 +5905,7 @@
         <v>4.699999999999928</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L111" t="n">
         <v>18.16999999999999</v>
@@ -5940,7 +5956,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K112" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L112" t="n">
         <v>18.16999999999999</v>
@@ -5991,7 +6007,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>18.15999999999999</v>
@@ -6042,7 +6058,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>18.14999999999999</v>
@@ -6093,7 +6109,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L115" t="n">
         <v>18.14999999999999</v>
@@ -6144,7 +6160,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>18.13999999999999</v>
@@ -6195,7 +6211,7 @@
         <v>4.799999999999926</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>18.12999999999999</v>
@@ -6246,7 +6262,7 @@
         <v>4.899999999999928</v>
       </c>
       <c r="K118" t="n">
-        <v>-25.00000000000033</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L118" t="n">
         <v>18.10999999999999</v>
@@ -6297,7 +6313,7 @@
         <v>4.899999999999928</v>
       </c>
       <c r="K119" t="n">
-        <v>-25.00000000000033</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>18.09999999999999</v>
@@ -6348,7 +6364,7 @@
         <v>4.999999999999929</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L120" t="n">
         <v>18.09</v>
@@ -6399,7 +6415,7 @@
         <v>5.09999999999993</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L121" t="n">
         <v>18.07</v>
@@ -6450,7 +6466,7 @@
         <v>5.09999999999993</v>
       </c>
       <c r="K122" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L122" t="n">
         <v>18.06</v>
@@ -6501,7 +6517,7 @@
         <v>5.09999999999993</v>
       </c>
       <c r="K123" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>18.05</v>
@@ -6552,7 +6568,7 @@
         <v>5.199999999999932</v>
       </c>
       <c r="K124" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>18.05</v>
@@ -6603,7 +6619,7 @@
         <v>5.299999999999933</v>
       </c>
       <c r="K125" t="n">
-        <v>-11.11111111111129</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>18.04</v>
@@ -6654,7 +6670,7 @@
         <v>5.299999999999933</v>
       </c>
       <c r="K126" t="n">
-        <v>-24.99999999999989</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>18.03</v>
@@ -6705,7 +6721,7 @@
         <v>5.299999999999933</v>
       </c>
       <c r="K127" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>18.02</v>
@@ -6756,7 +6772,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.11111111111085</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>18.03</v>
@@ -6858,7 +6874,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K130" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>18.04</v>
@@ -6909,7 +6925,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>18.05</v>
@@ -6960,7 +6976,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>18.06</v>
@@ -7062,7 +7078,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L134" t="n">
         <v>18.07</v>
@@ -7113,7 +7129,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>18.07999999999999</v>
@@ -7164,7 +7180,7 @@
         <v>5.399999999999935</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>18.09</v>
@@ -7214,9 +7230,7 @@
       <c r="J137" t="n">
         <v>5.399999999999935</v>
       </c>
-      <c r="K137" t="n">
-        <v>0</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -7265,9 +7279,7 @@
       <c r="J138" t="n">
         <v>5.399999999999935</v>
       </c>
-      <c r="K138" t="n">
-        <v>20</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -7317,7 +7329,7 @@
         <v>5.499999999999936</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>18.09</v>
@@ -7419,7 +7431,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K141" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>18.09</v>
@@ -7470,7 +7482,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>18.09</v>
@@ -7521,7 +7533,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K143" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>18.09</v>
@@ -7623,7 +7635,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K145" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>18.09</v>
@@ -7674,7 +7686,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K146" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>18.09</v>
@@ -7725,7 +7737,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K147" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>18.09</v>
@@ -7776,7 +7788,7 @@
         <v>5.599999999999937</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L148" t="n">
         <v>18.09</v>
@@ -7826,9 +7838,7 @@
       <c r="J149" t="n">
         <v>5.599999999999937</v>
       </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -7878,7 +7888,7 @@
         <v>5.699999999999939</v>
       </c>
       <c r="K150" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>18.09</v>
@@ -7929,7 +7939,7 @@
         <v>5.699999999999939</v>
       </c>
       <c r="K151" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>18.07999999999999</v>
@@ -7980,7 +7990,7 @@
         <v>5.699999999999939</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>18.07</v>
@@ -8031,7 +8041,7 @@
         <v>5.699999999999939</v>
       </c>
       <c r="K153" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>18.06</v>
@@ -8082,7 +8092,7 @@
         <v>5.699999999999939</v>
       </c>
       <c r="K154" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L154" t="n">
         <v>18.05</v>
@@ -8337,7 +8347,7 @@
         <v>5.79999999999994</v>
       </c>
       <c r="K159" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>18.05</v>
@@ -8388,7 +8398,7 @@
         <v>5.79999999999994</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>18.06</v>
@@ -8439,7 +8449,7 @@
         <v>5.79999999999994</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>18.07</v>
@@ -8490,7 +8500,7 @@
         <v>5.79999999999994</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>18.07999999999999</v>
@@ -8541,7 +8551,7 @@
         <v>5.79999999999994</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L163" t="n">
         <v>18.09</v>
@@ -8591,9 +8601,7 @@
       <c r="J164" t="n">
         <v>5.79999999999994</v>
       </c>
-      <c r="K164" t="n">
-        <v>0</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -8642,9 +8650,7 @@
       <c r="J165" t="n">
         <v>5.79999999999994</v>
       </c>
-      <c r="K165" t="n">
-        <v>0</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -8693,9 +8699,7 @@
       <c r="J166" t="n">
         <v>5.79999999999994</v>
       </c>
-      <c r="K166" t="n">
-        <v>0</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -8744,9 +8748,7 @@
       <c r="J167" t="n">
         <v>5.79999999999994</v>
       </c>
-      <c r="K167" t="n">
-        <v>0</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -8796,7 +8798,7 @@
         <v>5.899999999999938</v>
       </c>
       <c r="K168" t="n">
-        <v>33.33333333333254</v>
+        <v>100</v>
       </c>
       <c r="L168" t="n">
         <v>18.10999999999999</v>
@@ -8898,7 +8900,7 @@
         <v>6.099999999999934</v>
       </c>
       <c r="K170" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>18.11999999999999</v>
@@ -8949,7 +8951,7 @@
         <v>6.199999999999932</v>
       </c>
       <c r="K171" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>18.11999999999999</v>
@@ -9000,7 +9002,7 @@
         <v>6.199999999999932</v>
       </c>
       <c r="K172" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>18.11999999999999</v>
@@ -9051,7 +9053,7 @@
         <v>6.199999999999932</v>
       </c>
       <c r="K173" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>18.11999999999999</v>
@@ -9102,7 +9104,7 @@
         <v>6.199999999999932</v>
       </c>
       <c r="K174" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>18.11999999999999</v>
@@ -9255,7 +9257,7 @@
         <v>6.29999999999993</v>
       </c>
       <c r="K177" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>18.13999999999999</v>
@@ -9357,7 +9359,7 @@
         <v>6.499999999999925</v>
       </c>
       <c r="K179" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>18.13999999999999</v>
@@ -9459,7 +9461,7 @@
         <v>6.699999999999921</v>
       </c>
       <c r="K181" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L181" t="n">
         <v>18.13999999999999</v>
@@ -9663,7 +9665,7 @@
         <v>6.799999999999919</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L185" t="n">
         <v>18.13999999999999</v>
@@ -9714,7 +9716,7 @@
         <v>6.799999999999919</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L186" t="n">
         <v>18.12999999999999</v>
@@ -9816,7 +9818,7 @@
         <v>6.799999999999919</v>
       </c>
       <c r="K188" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>18.11999999999999</v>
@@ -10224,7 +10226,7 @@
         <v>6.999999999999915</v>
       </c>
       <c r="K196" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>18.10999999999999</v>
@@ -10275,7 +10277,7 @@
         <v>6.999999999999915</v>
       </c>
       <c r="K197" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>18.10999999999999</v>
@@ -10377,7 +10379,7 @@
         <v>6.999999999999915</v>
       </c>
       <c r="K199" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>18.10999999999999</v>
@@ -10427,9 +10429,7 @@
       <c r="J200" t="n">
         <v>6.999999999999915</v>
       </c>
-      <c r="K200" t="n">
-        <v>0</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -10478,9 +10478,7 @@
       <c r="J201" t="n">
         <v>6.999999999999915</v>
       </c>
-      <c r="K201" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -10530,7 +10528,7 @@
         <v>7.099999999999913</v>
       </c>
       <c r="K202" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>18.10999999999999</v>
@@ -10632,7 +10630,7 @@
         <v>7.299999999999908</v>
       </c>
       <c r="K204" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L204" t="n">
         <v>18.11999999999999</v>
@@ -10683,7 +10681,7 @@
         <v>7.299999999999908</v>
       </c>
       <c r="K205" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>18.12999999999999</v>
@@ -10785,7 +10783,7 @@
         <v>7.499999999999904</v>
       </c>
       <c r="K207" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>18.13999999999999</v>
@@ -10938,7 +10936,7 @@
         <v>7.599999999999902</v>
       </c>
       <c r="K210" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>18.13999999999999</v>
@@ -10989,7 +10987,7 @@
         <v>7.599999999999902</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L211" t="n">
         <v>18.13999999999999</v>
@@ -11091,7 +11089,7 @@
         <v>7.599999999999902</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>18.12999999999999</v>
@@ -11142,7 +11140,7 @@
         <v>7.599999999999902</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L214" t="n">
         <v>18.11999999999999</v>
@@ -11193,7 +11191,7 @@
         <v>7.699999999999903</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.28571428571472</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L215" t="n">
         <v>18.09999999999999</v>
@@ -11244,7 +11242,7 @@
         <v>7.699999999999903</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571472</v>
+        <v>-100</v>
       </c>
       <c r="L216" t="n">
         <v>18.09</v>
@@ -11295,7 +11293,7 @@
         <v>7.699999999999903</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571472</v>
+        <v>-100</v>
       </c>
       <c r="L217" t="n">
         <v>18.07</v>
@@ -11346,7 +11344,7 @@
         <v>7.699999999999903</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571472</v>
+        <v>-100</v>
       </c>
       <c r="L218" t="n">
         <v>18.06</v>
@@ -11397,7 +11395,7 @@
         <v>7.799999999999905</v>
       </c>
       <c r="K219" t="n">
-        <v>-25.00000000000067</v>
+        <v>-100</v>
       </c>
       <c r="L219" t="n">
         <v>18.04</v>
@@ -11448,7 +11446,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K220" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>18.03</v>
@@ -11499,7 +11497,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>18.02</v>
@@ -11550,7 +11548,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K222" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>18.01</v>
@@ -11601,7 +11599,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.28571428571458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>18</v>
@@ -11652,7 +11650,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K224" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>17.99</v>
@@ -11703,7 +11701,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K225" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>17.99</v>
@@ -11754,7 +11752,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K226" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>17.99</v>
@@ -11805,7 +11803,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K227" t="n">
-        <v>-49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>17.99</v>
@@ -11856,7 +11854,7 @@
         <v>7.899999999999906</v>
       </c>
       <c r="K228" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L228" t="n">
         <v>17.99</v>
@@ -11906,9 +11904,7 @@
       <c r="J229" t="n">
         <v>7.899999999999906</v>
       </c>
-      <c r="K229" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>18</v>
       </c>
@@ -11957,9 +11953,7 @@
       <c r="J230" t="n">
         <v>7.899999999999906</v>
       </c>
-      <c r="K230" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>18</v>
       </c>
@@ -12008,9 +12002,7 @@
       <c r="J231" t="n">
         <v>7.899999999999906</v>
       </c>
-      <c r="K231" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>18</v>
       </c>
@@ -12059,9 +12051,7 @@
       <c r="J232" t="n">
         <v>7.899999999999906</v>
       </c>
-      <c r="K232" t="n">
-        <v>-33.33333333333333</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>18</v>
       </c>
@@ -12111,7 +12101,7 @@
         <v>7.999999999999908</v>
       </c>
       <c r="K233" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L233" t="n">
         <v>17.99</v>
@@ -12162,7 +12152,7 @@
         <v>8.099999999999909</v>
       </c>
       <c r="K234" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>17.99</v>
@@ -12213,7 +12203,7 @@
         <v>8.19999999999991</v>
       </c>
       <c r="K235" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>17.98</v>
@@ -12264,7 +12254,7 @@
         <v>8.19999999999991</v>
       </c>
       <c r="K236" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>17.97</v>
@@ -12315,7 +12305,7 @@
         <v>8.19999999999991</v>
       </c>
       <c r="K237" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>17.96</v>
@@ -12417,7 +12407,7 @@
         <v>8.299999999999912</v>
       </c>
       <c r="K239" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>17.96</v>
@@ -12570,7 +12560,7 @@
         <v>8.299999999999912</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L242" t="n">
         <v>17.96</v>
@@ -12672,7 +12662,7 @@
         <v>8.399999999999913</v>
       </c>
       <c r="K244" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L244" t="n">
         <v>17.98</v>
@@ -12723,7 +12713,7 @@
         <v>8.499999999999915</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>17.99</v>
@@ -12774,7 +12764,7 @@
         <v>8.599999999999916</v>
       </c>
       <c r="K246" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L246" t="n">
         <v>18.01</v>
@@ -12825,7 +12815,7 @@
         <v>8.699999999999914</v>
       </c>
       <c r="K247" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L247" t="n">
         <v>18.04</v>
@@ -12876,7 +12866,7 @@
         <v>8.699999999999914</v>
       </c>
       <c r="K248" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L248" t="n">
         <v>18.06</v>
@@ -12927,7 +12917,7 @@
         <v>8.699999999999914</v>
       </c>
       <c r="K249" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L249" t="n">
         <v>18.07999999999999</v>
@@ -12978,7 +12968,7 @@
         <v>8.699999999999914</v>
       </c>
       <c r="K250" t="n">
-        <v>24.99999999999967</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L250" t="n">
         <v>18.09999999999999</v>
@@ -13029,7 +13019,7 @@
         <v>8.799999999999912</v>
       </c>
       <c r="K251" t="n">
-        <v>11.1111111111112</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L251" t="n">
         <v>18.10999999999999</v>
@@ -13080,7 +13070,7 @@
         <v>8.89999999999991</v>
       </c>
       <c r="K252" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L252" t="n">
         <v>18.12999999999999</v>
@@ -13131,7 +13121,7 @@
         <v>8.999999999999908</v>
       </c>
       <c r="K253" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L253" t="n">
         <v>18.13999999999999</v>
@@ -13182,7 +13172,7 @@
         <v>9.099999999999905</v>
       </c>
       <c r="K254" t="n">
-        <v>20</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L254" t="n">
         <v>18.14999999999999</v>
@@ -13233,7 +13223,7 @@
         <v>9.099999999999905</v>
       </c>
       <c r="K255" t="n">
-        <v>33.3333333333336</v>
+        <v>20</v>
       </c>
       <c r="L255" t="n">
         <v>18.16999999999999</v>
@@ -13284,7 +13274,7 @@
         <v>9.099999999999905</v>
       </c>
       <c r="K256" t="n">
-        <v>33.3333333333336</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>18.17999999999999</v>
@@ -13335,7 +13325,7 @@
         <v>9.199999999999903</v>
       </c>
       <c r="K257" t="n">
-        <v>20.00000000000043</v>
+        <v>-20</v>
       </c>
       <c r="L257" t="n">
         <v>18.16999999999999</v>
@@ -13386,7 +13376,7 @@
         <v>9.299999999999901</v>
       </c>
       <c r="K258" t="n">
-        <v>20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>18.16999999999999</v>
@@ -13437,7 +13427,7 @@
         <v>9.399999999999899</v>
       </c>
       <c r="K259" t="n">
-        <v>9.090909090909326</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L259" t="n">
         <v>18.15999999999999</v>
@@ -13488,7 +13478,7 @@
         <v>9.399999999999899</v>
       </c>
       <c r="K260" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>18.14999999999999</v>
@@ -13539,7 +13529,7 @@
         <v>9.499999999999897</v>
       </c>
       <c r="K261" t="n">
-        <v>16.66666666666682</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>18.15999999999999</v>
@@ -13590,7 +13580,7 @@
         <v>9.699999999999896</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L262" t="n">
         <v>18.13999999999999</v>
@@ -13641,7 +13631,7 @@
         <v>9.899999999999896</v>
       </c>
       <c r="K263" t="n">
-        <v>12.50000000000008</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>18.14999999999999</v>
@@ -13692,7 +13682,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K264" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L264" t="n">
         <v>18.13999999999999</v>
@@ -13743,7 +13733,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K265" t="n">
-        <v>6.666666666666857</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L265" t="n">
         <v>18.12999999999999</v>
@@ -13845,7 +13835,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K267" t="n">
-        <v>-7.69230769230765</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L267" t="n">
         <v>18.11999999999999</v>
@@ -13896,7 +13886,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K268" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>18.10999999999999</v>
@@ -13947,7 +13937,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K269" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>18.10999999999999</v>
@@ -13998,7 +13988,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K270" t="n">
-        <v>-7.69230769230765</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L270" t="n">
         <v>18.10999999999999</v>
@@ -14049,7 +14039,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L271" t="n">
         <v>18.09999999999999</v>
@@ -14100,7 +14090,7 @@
         <v>9.999999999999893</v>
       </c>
       <c r="K272" t="n">
-        <v>-9.090909090909033</v>
+        <v>-100</v>
       </c>
       <c r="L272" t="n">
         <v>18.10999999999999</v>
@@ -14150,9 +14140,7 @@
       <c r="J273" t="n">
         <v>9.999999999999893</v>
       </c>
-      <c r="K273" t="n">
-        <v>0</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -14201,9 +14189,7 @@
       <c r="J274" t="n">
         <v>9.999999999999893</v>
       </c>
-      <c r="K274" t="n">
-        <v>-11.11111111111102</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>18.09999999999999</v>
       </c>
@@ -14253,7 +14239,7 @@
         <v>10.09999999999989</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L275" t="n">
         <v>18.10999999999999</v>
@@ -14304,7 +14290,7 @@
         <v>10.19999999999989</v>
       </c>
       <c r="K276" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
         <v>18.10999999999999</v>
@@ -14406,7 +14392,7 @@
         <v>10.19999999999989</v>
       </c>
       <c r="K278" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>18.10999999999999</v>
@@ -14508,7 +14494,7 @@
         <v>10.29999999999989</v>
       </c>
       <c r="K280" t="n">
-        <v>-11.11111111111137</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L280" t="n">
         <v>18.09999999999999</v>
@@ -14559,7 +14545,7 @@
         <v>10.39999999999989</v>
       </c>
       <c r="K281" t="n">
-        <v>-11.11111111111093</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>18.09999999999999</v>
@@ -14610,7 +14596,7 @@
         <v>10.39999999999989</v>
       </c>
       <c r="K282" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>18.09999999999999</v>
@@ -14661,7 +14647,7 @@
         <v>10.39999999999989</v>
       </c>
       <c r="K283" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>18.09999999999999</v>
@@ -14712,7 +14698,7 @@
         <v>10.49999999999989</v>
       </c>
       <c r="K284" t="n">
-        <v>-20.00000000000028</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L284" t="n">
         <v>18.09</v>
@@ -14814,7 +14800,7 @@
         <v>10.6999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>-14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L286" t="n">
         <v>18.07</v>
@@ -14865,7 +14851,7 @@
         <v>10.6999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L287" t="n">
         <v>18.06</v>
@@ -14916,7 +14902,7 @@
         <v>10.6999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>-14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L288" t="n">
         <v>18.05</v>
@@ -14967,7 +14953,7 @@
         <v>10.7999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L289" t="n">
         <v>18.05</v>
@@ -15069,7 +15055,7 @@
         <v>10.8999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>-11.1111111111112</v>
+        <v>-20</v>
       </c>
       <c r="L291" t="n">
         <v>18.05</v>
@@ -15120,7 +15106,7 @@
         <v>10.8999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>-11.1111111111112</v>
+        <v>-20</v>
       </c>
       <c r="L292" t="n">
         <v>18.04</v>
@@ -15171,7 +15157,7 @@
         <v>10.9999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L293" t="n">
         <v>18.04</v>
@@ -15273,7 +15259,7 @@
         <v>11.0999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>-19.99999999999972</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>18.04</v>
@@ -15324,7 +15310,7 @@
         <v>11.1999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L296" t="n">
         <v>18.05</v>
@@ -15375,7 +15361,7 @@
         <v>11.1999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L297" t="n">
         <v>18.06</v>
@@ -15579,7 +15565,7 @@
         <v>11.39999999999991</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>18.07</v>
@@ -15834,7 +15820,7 @@
         <v>11.59999999999991</v>
       </c>
       <c r="K306" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>18.07999999999999</v>
@@ -15885,7 +15871,7 @@
         <v>11.59999999999991</v>
       </c>
       <c r="K307" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>18.07999999999999</v>
@@ -15936,7 +15922,7 @@
         <v>11.59999999999991</v>
       </c>
       <c r="K308" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>18.07999999999999</v>
@@ -15987,7 +15973,7 @@
         <v>11.69999999999991</v>
       </c>
       <c r="K309" t="n">
-        <v>11.11111111111076</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L309" t="n">
         <v>18.09</v>
@@ -16089,7 +16075,7 @@
         <v>11.8999999999999</v>
       </c>
       <c r="K311" t="n">
-        <v>19.99999999999986</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L311" t="n">
         <v>18.10999999999999</v>
@@ -16140,7 +16126,7 @@
         <v>11.9999999999999</v>
       </c>
       <c r="K312" t="n">
-        <v>9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>18.10999999999999</v>
@@ -16191,7 +16177,7 @@
         <v>12.0999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>9.090909090908914</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L313" t="n">
         <v>18.11999999999999</v>
@@ -16242,7 +16228,7 @@
         <v>12.0999999999999</v>
       </c>
       <c r="K314" t="n">
-        <v>9.090909090908914</v>
+        <v>20</v>
       </c>
       <c r="L314" t="n">
         <v>18.13999999999999</v>
@@ -16293,7 +16279,7 @@
         <v>12.1999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>18.13999999999999</v>

--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
@@ -6439,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6474,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -6824,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -6964,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8221,17 +8221,13 @@
         <v>18.10000000000001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>18</v>
-      </c>
-      <c r="K224" t="n">
-        <v>18</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
@@ -8260,22 +8256,14 @@
         <v>18.09833333333334</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>18</v>
-      </c>
-      <c r="K225" t="n">
-        <v>18</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8303,22 +8291,14 @@
         <v>18.09666666666668</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>18</v>
-      </c>
-      <c r="K226" t="n">
-        <v>18</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8346,17 +8326,13 @@
         <v>18.09500000000001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>18</v>
-      </c>
-      <c r="K227" t="n">
-        <v>18</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
@@ -8385,22 +8361,14 @@
         <v>18.09166666666668</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>18</v>
-      </c>
-      <c r="K228" t="n">
-        <v>18</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8428,22 +8396,14 @@
         <v>18.09000000000001</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>18</v>
-      </c>
-      <c r="K229" t="n">
-        <v>18</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8510,14 +8470,12 @@
         <v>18.08500000000002</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>18</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
         <v>18</v>
       </c>
@@ -8596,17 +8554,13 @@
         <v>18.08000000000002</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K233" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
@@ -8641,16 +8595,12 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="K234" t="n">
         <v>17.9</v>
       </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8684,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="K235" t="n">
         <v>17.9</v>
@@ -8732,7 +8682,11 @@
       <c r="K236" t="n">
         <v>17.9</v>
       </c>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +8725,7 @@
       <c r="K237" t="n">
         <v>17.9</v>
       </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8809,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="K238" t="n">
         <v>17.9</v>
@@ -8846,18 +8796,20 @@
         <v>18.06000000000002</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>18</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>18</v>
-      </c>
-      <c r="L239" t="inlineStr"/>
+        <v>17.9</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8885,22 +8837,14 @@
         <v>18.05833333333336</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>18</v>
-      </c>
-      <c r="K240" t="n">
-        <v>18</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8928,22 +8872,14 @@
         <v>18.05500000000002</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>18</v>
-      </c>
-      <c r="K241" t="n">
-        <v>18</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8971,22 +8907,14 @@
         <v>18.05333333333336</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>18</v>
-      </c>
-      <c r="K242" t="n">
-        <v>18</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9014,22 +8942,14 @@
         <v>18.05166666666669</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>18</v>
-      </c>
-      <c r="K243" t="n">
-        <v>18</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9057,22 +8977,14 @@
         <v>18.05166666666669</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K244" t="n">
-        <v>18</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9100,22 +9012,14 @@
         <v>18.05000000000003</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K245" t="n">
-        <v>18</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9143,22 +9047,14 @@
         <v>18.05000000000003</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>18</v>
-      </c>
-      <c r="K246" t="n">
-        <v>18</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9186,22 +9082,14 @@
         <v>18.0516666666667</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K247" t="n">
-        <v>18</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9229,22 +9117,14 @@
         <v>18.05333333333337</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K248" t="n">
-        <v>18</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9278,14 +9158,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>18</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9316,17 +9190,11 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>18</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9357,17 +9225,11 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>18</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9398,17 +9260,11 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>18</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9442,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>18</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9480,17 +9330,11 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>18</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9521,19 +9365,13 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>18</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
-        <v>1.006111111111111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -9597,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>

--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>18.5</v>
       </c>
       <c r="F2" t="n">
-        <v>82487.69010000001</v>
+        <v>7699.5378</v>
       </c>
       <c r="G2" t="n">
-        <v>18.4983333333334</v>
+        <v>18.50000000000007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>18.5</v>
       </c>
       <c r="F3" t="n">
-        <v>37291.1009</v>
+        <v>82487.69010000001</v>
       </c>
       <c r="G3" t="n">
-        <v>18.49666666666674</v>
+        <v>18.4983333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>18.5</v>
       </c>
       <c r="F4" t="n">
-        <v>5870</v>
+        <v>37291.1009</v>
       </c>
       <c r="G4" t="n">
-        <v>18.49500000000007</v>
+        <v>18.49666666666674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>18.5</v>
       </c>
       <c r="F5" t="n">
-        <v>9412.999900000001</v>
+        <v>5870</v>
       </c>
       <c r="G5" t="n">
-        <v>18.49166666666674</v>
+        <v>18.49500000000007</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E6" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="F6" t="n">
-        <v>19037.7805</v>
+        <v>9412.999900000001</v>
       </c>
       <c r="G6" t="n">
-        <v>18.48666666666674</v>
+        <v>18.49166666666674</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>18.4</v>
       </c>
       <c r="F7" t="n">
-        <v>147061.284</v>
+        <v>19037.7805</v>
       </c>
       <c r="G7" t="n">
-        <v>18.48166666666674</v>
+        <v>18.48666666666674</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>18.4</v>
       </c>
       <c r="F8" t="n">
-        <v>52000</v>
+        <v>147061.284</v>
       </c>
       <c r="G8" t="n">
-        <v>18.47833333333341</v>
+        <v>18.48166666666674</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>18.4</v>
       </c>
       <c r="F9" t="n">
-        <v>169326</v>
+        <v>52000</v>
       </c>
       <c r="G9" t="n">
-        <v>18.47333333333341</v>
+        <v>18.47833333333341</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>18.4</v>
       </c>
       <c r="F10" t="n">
-        <v>22980.9021</v>
+        <v>169326</v>
       </c>
       <c r="G10" t="n">
-        <v>18.47000000000008</v>
+        <v>18.47333333333341</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E11" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5100</v>
+        <v>22980.9021</v>
       </c>
       <c r="G11" t="n">
-        <v>18.46500000000008</v>
+        <v>18.47000000000008</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E12" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F12" t="n">
-        <v>172858.4239</v>
+        <v>5100</v>
       </c>
       <c r="G12" t="n">
-        <v>18.46166666666675</v>
+        <v>18.46500000000008</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>18.4</v>
       </c>
       <c r="F13" t="n">
-        <v>99691.1681</v>
+        <v>172858.4239</v>
       </c>
       <c r="G13" t="n">
-        <v>18.45833333333342</v>
+        <v>18.46166666666675</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E14" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F14" t="n">
-        <v>727172.068</v>
+        <v>99691.1681</v>
       </c>
       <c r="G14" t="n">
-        <v>18.45333333333342</v>
+        <v>18.45833333333342</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>18.3</v>
       </c>
       <c r="F15" t="n">
-        <v>2192101.9082</v>
+        <v>727172.068</v>
       </c>
       <c r="G15" t="n">
-        <v>18.44833333333342</v>
+        <v>18.45333333333342</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>18.3</v>
       </c>
       <c r="F16" t="n">
-        <v>194420.7002</v>
+        <v>2192101.9082</v>
       </c>
       <c r="G16" t="n">
-        <v>18.44500000000009</v>
+        <v>18.44833333333342</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,16 +964,16 @@
         <v>18.3</v>
       </c>
       <c r="D17" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E17" t="n">
         <v>18.3</v>
       </c>
       <c r="F17" t="n">
-        <v>317409.6116</v>
+        <v>194420.7002</v>
       </c>
       <c r="G17" t="n">
-        <v>18.44166666666676</v>
+        <v>18.44500000000009</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>18.3</v>
       </c>
       <c r="D18" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E18" t="n">
         <v>18.3</v>
       </c>
       <c r="F18" t="n">
-        <v>8627.026900000001</v>
+        <v>317409.6116</v>
       </c>
       <c r="G18" t="n">
-        <v>18.43833333333342</v>
+        <v>18.44166666666676</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>18.3</v>
       </c>
       <c r="F19" t="n">
-        <v>24146.0857</v>
+        <v>8627.026900000001</v>
       </c>
       <c r="G19" t="n">
-        <v>18.43500000000008</v>
+        <v>18.43833333333342</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>18.3</v>
       </c>
       <c r="F20" t="n">
-        <v>126455.4644</v>
+        <v>24146.0857</v>
       </c>
       <c r="G20" t="n">
-        <v>18.43166666666675</v>
+        <v>18.43500000000008</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>18.3</v>
       </c>
       <c r="D21" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E21" t="n">
         <v>18.3</v>
       </c>
       <c r="F21" t="n">
-        <v>314915.374</v>
+        <v>126455.4644</v>
       </c>
       <c r="G21" t="n">
-        <v>18.42833333333342</v>
+        <v>18.43166666666675</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>18.3</v>
       </c>
       <c r="D22" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E22" t="n">
         <v>18.3</v>
       </c>
       <c r="F22" t="n">
-        <v>53920</v>
+        <v>314915.374</v>
       </c>
       <c r="G22" t="n">
-        <v>18.42500000000008</v>
+        <v>18.42833333333342</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>18.3</v>
       </c>
       <c r="F23" t="n">
-        <v>11108.0228</v>
+        <v>53920</v>
       </c>
       <c r="G23" t="n">
-        <v>18.42166666666675</v>
+        <v>18.42500000000008</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E24" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F24" t="n">
-        <v>95208.9999</v>
+        <v>11108.0228</v>
       </c>
       <c r="G24" t="n">
-        <v>18.42000000000008</v>
+        <v>18.42166666666675</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F25" t="n">
-        <v>22022.1446</v>
+        <v>95208.9999</v>
       </c>
       <c r="G25" t="n">
-        <v>18.41833333333341</v>
+        <v>18.42000000000008</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>18.3</v>
       </c>
       <c r="F26" t="n">
-        <v>83663.34359999999</v>
+        <v>22022.1446</v>
       </c>
       <c r="G26" t="n">
-        <v>18.41666666666675</v>
+        <v>18.41833333333341</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F27" t="n">
-        <v>174132.52</v>
+        <v>83663.34359999999</v>
       </c>
       <c r="G27" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41666666666675</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>18.4</v>
       </c>
       <c r="F28" t="n">
-        <v>27967.1016</v>
+        <v>174132.52</v>
       </c>
       <c r="G28" t="n">
-        <v>18.41333333333342</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>18.4</v>
       </c>
       <c r="F29" t="n">
-        <v>45384.3498</v>
+        <v>27967.1016</v>
       </c>
       <c r="G29" t="n">
         <v>18.41333333333342</v>
@@ -1416,19 +1416,19 @@
         <v>18.4</v>
       </c>
       <c r="C30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="D30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="E30" t="n">
         <v>18.4</v>
       </c>
       <c r="F30" t="n">
-        <v>432871.41081081</v>
+        <v>45384.3498</v>
       </c>
       <c r="G30" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41333333333342</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,16 +1451,16 @@
         <v>18.4</v>
       </c>
       <c r="C31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D31" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E31" t="n">
         <v>18.4</v>
       </c>
       <c r="F31" t="n">
-        <v>48210.5604</v>
+        <v>432871.41081081</v>
       </c>
       <c r="G31" t="n">
         <v>18.41500000000008</v>
@@ -1495,7 +1495,7 @@
         <v>18.4</v>
       </c>
       <c r="F32" t="n">
-        <v>4345.8866</v>
+        <v>48210.5604</v>
       </c>
       <c r="G32" t="n">
         <v>18.41500000000008</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="C33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="D33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="E33" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="F33" t="n">
-        <v>10789.1891</v>
+        <v>4345.8866</v>
       </c>
       <c r="G33" t="n">
-        <v>18.41666666666675</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,19 +1553,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="C34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="D34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="E34" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="F34" t="n">
-        <v>1620.72</v>
+        <v>10789.1891</v>
       </c>
       <c r="G34" t="n">
         <v>18.41666666666675</v>
@@ -1600,7 +1600,7 @@
         <v>18.4</v>
       </c>
       <c r="F35" t="n">
-        <v>2283</v>
+        <v>1620.72</v>
       </c>
       <c r="G35" t="n">
         <v>18.41666666666675</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E36" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F36" t="n">
-        <v>151.8817</v>
+        <v>2283</v>
       </c>
       <c r="G36" t="n">
         <v>18.41666666666675</v>
@@ -1658,19 +1658,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E37" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F37" t="n">
-        <v>106780.9999</v>
+        <v>151.8817</v>
       </c>
       <c r="G37" t="n">
         <v>18.41666666666675</v>
@@ -1705,7 +1705,7 @@
         <v>18.4</v>
       </c>
       <c r="F38" t="n">
-        <v>62547.7153</v>
+        <v>106780.9999</v>
       </c>
       <c r="G38" t="n">
         <v>18.41666666666675</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E39" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F39" t="n">
-        <v>112298.2655</v>
+        <v>62547.7153</v>
       </c>
       <c r="G39" t="n">
-        <v>18.41500000000008</v>
+        <v>18.41666666666675</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E40" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F40" t="n">
-        <v>54.6467</v>
+        <v>112298.2655</v>
       </c>
       <c r="G40" t="n">
-        <v>18.41333333333341</v>
+        <v>18.41500000000008</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>18.4</v>
       </c>
       <c r="F41" t="n">
-        <v>51.4673</v>
+        <v>54.6467</v>
       </c>
       <c r="G41" t="n">
-        <v>18.41166666666675</v>
+        <v>18.41333333333341</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>18.4</v>
       </c>
       <c r="F42" t="n">
-        <v>27.0652</v>
+        <v>51.4673</v>
       </c>
       <c r="G42" t="n">
         <v>18.41166666666675</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E43" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F43" t="n">
-        <v>82041.14999999999</v>
+        <v>27.0652</v>
       </c>
       <c r="G43" t="n">
-        <v>18.41000000000008</v>
+        <v>18.41166666666675</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C44" t="n">
         <v>18.3</v>
       </c>
       <c r="D44" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E44" t="n">
         <v>18.3</v>
       </c>
       <c r="F44" t="n">
-        <v>49648.9015</v>
+        <v>82041.14999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>18.40833333333341</v>
+        <v>18.41000000000008</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>18.4</v>
       </c>
       <c r="C45" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D45" t="n">
         <v>18.4</v>
       </c>
       <c r="E45" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F45" t="n">
-        <v>977.3913</v>
+        <v>49648.9015</v>
       </c>
       <c r="G45" t="n">
         <v>18.40833333333341</v>
@@ -1976,19 +1976,19 @@
         <v>18.4</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D46" t="n">
         <v>18.4</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1847.4243</v>
+        <v>977.3913</v>
       </c>
       <c r="G46" t="n">
-        <v>18.40666666666674</v>
+        <v>18.40833333333341</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C47" t="n">
         <v>18.3</v>
       </c>
       <c r="D47" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E47" t="n">
         <v>18.3</v>
       </c>
       <c r="F47" t="n">
-        <v>1471.6</v>
+        <v>1847.4243</v>
       </c>
       <c r="G47" t="n">
-        <v>18.40333333333341</v>
+        <v>18.40666666666674</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>18.3</v>
       </c>
       <c r="F48" t="n">
-        <v>4599.8252</v>
+        <v>1471.6</v>
       </c>
       <c r="G48" t="n">
-        <v>18.40000000000007</v>
+        <v>18.40333333333341</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E49" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F49" t="n">
-        <v>543.4782</v>
+        <v>4599.8252</v>
       </c>
       <c r="G49" t="n">
-        <v>18.39833333333341</v>
+        <v>18.40000000000007</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E50" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F50" t="n">
-        <v>54.8625</v>
+        <v>543.4782</v>
       </c>
       <c r="G50" t="n">
-        <v>18.39500000000007</v>
+        <v>18.39833333333341</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>18.3</v>
       </c>
       <c r="F51" t="n">
-        <v>155</v>
+        <v>54.8625</v>
       </c>
       <c r="G51" t="n">
-        <v>18.39166666666674</v>
+        <v>18.39500000000007</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>18.3</v>
       </c>
       <c r="C52" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D52" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E52" t="n">
         <v>18.3</v>
       </c>
       <c r="F52" t="n">
-        <v>36854.3465</v>
+        <v>155</v>
       </c>
       <c r="G52" t="n">
-        <v>18.39000000000008</v>
+        <v>18.39166666666674</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>18.3</v>
       </c>
       <c r="C53" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D53" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E53" t="n">
         <v>18.3</v>
       </c>
       <c r="F53" t="n">
-        <v>2359.5</v>
+        <v>36854.3465</v>
       </c>
       <c r="G53" t="n">
-        <v>18.38500000000007</v>
+        <v>18.39000000000008</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E54" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F54" t="n">
-        <v>17.8532</v>
+        <v>2359.5</v>
       </c>
       <c r="G54" t="n">
-        <v>18.38333333333341</v>
+        <v>18.38500000000007</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E55" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F55" t="n">
-        <v>1544.33</v>
+        <v>17.8532</v>
       </c>
       <c r="G55" t="n">
-        <v>18.38000000000007</v>
+        <v>18.38333333333341</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E56" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F56" t="n">
-        <v>10869.56521739</v>
+        <v>1544.33</v>
       </c>
       <c r="G56" t="n">
-        <v>18.37833333333341</v>
+        <v>18.38000000000007</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E57" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F57" t="n">
-        <v>1544.92</v>
+        <v>10869.56521739</v>
       </c>
       <c r="G57" t="n">
-        <v>18.37500000000007</v>
+        <v>18.37833333333341</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>18.3</v>
       </c>
       <c r="F58" t="n">
-        <v>24663.4615</v>
+        <v>1544.92</v>
       </c>
       <c r="G58" t="n">
-        <v>18.37000000000008</v>
+        <v>18.37500000000007</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E59" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F59" t="n">
-        <v>534.7593000000001</v>
+        <v>24663.4615</v>
       </c>
       <c r="G59" t="n">
-        <v>18.36833333333341</v>
+        <v>18.37000000000008</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E60" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F60" t="n">
-        <v>1106.9043</v>
+        <v>534.7593000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>18.36666666666674</v>
+        <v>18.36833333333341</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="E61" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F61" t="n">
-        <v>12794.1304</v>
+        <v>1106.9043</v>
       </c>
       <c r="G61" t="n">
-        <v>18.36500000000008</v>
+        <v>18.36666666666674</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>18.4</v>
       </c>
       <c r="F62" t="n">
-        <v>554409.5662</v>
+        <v>12794.1304</v>
       </c>
       <c r="G62" t="n">
-        <v>18.36333333333341</v>
+        <v>18.36500000000008</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>18.4</v>
       </c>
       <c r="F63" t="n">
-        <v>203854.6125</v>
+        <v>554409.5662</v>
       </c>
       <c r="G63" t="n">
-        <v>18.36166666666675</v>
+        <v>18.36333333333341</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>18.4</v>
       </c>
       <c r="F64" t="n">
-        <v>36670</v>
+        <v>203854.6125</v>
       </c>
       <c r="G64" t="n">
-        <v>18.36000000000008</v>
+        <v>18.36166666666675</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>18.4</v>
       </c>
       <c r="F65" t="n">
-        <v>3050</v>
+        <v>36670</v>
       </c>
       <c r="G65" t="n">
-        <v>18.35833333333342</v>
+        <v>18.36000000000008</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>18.4</v>
       </c>
       <c r="F66" t="n">
-        <v>91383</v>
+        <v>3050</v>
       </c>
       <c r="G66" t="n">
         <v>18.35833333333342</v>
@@ -2711,19 +2711,19 @@
         <v>18.4</v>
       </c>
       <c r="C67" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D67" t="n">
         <v>18.4</v>
       </c>
       <c r="E67" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F67" t="n">
-        <v>300.652</v>
+        <v>91383</v>
       </c>
       <c r="G67" t="n">
-        <v>18.35666666666675</v>
+        <v>18.35833333333342</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C68" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D68" t="n">
         <v>18.4</v>
@@ -2755,7 +2755,7 @@
         <v>18.3</v>
       </c>
       <c r="F68" t="n">
-        <v>349192.43</v>
+        <v>300.652</v>
       </c>
       <c r="G68" t="n">
         <v>18.35666666666675</v>
@@ -2778,7 +2778,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="C69" t="n">
         <v>18.4</v>
@@ -2787,10 +2787,10 @@
         <v>18.4</v>
       </c>
       <c r="E69" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>349192.43</v>
       </c>
       <c r="G69" t="n">
         <v>18.35666666666675</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="C70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="D70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F70" t="n">
-        <v>7000</v>
+        <v>11</v>
       </c>
       <c r="G70" t="n">
-        <v>18.35500000000008</v>
+        <v>18.35666666666675</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>18.3</v>
       </c>
       <c r="F71" t="n">
-        <v>665022.3954</v>
+        <v>7000</v>
       </c>
       <c r="G71" t="n">
         <v>18.35500000000008</v>
@@ -2895,10 +2895,10 @@
         <v>18.3</v>
       </c>
       <c r="F72" t="n">
-        <v>278221.9264</v>
+        <v>665022.3954</v>
       </c>
       <c r="G72" t="n">
-        <v>18.35333333333341</v>
+        <v>18.35500000000008</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>18.3</v>
       </c>
       <c r="F73" t="n">
-        <v>15296.9999</v>
+        <v>278221.9264</v>
       </c>
       <c r="G73" t="n">
-        <v>18.35166666666674</v>
+        <v>18.35333333333341</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>18.3</v>
       </c>
       <c r="F74" t="n">
-        <v>13197.6502</v>
+        <v>15296.9999</v>
       </c>
       <c r="G74" t="n">
         <v>18.35166666666674</v>
@@ -3000,7 +3000,7 @@
         <v>18.3</v>
       </c>
       <c r="F75" t="n">
-        <v>41742.164</v>
+        <v>13197.6502</v>
       </c>
       <c r="G75" t="n">
         <v>18.35166666666674</v>
@@ -3035,7 +3035,7 @@
         <v>18.3</v>
       </c>
       <c r="F76" t="n">
-        <v>28217.9424</v>
+        <v>41742.164</v>
       </c>
       <c r="G76" t="n">
         <v>18.35166666666674</v>
@@ -3070,7 +3070,7 @@
         <v>18.3</v>
       </c>
       <c r="F77" t="n">
-        <v>20075.8995</v>
+        <v>28217.9424</v>
       </c>
       <c r="G77" t="n">
         <v>18.35166666666674</v>
@@ -3105,7 +3105,7 @@
         <v>18.3</v>
       </c>
       <c r="F78" t="n">
-        <v>61300</v>
+        <v>20075.8995</v>
       </c>
       <c r="G78" t="n">
         <v>18.35166666666674</v>
@@ -3140,7 +3140,7 @@
         <v>18.3</v>
       </c>
       <c r="F79" t="n">
-        <v>90392</v>
+        <v>61300</v>
       </c>
       <c r="G79" t="n">
         <v>18.35166666666674</v>
@@ -3175,7 +3175,7 @@
         <v>18.3</v>
       </c>
       <c r="F80" t="n">
-        <v>10211.6939</v>
+        <v>90392</v>
       </c>
       <c r="G80" t="n">
         <v>18.35166666666674</v>
@@ -3201,19 +3201,19 @@
         <v>18.3</v>
       </c>
       <c r="C81" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="D81" t="n">
         <v>18.3</v>
       </c>
       <c r="E81" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>10211.6939</v>
       </c>
       <c r="G81" t="n">
-        <v>18.35000000000008</v>
+        <v>18.35166666666674</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,10 +3233,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="C82" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="D82" t="n">
         <v>18.3</v>
@@ -3245,7 +3245,7 @@
         <v>18.2</v>
       </c>
       <c r="F82" t="n">
-        <v>12005.4644</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
         <v>18.35000000000008</v>
@@ -3271,19 +3271,19 @@
         <v>18.2</v>
       </c>
       <c r="C83" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="D83" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="E83" t="n">
         <v>18.2</v>
       </c>
       <c r="F83" t="n">
-        <v>1800.09</v>
+        <v>12005.4644</v>
       </c>
       <c r="G83" t="n">
-        <v>18.34833333333341</v>
+        <v>18.35000000000008</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>18.2</v>
       </c>
       <c r="F84" t="n">
-        <v>198244.7587</v>
+        <v>1800.09</v>
       </c>
       <c r="G84" t="n">
-        <v>18.34500000000008</v>
+        <v>18.34833333333341</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>18.2</v>
       </c>
       <c r="C85" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D85" t="n">
         <v>18.2</v>
       </c>
       <c r="E85" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F85" t="n">
-        <v>698273.3936</v>
+        <v>198244.7587</v>
       </c>
       <c r="G85" t="n">
-        <v>18.34166666666674</v>
+        <v>18.34500000000008</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>18.2</v>
       </c>
       <c r="C86" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D86" t="n">
         <v>18.2</v>
       </c>
       <c r="E86" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>698273.3936</v>
       </c>
       <c r="G86" t="n">
-        <v>18.34000000000008</v>
+        <v>18.34166666666674</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>18.2</v>
       </c>
       <c r="F87" t="n">
-        <v>207.5824</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>18.33666666666674</v>
+        <v>18.34000000000008</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>18.2</v>
       </c>
       <c r="F88" t="n">
-        <v>2022.4175</v>
+        <v>207.5824</v>
       </c>
       <c r="G88" t="n">
-        <v>18.33333333333341</v>
+        <v>18.33666666666674</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>18.2</v>
       </c>
       <c r="F89" t="n">
-        <v>160</v>
+        <v>2022.4175</v>
       </c>
       <c r="G89" t="n">
-        <v>18.33000000000008</v>
+        <v>18.33333333333341</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>18.2</v>
       </c>
       <c r="F90" t="n">
-        <v>285.151</v>
+        <v>160</v>
       </c>
       <c r="G90" t="n">
-        <v>18.32500000000008</v>
+        <v>18.33000000000008</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>18.2</v>
       </c>
       <c r="F91" t="n">
-        <v>427.6923</v>
+        <v>285.151</v>
       </c>
       <c r="G91" t="n">
-        <v>18.32166666666674</v>
+        <v>18.32500000000008</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>18.2</v>
       </c>
       <c r="F92" t="n">
-        <v>148318.5714</v>
+        <v>427.6923</v>
       </c>
       <c r="G92" t="n">
-        <v>18.31833333333341</v>
+        <v>18.32166666666674</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E93" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F93" t="n">
-        <v>27930</v>
+        <v>148318.5714</v>
       </c>
       <c r="G93" t="n">
-        <v>18.31166666666674</v>
+        <v>18.31833333333341</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E94" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F94" t="n">
-        <v>1072.1978</v>
+        <v>27930</v>
       </c>
       <c r="G94" t="n">
-        <v>18.3083333333334</v>
+        <v>18.31166666666674</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E95" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F95" t="n">
-        <v>262088.4746</v>
+        <v>1072.1978</v>
       </c>
       <c r="G95" t="n">
-        <v>18.3033333333334</v>
+        <v>18.3083333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>18.1</v>
       </c>
       <c r="F96" t="n">
-        <v>219599.6629</v>
+        <v>262088.4746</v>
       </c>
       <c r="G96" t="n">
-        <v>18.30000000000007</v>
+        <v>18.3033333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>18.1</v>
       </c>
       <c r="F97" t="n">
-        <v>231061.998</v>
+        <v>219599.6629</v>
       </c>
       <c r="G97" t="n">
-        <v>18.29500000000007</v>
+        <v>18.30000000000007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E98" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1009</v>
+        <v>231061.998</v>
       </c>
       <c r="G98" t="n">
-        <v>18.29166666666673</v>
+        <v>18.29500000000007</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>18.2</v>
       </c>
       <c r="F99" t="n">
-        <v>191.3736</v>
+        <v>1009</v>
       </c>
       <c r="G99" t="n">
-        <v>18.29000000000007</v>
+        <v>18.29166666666673</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>18.2</v>
       </c>
       <c r="C100" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D100" t="n">
         <v>18.2</v>
       </c>
       <c r="E100" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F100" t="n">
-        <v>70994.50539999999</v>
+        <v>191.3736</v>
       </c>
       <c r="G100" t="n">
-        <v>18.28500000000006</v>
+        <v>18.29000000000007</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C101" t="n">
         <v>18.1</v>
       </c>
       <c r="D101" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E101" t="n">
         <v>18.1</v>
       </c>
       <c r="F101" t="n">
-        <v>302273.91</v>
+        <v>70994.50539999999</v>
       </c>
       <c r="G101" t="n">
-        <v>18.28000000000006</v>
+        <v>18.28500000000006</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C102" t="n">
         <v>18.1</v>
       </c>
       <c r="D102" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E102" t="n">
         <v>18.1</v>
       </c>
       <c r="F102" t="n">
-        <v>142166.0718</v>
+        <v>302273.91</v>
       </c>
       <c r="G102" t="n">
-        <v>18.27500000000006</v>
+        <v>18.28000000000006</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C103" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D103" t="n">
         <v>18.2</v>
@@ -3980,10 +3980,10 @@
         <v>18.1</v>
       </c>
       <c r="F103" t="n">
-        <v>265592.6572</v>
+        <v>142166.0718</v>
       </c>
       <c r="G103" t="n">
-        <v>18.27333333333339</v>
+        <v>18.27500000000006</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C104" t="n">
         <v>18.2</v>
@@ -4012,13 +4012,13 @@
         <v>18.2</v>
       </c>
       <c r="E104" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F104" t="n">
-        <v>101</v>
+        <v>265592.6572</v>
       </c>
       <c r="G104" t="n">
-        <v>18.27166666666673</v>
+        <v>18.27333333333339</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E105" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F105" t="n">
-        <v>2187.6489</v>
+        <v>101</v>
       </c>
       <c r="G105" t="n">
-        <v>18.26666666666672</v>
+        <v>18.27166666666673</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E106" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F106" t="n">
-        <v>1902.4175</v>
+        <v>2187.6489</v>
       </c>
       <c r="G106" t="n">
-        <v>18.26500000000006</v>
+        <v>18.26666666666672</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>18.2</v>
       </c>
       <c r="F107" t="n">
-        <v>40931.8681</v>
+        <v>1902.4175</v>
       </c>
       <c r="G107" t="n">
-        <v>18.26333333333339</v>
+        <v>18.26500000000006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>18.2</v>
       </c>
       <c r="F108" t="n">
-        <v>3000</v>
+        <v>40931.8681</v>
       </c>
       <c r="G108" t="n">
-        <v>18.26166666666673</v>
+        <v>18.26333333333339</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E109" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F109" t="n">
-        <v>160</v>
+        <v>3000</v>
       </c>
       <c r="G109" t="n">
-        <v>18.25666666666672</v>
+        <v>18.26166666666673</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E110" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F110" t="n">
-        <v>13064.6031</v>
+        <v>160</v>
       </c>
       <c r="G110" t="n">
-        <v>18.25500000000006</v>
+        <v>18.25666666666672</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>18.2</v>
       </c>
       <c r="F111" t="n">
-        <v>483.8624</v>
+        <v>13064.6031</v>
       </c>
       <c r="G111" t="n">
-        <v>18.25333333333339</v>
+        <v>18.25500000000006</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E112" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F112" t="n">
-        <v>2088.42</v>
+        <v>483.8624</v>
       </c>
       <c r="G112" t="n">
-        <v>18.24833333333339</v>
+        <v>18.25333333333339</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>18.1</v>
       </c>
       <c r="F113" t="n">
-        <v>120100</v>
+        <v>2088.42</v>
       </c>
       <c r="G113" t="n">
-        <v>18.24500000000006</v>
+        <v>18.24833333333339</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>18.1</v>
       </c>
       <c r="F114" t="n">
-        <v>120625.5025</v>
+        <v>120100</v>
       </c>
       <c r="G114" t="n">
-        <v>18.24000000000006</v>
+        <v>18.24500000000006</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>18.1</v>
       </c>
       <c r="F115" t="n">
-        <v>65</v>
+        <v>120625.5025</v>
       </c>
       <c r="G115" t="n">
-        <v>18.23666666666672</v>
+        <v>18.24000000000006</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>18.1</v>
       </c>
       <c r="F116" t="n">
-        <v>26334.3181</v>
+        <v>65</v>
       </c>
       <c r="G116" t="n">
-        <v>18.23166666666672</v>
+        <v>18.23666666666672</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>18.1</v>
       </c>
       <c r="F117" t="n">
-        <v>32015.5878</v>
+        <v>26334.3181</v>
       </c>
       <c r="G117" t="n">
-        <v>18.22833333333339</v>
+        <v>18.23166666666672</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E118" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F118" t="n">
-        <v>4987.5</v>
+        <v>32015.5878</v>
       </c>
       <c r="G118" t="n">
-        <v>18.22333333333338</v>
+        <v>18.22833333333339</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>18</v>
       </c>
       <c r="F119" t="n">
-        <v>1427934.2814</v>
+        <v>4987.5</v>
       </c>
       <c r="G119" t="n">
-        <v>18.21666666666671</v>
+        <v>18.22333333333338</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E120" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F120" t="n">
-        <v>231.8756</v>
+        <v>1427934.2814</v>
       </c>
       <c r="G120" t="n">
-        <v>18.21333333333338</v>
+        <v>18.21666666666671</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E121" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F121" t="n">
-        <v>41200</v>
+        <v>231.8756</v>
       </c>
       <c r="G121" t="n">
-        <v>18.20666666666671</v>
+        <v>18.21333333333338</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>18</v>
       </c>
       <c r="D122" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E122" t="n">
         <v>18</v>
       </c>
       <c r="F122" t="n">
-        <v>308027.8655</v>
+        <v>41200</v>
       </c>
       <c r="G122" t="n">
-        <v>18.20000000000005</v>
+        <v>18.20666666666671</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4674,16 +4674,16 @@
         <v>18</v>
       </c>
       <c r="D123" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E123" t="n">
         <v>18</v>
       </c>
       <c r="F123" t="n">
-        <v>106984.8752</v>
+        <v>308027.8655</v>
       </c>
       <c r="G123" t="n">
-        <v>18.19333333333338</v>
+        <v>18.20000000000005</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E124" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F124" t="n">
-        <v>82.8729</v>
+        <v>106984.8752</v>
       </c>
       <c r="G124" t="n">
-        <v>18.18833333333338</v>
+        <v>18.19333333333338</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E125" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F125" t="n">
-        <v>27564.2201</v>
+        <v>82.8729</v>
       </c>
       <c r="G125" t="n">
-        <v>18.18166666666671</v>
+        <v>18.18833333333338</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C126" t="n">
         <v>18</v>
       </c>
       <c r="D126" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E126" t="n">
         <v>18</v>
       </c>
       <c r="F126" t="n">
-        <v>13807.1806</v>
+        <v>27564.2201</v>
       </c>
       <c r="G126" t="n">
-        <v>18.17500000000004</v>
+        <v>18.18166666666671</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C127" t="n">
         <v>18</v>
       </c>
       <c r="D127" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E127" t="n">
         <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>6419.4875</v>
+        <v>13807.1806</v>
       </c>
       <c r="G127" t="n">
-        <v>18.17000000000004</v>
+        <v>18.17500000000004</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E128" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F128" t="n">
-        <v>240</v>
+        <v>6419.4875</v>
       </c>
       <c r="G128" t="n">
-        <v>18.16500000000003</v>
+        <v>18.17000000000004</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>18.1</v>
       </c>
       <c r="F129" t="n">
-        <v>226.1878</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
-        <v>18.16000000000003</v>
+        <v>18.16500000000003</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>18.1</v>
       </c>
       <c r="F130" t="n">
-        <v>191.1049</v>
+        <v>226.1878</v>
       </c>
       <c r="G130" t="n">
-        <v>18.1566666666667</v>
+        <v>18.16000000000003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>18.1</v>
       </c>
       <c r="F131" t="n">
-        <v>104</v>
+        <v>191.1049</v>
       </c>
       <c r="G131" t="n">
-        <v>18.15333333333336</v>
+        <v>18.1566666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>18.1</v>
       </c>
       <c r="F132" t="n">
-        <v>2000</v>
+        <v>104</v>
       </c>
       <c r="G132" t="n">
-        <v>18.15000000000003</v>
+        <v>18.15333333333336</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5030,10 @@
         <v>18.1</v>
       </c>
       <c r="F133" t="n">
-        <v>1384879.9953</v>
+        <v>2000</v>
       </c>
       <c r="G133" t="n">
-        <v>18.1466666666667</v>
+        <v>18.15000000000003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>18.1</v>
       </c>
       <c r="F134" t="n">
-        <v>1571274.2849</v>
+        <v>1384879.9953</v>
       </c>
       <c r="G134" t="n">
-        <v>18.14333333333336</v>
+        <v>18.1466666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>18.1</v>
       </c>
       <c r="F135" t="n">
-        <v>152939.8879</v>
+        <v>1571274.2849</v>
       </c>
       <c r="G135" t="n">
-        <v>18.14000000000003</v>
+        <v>18.14333333333336</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>18.1</v>
       </c>
       <c r="F136" t="n">
-        <v>1295.6689</v>
+        <v>152939.8879</v>
       </c>
       <c r="G136" t="n">
-        <v>18.1366666666667</v>
+        <v>18.14000000000003</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>18.1</v>
       </c>
       <c r="F137" t="n">
-        <v>325281</v>
+        <v>1295.6689</v>
       </c>
       <c r="G137" t="n">
-        <v>18.13333333333336</v>
+        <v>18.1366666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>18.1</v>
       </c>
       <c r="F138" t="n">
-        <v>1844.6659</v>
+        <v>325281</v>
       </c>
       <c r="G138" t="n">
-        <v>18.13000000000003</v>
+        <v>18.13333333333336</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E139" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F139" t="n">
-        <v>280272.2659</v>
+        <v>1844.6659</v>
       </c>
       <c r="G139" t="n">
-        <v>18.12500000000002</v>
+        <v>18.13000000000003</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E140" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F140" t="n">
-        <v>42320</v>
+        <v>280272.2659</v>
       </c>
       <c r="G140" t="n">
-        <v>18.12166666666669</v>
+        <v>18.12500000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>18.1</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>42320</v>
       </c>
       <c r="G141" t="n">
-        <v>18.12000000000002</v>
+        <v>18.12166666666669</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         <v>18.1</v>
       </c>
       <c r="F142" t="n">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>18.11666666666669</v>
+        <v>18.12000000000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>18.1</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="G143" t="n">
-        <v>18.11500000000002</v>
+        <v>18.11666666666669</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5409,16 +5409,16 @@
         <v>18.1</v>
       </c>
       <c r="D144" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E144" t="n">
         <v>18.1</v>
       </c>
       <c r="F144" t="n">
-        <v>691977.9162</v>
+        <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>18.11333333333335</v>
+        <v>18.11500000000002</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5444,13 +5444,13 @@
         <v>18.1</v>
       </c>
       <c r="D145" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E145" t="n">
         <v>18.1</v>
       </c>
       <c r="F145" t="n">
-        <v>16574.5856</v>
+        <v>691977.9162</v>
       </c>
       <c r="G145" t="n">
         <v>18.11333333333335</v>
@@ -5485,10 +5485,10 @@
         <v>18.1</v>
       </c>
       <c r="F146" t="n">
-        <v>19930</v>
+        <v>16574.5856</v>
       </c>
       <c r="G146" t="n">
-        <v>18.11166666666668</v>
+        <v>18.11333333333335</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5520,10 @@
         <v>18.1</v>
       </c>
       <c r="F147" t="n">
-        <v>2199.1712</v>
+        <v>19930</v>
       </c>
       <c r="G147" t="n">
-        <v>18.11000000000001</v>
+        <v>18.11166666666668</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>18.1</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>2199.1712</v>
       </c>
       <c r="G148" t="n">
-        <v>18.10833333333334</v>
+        <v>18.11000000000001</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>18.1</v>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G149" t="n">
-        <v>18.10666666666668</v>
+        <v>18.10833333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E150" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F150" t="n">
-        <v>1961.04</v>
+        <v>500</v>
       </c>
       <c r="G150" t="n">
-        <v>18.10333333333334</v>
+        <v>18.10666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>18</v>
       </c>
       <c r="F151" t="n">
-        <v>1227.2334</v>
+        <v>1961.04</v>
       </c>
       <c r="G151" t="n">
-        <v>18.10000000000001</v>
+        <v>18.10333333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5695,10 @@
         <v>18</v>
       </c>
       <c r="F152" t="n">
-        <v>43332.4982</v>
+        <v>1227.2334</v>
       </c>
       <c r="G152" t="n">
-        <v>18.09666666666667</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C153" t="n">
         <v>18</v>
       </c>
       <c r="D153" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E153" t="n">
         <v>18</v>
       </c>
       <c r="F153" t="n">
-        <v>1452.32</v>
+        <v>43332.4982</v>
       </c>
       <c r="G153" t="n">
-        <v>18.09500000000001</v>
+        <v>18.09666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C154" t="n">
         <v>18</v>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E154" t="n">
         <v>18</v>
       </c>
       <c r="F154" t="n">
-        <v>260849.9445</v>
+        <v>1452.32</v>
       </c>
       <c r="G154" t="n">
-        <v>18.09166666666668</v>
+        <v>18.09500000000001</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,19 +5788,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E155" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F155" t="n">
-        <v>100</v>
+        <v>260849.9445</v>
       </c>
       <c r="G155" t="n">
         <v>18.09166666666668</v>
@@ -5835,7 +5835,7 @@
         <v>18.1</v>
       </c>
       <c r="F156" t="n">
-        <v>950.8287</v>
+        <v>100</v>
       </c>
       <c r="G156" t="n">
         <v>18.09166666666668</v>
@@ -5870,7 +5870,7 @@
         <v>18.1</v>
       </c>
       <c r="F157" t="n">
-        <v>1491.7127</v>
+        <v>950.8287</v>
       </c>
       <c r="G157" t="n">
         <v>18.09166666666668</v>
@@ -5905,10 +5905,10 @@
         <v>18.1</v>
       </c>
       <c r="F158" t="n">
-        <v>66298.2795</v>
+        <v>1491.7127</v>
       </c>
       <c r="G158" t="n">
-        <v>18.09000000000001</v>
+        <v>18.09166666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C159" t="n">
         <v>18.1</v>
@@ -5937,13 +5937,13 @@
         <v>18.1</v>
       </c>
       <c r="E159" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F159" t="n">
-        <v>20240.2597</v>
+        <v>66298.2795</v>
       </c>
       <c r="G159" t="n">
-        <v>18.08833333333333</v>
+        <v>18.09000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,7 +5963,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C160" t="n">
         <v>18.1</v>
@@ -5972,10 +5972,10 @@
         <v>18.1</v>
       </c>
       <c r="E160" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F160" t="n">
-        <v>5524.8618</v>
+        <v>20240.2597</v>
       </c>
       <c r="G160" t="n">
         <v>18.08833333333333</v>
@@ -6010,7 +6010,7 @@
         <v>18.1</v>
       </c>
       <c r="F161" t="n">
-        <v>3349.0607</v>
+        <v>5524.8618</v>
       </c>
       <c r="G161" t="n">
         <v>18.08833333333333</v>
@@ -6045,7 +6045,7 @@
         <v>18.1</v>
       </c>
       <c r="F162" t="n">
-        <v>11049.7237569</v>
+        <v>3349.0607</v>
       </c>
       <c r="G162" t="n">
         <v>18.08833333333333</v>
@@ -6080,10 +6080,10 @@
         <v>18.1</v>
       </c>
       <c r="F163" t="n">
-        <v>100000</v>
+        <v>11049.7237569</v>
       </c>
       <c r="G163" t="n">
-        <v>18.08666666666667</v>
+        <v>18.08833333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6115,10 @@
         <v>18.1</v>
       </c>
       <c r="F164" t="n">
-        <v>31848.8736</v>
+        <v>100000</v>
       </c>
       <c r="G164" t="n">
-        <v>18.085</v>
+        <v>18.08666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6150,7 +6150,7 @@
         <v>18.1</v>
       </c>
       <c r="F165" t="n">
-        <v>127338.5443</v>
+        <v>31848.8736</v>
       </c>
       <c r="G165" t="n">
         <v>18.085</v>
@@ -6185,10 +6185,10 @@
         <v>18.1</v>
       </c>
       <c r="F166" t="n">
-        <v>49723.7569</v>
+        <v>127338.5443</v>
       </c>
       <c r="G166" t="n">
-        <v>18.08333333333333</v>
+        <v>18.085</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6220,10 +6220,10 @@
         <v>18.1</v>
       </c>
       <c r="F167" t="n">
-        <v>295421.9999431</v>
+        <v>49723.7569</v>
       </c>
       <c r="G167" t="n">
-        <v>18.08166666666666</v>
+        <v>18.08333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,19 +6243,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E168" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F168" t="n">
-        <v>6964.6152</v>
+        <v>295421.9999431</v>
       </c>
       <c r="G168" t="n">
         <v>18.08166666666666</v>
@@ -6281,16 +6281,16 @@
         <v>18.2</v>
       </c>
       <c r="C169" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D169" t="n">
         <v>18.2</v>
       </c>
       <c r="E169" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F169" t="n">
-        <v>6307.8296</v>
+        <v>6964.6152</v>
       </c>
       <c r="G169" t="n">
         <v>18.08166666666666</v>
@@ -6316,16 +6316,16 @@
         <v>18.2</v>
       </c>
       <c r="C170" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D170" t="n">
         <v>18.2</v>
       </c>
       <c r="E170" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F170" t="n">
-        <v>10.8791</v>
+        <v>6307.8296</v>
       </c>
       <c r="G170" t="n">
         <v>18.08166666666666</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E171" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F171" t="n">
-        <v>2006.31</v>
+        <v>10.8791</v>
       </c>
       <c r="G171" t="n">
-        <v>18.07999999999999</v>
+        <v>18.08166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>18.1</v>
       </c>
       <c r="F172" t="n">
-        <v>34111.3333</v>
+        <v>2006.31</v>
       </c>
       <c r="G172" t="n">
         <v>18.07999999999999</v>
@@ -6424,13 +6424,13 @@
         <v>18.1</v>
       </c>
       <c r="D173" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E173" t="n">
         <v>18.1</v>
       </c>
       <c r="F173" t="n">
-        <v>480751.2929</v>
+        <v>34111.3333</v>
       </c>
       <c r="G173" t="n">
         <v>18.07999999999999</v>
@@ -6459,13 +6459,13 @@
         <v>18.1</v>
       </c>
       <c r="D174" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E174" t="n">
         <v>18.1</v>
       </c>
       <c r="F174" t="n">
-        <v>12220</v>
+        <v>480751.2929</v>
       </c>
       <c r="G174" t="n">
         <v>18.07999999999999</v>
@@ -6500,7 +6500,7 @@
         <v>18.1</v>
       </c>
       <c r="F175" t="n">
-        <v>654613.1878</v>
+        <v>12220</v>
       </c>
       <c r="G175" t="n">
         <v>18.07999999999999</v>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E176" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F176" t="n">
-        <v>30000</v>
+        <v>654613.1878</v>
       </c>
       <c r="G176" t="n">
-        <v>18.08166666666666</v>
+        <v>18.07999999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6570,10 @@
         <v>18.2</v>
       </c>
       <c r="F177" t="n">
-        <v>110000</v>
+        <v>30000</v>
       </c>
       <c r="G177" t="n">
-        <v>18.08333333333333</v>
+        <v>18.08166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E178" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F178" t="n">
-        <v>350000</v>
+        <v>110000</v>
       </c>
       <c r="G178" t="n">
-        <v>18.08499999999999</v>
+        <v>18.08333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,28 +6628,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E179" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F179" t="n">
-        <v>36565.934</v>
+        <v>350000</v>
       </c>
       <c r="G179" t="n">
-        <v>18.08833333333333</v>
+        <v>18.08499999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -6663,19 +6663,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E180" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F180" t="n">
-        <v>1441.61</v>
+        <v>36565.934</v>
       </c>
       <c r="G180" t="n">
         <v>18.08833333333333</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E181" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F181" t="n">
-        <v>3416.7307</v>
+        <v>1441.61</v>
       </c>
       <c r="G181" t="n">
-        <v>18.09166666666666</v>
+        <v>18.08833333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E182" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F182" t="n">
-        <v>1483.78</v>
+        <v>3416.7307</v>
       </c>
       <c r="G182" t="n">
-        <v>18.09333333333333</v>
+        <v>18.09166666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6780,10 +6780,10 @@
         <v>18.1</v>
       </c>
       <c r="F183" t="n">
-        <v>343513.4905</v>
+        <v>1483.78</v>
       </c>
       <c r="G183" t="n">
-        <v>18.09499999999999</v>
+        <v>18.09333333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>18.1</v>
       </c>
       <c r="F184" t="n">
-        <v>167948.736</v>
+        <v>343513.4905</v>
       </c>
       <c r="G184" t="n">
         <v>18.09499999999999</v>
@@ -6850,10 +6850,10 @@
         <v>18.1</v>
       </c>
       <c r="F185" t="n">
-        <v>1335.5791</v>
+        <v>167948.736</v>
       </c>
       <c r="G185" t="n">
-        <v>18.09666666666666</v>
+        <v>18.09499999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6885,10 @@
         <v>18.1</v>
       </c>
       <c r="F186" t="n">
-        <v>164380.5219</v>
+        <v>1335.5791</v>
       </c>
       <c r="G186" t="n">
-        <v>18.09833333333332</v>
+        <v>18.09666666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6920,10 +6920,10 @@
         <v>18.1</v>
       </c>
       <c r="F187" t="n">
-        <v>63228.7716</v>
+        <v>164380.5219</v>
       </c>
       <c r="G187" t="n">
-        <v>18.09999999999999</v>
+        <v>18.09833333333332</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>18.1</v>
       </c>
       <c r="F188" t="n">
-        <v>75231.5</v>
+        <v>63228.7716</v>
       </c>
       <c r="G188" t="n">
         <v>18.09999999999999</v>
@@ -6978,19 +6978,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C189" t="n">
         <v>18.1</v>
       </c>
       <c r="D189" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E189" t="n">
         <v>18.1</v>
       </c>
       <c r="F189" t="n">
-        <v>1973.5339</v>
+        <v>75231.5</v>
       </c>
       <c r="G189" t="n">
         <v>18.09999999999999</v>
@@ -7016,19 +7016,19 @@
         <v>18.2</v>
       </c>
       <c r="C190" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D190" t="n">
         <v>18.2</v>
       </c>
       <c r="E190" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F190" t="n">
-        <v>5000</v>
+        <v>1973.5339</v>
       </c>
       <c r="G190" t="n">
-        <v>18.10166666666666</v>
+        <v>18.09999999999999</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,19 +7048,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E191" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F191" t="n">
-        <v>56758.5806</v>
+        <v>5000</v>
       </c>
       <c r="G191" t="n">
         <v>18.10166666666666</v>
@@ -7095,7 +7095,7 @@
         <v>18.1</v>
       </c>
       <c r="F192" t="n">
-        <v>28762.0131</v>
+        <v>56758.5806</v>
       </c>
       <c r="G192" t="n">
         <v>18.10166666666666</v>
@@ -7130,7 +7130,7 @@
         <v>18.1</v>
       </c>
       <c r="F193" t="n">
-        <v>33409.5536</v>
+        <v>28762.0131</v>
       </c>
       <c r="G193" t="n">
         <v>18.10166666666666</v>
@@ -7165,7 +7165,7 @@
         <v>18.1</v>
       </c>
       <c r="F194" t="n">
-        <v>27024.7182</v>
+        <v>33409.5536</v>
       </c>
       <c r="G194" t="n">
         <v>18.10166666666666</v>
@@ -7200,7 +7200,7 @@
         <v>18.1</v>
       </c>
       <c r="F195" t="n">
-        <v>27071.8232</v>
+        <v>27024.7182</v>
       </c>
       <c r="G195" t="n">
         <v>18.10166666666666</v>
@@ -7235,7 +7235,7 @@
         <v>18.1</v>
       </c>
       <c r="F196" t="n">
-        <v>13125.798</v>
+        <v>27071.8232</v>
       </c>
       <c r="G196" t="n">
         <v>18.10166666666666</v>
@@ -7270,7 +7270,7 @@
         <v>18.1</v>
       </c>
       <c r="F197" t="n">
-        <v>30657.9232</v>
+        <v>13125.798</v>
       </c>
       <c r="G197" t="n">
         <v>18.10166666666666</v>
@@ -7305,7 +7305,7 @@
         <v>18.1</v>
       </c>
       <c r="F198" t="n">
-        <v>8862.0041</v>
+        <v>30657.9232</v>
       </c>
       <c r="G198" t="n">
         <v>18.10166666666666</v>
@@ -7340,10 +7340,10 @@
         <v>18.1</v>
       </c>
       <c r="F199" t="n">
-        <v>2440.8</v>
+        <v>8862.0041</v>
       </c>
       <c r="G199" t="n">
-        <v>18.10333333333332</v>
+        <v>18.10166666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,7 +7375,7 @@
         <v>18.1</v>
       </c>
       <c r="F200" t="n">
-        <v>1686.8408</v>
+        <v>2440.8</v>
       </c>
       <c r="G200" t="n">
         <v>18.10333333333332</v>
@@ -7410,7 +7410,7 @@
         <v>18.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1724.8026</v>
+        <v>1686.8408</v>
       </c>
       <c r="G201" t="n">
         <v>18.10333333333332</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E202" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F202" t="n">
-        <v>63.1868</v>
+        <v>1724.8026</v>
       </c>
       <c r="G202" t="n">
-        <v>18.10499999999999</v>
+        <v>18.10333333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7471,16 +7471,16 @@
         <v>18.2</v>
       </c>
       <c r="C203" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D203" t="n">
         <v>18.2</v>
       </c>
       <c r="E203" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F203" t="n">
-        <v>39177.2823</v>
+        <v>63.1868</v>
       </c>
       <c r="G203" t="n">
         <v>18.10499999999999</v>
@@ -7506,19 +7506,19 @@
         <v>18.2</v>
       </c>
       <c r="C204" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D204" t="n">
         <v>18.2</v>
       </c>
       <c r="E204" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F204" t="n">
-        <v>1633.5164</v>
+        <v>39177.2823</v>
       </c>
       <c r="G204" t="n">
-        <v>18.10666666666666</v>
+        <v>18.10499999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>18.2</v>
       </c>
       <c r="F205" t="n">
-        <v>12074.5054</v>
+        <v>1633.5164</v>
       </c>
       <c r="G205" t="n">
-        <v>18.10833333333333</v>
+        <v>18.10666666666666</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,19 +7573,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E206" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F206" t="n">
-        <v>1454.86</v>
+        <v>12074.5054</v>
       </c>
       <c r="G206" t="n">
         <v>18.10833333333333</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E207" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F207" t="n">
-        <v>23.1868</v>
+        <v>1454.86</v>
       </c>
       <c r="G207" t="n">
-        <v>18.11</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7643,19 +7643,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E208" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F208" t="n">
-        <v>38411.9051</v>
+        <v>23.1868</v>
       </c>
       <c r="G208" t="n">
         <v>18.11</v>
@@ -7690,7 +7690,7 @@
         <v>18.1</v>
       </c>
       <c r="F209" t="n">
-        <v>98923.0702</v>
+        <v>38411.9051</v>
       </c>
       <c r="G209" t="n">
         <v>18.11</v>
@@ -7725,10 +7725,10 @@
         <v>18.1</v>
       </c>
       <c r="F210" t="n">
-        <v>630673.8602999999</v>
+        <v>98923.0702</v>
       </c>
       <c r="G210" t="n">
-        <v>18.11166666666666</v>
+        <v>18.11</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7760,10 +7760,10 @@
         <v>18.1</v>
       </c>
       <c r="F211" t="n">
-        <v>313367.8452</v>
+        <v>630673.8602999999</v>
       </c>
       <c r="G211" t="n">
-        <v>18.11333333333333</v>
+        <v>18.11166666666666</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7795,10 +7795,10 @@
         <v>18.1</v>
       </c>
       <c r="F212" t="n">
-        <v>332.98342541</v>
+        <v>313367.8452</v>
       </c>
       <c r="G212" t="n">
-        <v>18.11499999999999</v>
+        <v>18.11333333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7830,10 +7830,10 @@
         <v>18.1</v>
       </c>
       <c r="F213" t="n">
-        <v>99943.63800000001</v>
+        <v>332.98342541</v>
       </c>
       <c r="G213" t="n">
-        <v>18.11666666666666</v>
+        <v>18.11499999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7865,10 +7865,10 @@
         <v>18.1</v>
       </c>
       <c r="F214" t="n">
-        <v>555.0276243</v>
+        <v>99943.63800000001</v>
       </c>
       <c r="G214" t="n">
-        <v>18.11833333333333</v>
+        <v>18.11666666666666</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7888,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E215" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F215" t="n">
-        <v>1760.59</v>
+        <v>555.0276243</v>
       </c>
       <c r="G215" t="n">
-        <v>18.11666666666666</v>
+        <v>18.11833333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7935,10 +7935,10 @@
         <v>18</v>
       </c>
       <c r="F216" t="n">
-        <v>900557.5516</v>
+        <v>1760.59</v>
       </c>
       <c r="G216" t="n">
-        <v>18.11499999999999</v>
+        <v>18.11666666666666</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7970,10 +7970,10 @@
         <v>18</v>
       </c>
       <c r="F217" t="n">
-        <v>1009622.2012</v>
+        <v>900557.5516</v>
       </c>
       <c r="G217" t="n">
-        <v>18.11333333333333</v>
+        <v>18.11499999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8005,10 +8005,10 @@
         <v>18</v>
       </c>
       <c r="F218" t="n">
-        <v>404554.0554</v>
+        <v>1009622.2012</v>
       </c>
       <c r="G218" t="n">
-        <v>18.11166666666666</v>
+        <v>18.11333333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="C219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="D219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="E219" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F219" t="n">
-        <v>3875.8281</v>
+        <v>404554.0554</v>
       </c>
       <c r="G219" t="n">
-        <v>18.10833333333333</v>
+        <v>18.11166666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8063,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E220" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F220" t="n">
-        <v>15</v>
+        <v>3875.8281</v>
       </c>
       <c r="G220" t="n">
-        <v>18.10666666666667</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8110,10 +8110,10 @@
         <v>18</v>
       </c>
       <c r="F221" t="n">
-        <v>81783.977</v>
+        <v>15</v>
       </c>
       <c r="G221" t="n">
-        <v>18.105</v>
+        <v>18.10666666666667</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8145,10 +8145,10 @@
         <v>18</v>
       </c>
       <c r="F222" t="n">
-        <v>24741.1666</v>
+        <v>81783.977</v>
       </c>
       <c r="G222" t="n">
-        <v>18.10333333333334</v>
+        <v>18.105</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8180,10 +8180,10 @@
         <v>18</v>
       </c>
       <c r="F223" t="n">
-        <v>40336.3136</v>
+        <v>24741.1666</v>
       </c>
       <c r="G223" t="n">
-        <v>18.10166666666667</v>
+        <v>18.10333333333334</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>18</v>
       </c>
       <c r="F224" t="n">
-        <v>41300</v>
+        <v>40336.3136</v>
       </c>
       <c r="G224" t="n">
-        <v>18.10000000000001</v>
+        <v>18.10166666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>18</v>
       </c>
       <c r="F225" t="n">
-        <v>214648.5503</v>
+        <v>41300</v>
       </c>
       <c r="G225" t="n">
-        <v>18.09833333333334</v>
+        <v>18.10000000000001</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
         <v>18</v>
       </c>
       <c r="F226" t="n">
-        <v>3000</v>
+        <v>214648.5503</v>
       </c>
       <c r="G226" t="n">
-        <v>18.09666666666668</v>
+        <v>18.09833333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>18</v>
       </c>
       <c r="F227" t="n">
-        <v>159576.0594</v>
+        <v>3000</v>
       </c>
       <c r="G227" t="n">
-        <v>18.09500000000001</v>
+        <v>18.09666666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8355,10 +8355,10 @@
         <v>18</v>
       </c>
       <c r="F228" t="n">
-        <v>17003.9841</v>
+        <v>159576.0594</v>
       </c>
       <c r="G228" t="n">
-        <v>18.09166666666668</v>
+        <v>18.09500000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8390,19 +8390,23 @@
         <v>18</v>
       </c>
       <c r="F229" t="n">
-        <v>46733.4206</v>
+        <v>17003.9841</v>
       </c>
       <c r="G229" t="n">
-        <v>18.09000000000001</v>
+        <v>18.09166666666668</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18</v>
+      </c>
+      <c r="K229" t="n">
+        <v>18</v>
+      </c>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
@@ -8425,10 +8429,10 @@
         <v>18</v>
       </c>
       <c r="F230" t="n">
-        <v>504206.1638</v>
+        <v>46733.4206</v>
       </c>
       <c r="G230" t="n">
-        <v>18.08666666666668</v>
+        <v>18.09000000000001</v>
       </c>
       <c r="H230" t="n">
         <v>1</v>
@@ -8442,7 +8446,11 @@
       <c r="K230" t="n">
         <v>18</v>
       </c>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8464,18 +8472,20 @@
         <v>18</v>
       </c>
       <c r="F231" t="n">
-        <v>55555.55555555</v>
+        <v>504206.1638</v>
       </c>
       <c r="G231" t="n">
-        <v>18.08500000000002</v>
+        <v>18.08666666666668</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>18</v>
+      </c>
       <c r="K231" t="n">
         <v>18</v>
       </c>
@@ -8505,63 +8515,67 @@
         <v>18</v>
       </c>
       <c r="F232" t="n">
+        <v>55555.55555555</v>
+      </c>
+      <c r="G232" t="n">
+        <v>18.08500000000002</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>18</v>
+      </c>
+      <c r="K232" t="n">
+        <v>18</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18</v>
+      </c>
+      <c r="C233" t="n">
+        <v>18</v>
+      </c>
+      <c r="D233" t="n">
+        <v>18</v>
+      </c>
+      <c r="E233" t="n">
+        <v>18</v>
+      </c>
+      <c r="F233" t="n">
         <v>2408.2777</v>
       </c>
-      <c r="G232" t="n">
+      <c r="G233" t="n">
         <v>18.08333333333335</v>
       </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>18</v>
-      </c>
-      <c r="K232" t="n">
-        <v>18</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>18</v>
+      </c>
+      <c r="K233" t="n">
+        <v>18</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C233" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D233" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E233" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3005.22</v>
-      </c>
-      <c r="G233" t="n">
-        <v>18.08000000000002</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8571,22 +8585,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E234" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F234" t="n">
-        <v>230</v>
+        <v>3005.22</v>
       </c>
       <c r="G234" t="n">
-        <v>18.07833333333335</v>
+        <v>18.08000000000002</v>
       </c>
       <c r="H234" t="n">
         <v>1</v>
@@ -8595,12 +8609,16 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="K234" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L234" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8610,40 +8628,32 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="C235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="D235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="E235" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F235" t="n">
-        <v>2570.7085</v>
+        <v>230</v>
       </c>
       <c r="G235" t="n">
-        <v>18.07500000000002</v>
+        <v>18.07833333333335</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>18</v>
-      </c>
-      <c r="K235" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8665,28 +8675,20 @@
         <v>17.9</v>
       </c>
       <c r="F236" t="n">
-        <v>823277.7602</v>
+        <v>2570.7085</v>
       </c>
       <c r="G236" t="n">
-        <v>18.07000000000003</v>
+        <v>18.07500000000002</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8708,23 +8710,19 @@
         <v>17.9</v>
       </c>
       <c r="F237" t="n">
-        <v>310112.2771</v>
+        <v>823277.7602</v>
       </c>
       <c r="G237" t="n">
-        <v>18.06500000000002</v>
+        <v>18.07000000000003</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K237" t="n">
-        <v>17.9</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
@@ -8735,40 +8733,32 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="D238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="E238" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F238" t="n">
-        <v>5000</v>
+        <v>310112.2771</v>
       </c>
       <c r="G238" t="n">
-        <v>18.06333333333336</v>
+        <v>18.06500000000002</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8790,10 +8780,10 @@
         <v>18</v>
       </c>
       <c r="F239" t="n">
-        <v>1090040.95664445</v>
+        <v>5000</v>
       </c>
       <c r="G239" t="n">
-        <v>18.06000000000002</v>
+        <v>18.06333333333336</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8802,14 +8792,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8828,13 +8812,13 @@
         <v>18</v>
       </c>
       <c r="E240" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="F240" t="n">
-        <v>767395.4639</v>
+        <v>1090040.95664445</v>
       </c>
       <c r="G240" t="n">
-        <v>18.05833333333336</v>
+        <v>18.06000000000002</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8863,13 +8847,13 @@
         <v>18</v>
       </c>
       <c r="E241" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F241" t="n">
-        <v>119154.2366</v>
+        <v>767395.4639</v>
       </c>
       <c r="G241" t="n">
-        <v>18.05500000000002</v>
+        <v>18.05833333333336</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8901,10 +8885,10 @@
         <v>18</v>
       </c>
       <c r="F242" t="n">
-        <v>430.5508</v>
+        <v>119154.2366</v>
       </c>
       <c r="G242" t="n">
-        <v>18.05333333333336</v>
+        <v>18.05500000000002</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8936,10 +8920,10 @@
         <v>18</v>
       </c>
       <c r="F243" t="n">
-        <v>194791.5639</v>
+        <v>430.5508</v>
       </c>
       <c r="G243" t="n">
-        <v>18.05166666666669</v>
+        <v>18.05333333333336</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8959,19 +8943,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E244" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F244" t="n">
-        <v>555.0276243</v>
+        <v>194791.5639</v>
       </c>
       <c r="G244" t="n">
         <v>18.05166666666669</v>
@@ -8994,22 +8978,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="C245" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D245" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E245" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="F245" t="n">
-        <v>2251.3</v>
+        <v>555.0276243</v>
       </c>
       <c r="G245" t="n">
-        <v>18.05000000000003</v>
+        <v>18.05166666666669</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9029,19 +9013,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="C246" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D246" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E246" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="F246" t="n">
-        <v>216220.353</v>
+        <v>2251.3</v>
       </c>
       <c r="G246" t="n">
         <v>18.05000000000003</v>
@@ -9064,22 +9048,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C247" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D247" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E247" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F247" t="n">
-        <v>308978.8613514</v>
+        <v>216220.353</v>
       </c>
       <c r="G247" t="n">
-        <v>18.0516666666667</v>
+        <v>18.05000000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9099,7 +9083,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C248" t="n">
         <v>18.2</v>
@@ -9108,13 +9092,13 @@
         <v>18.2</v>
       </c>
       <c r="E248" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F248" t="n">
-        <v>76133.02197802</v>
+        <v>308978.8613514</v>
       </c>
       <c r="G248" t="n">
-        <v>18.05333333333337</v>
+        <v>18.0516666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9140,16 +9124,16 @@
         <v>18.2</v>
       </c>
       <c r="D249" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="E249" t="n">
         <v>18.2</v>
       </c>
       <c r="F249" t="n">
-        <v>487959.2991</v>
+        <v>76133.02197802</v>
       </c>
       <c r="G249" t="n">
-        <v>18.05500000000004</v>
+        <v>18.05333333333337</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9175,13 +9159,13 @@
         <v>18.2</v>
       </c>
       <c r="D250" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="E250" t="n">
         <v>18.2</v>
       </c>
       <c r="F250" t="n">
-        <v>26655.1916</v>
+        <v>487959.2991</v>
       </c>
       <c r="G250" t="n">
         <v>18.05500000000004</v>
@@ -9190,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
@@ -9207,16 +9191,16 @@
         <v>18.2</v>
       </c>
       <c r="C251" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D251" t="n">
         <v>18.2</v>
       </c>
       <c r="E251" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F251" t="n">
-        <v>147970.283</v>
+        <v>26655.1916</v>
       </c>
       <c r="G251" t="n">
         <v>18.05500000000004</v>
@@ -9242,19 +9226,19 @@
         <v>18.2</v>
       </c>
       <c r="C252" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D252" t="n">
         <v>18.2</v>
       </c>
       <c r="E252" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F252" t="n">
-        <v>10962.912</v>
+        <v>147970.283</v>
       </c>
       <c r="G252" t="n">
-        <v>18.05666666666671</v>
+        <v>18.05500000000004</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9277,16 +9261,16 @@
         <v>18.2</v>
       </c>
       <c r="C253" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D253" t="n">
         <v>18.2</v>
       </c>
       <c r="E253" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F253" t="n">
-        <v>50000</v>
+        <v>10962.912</v>
       </c>
       <c r="G253" t="n">
         <v>18.05666666666671</v>
@@ -9295,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -9312,19 +9296,19 @@
         <v>18.2</v>
       </c>
       <c r="C254" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D254" t="n">
         <v>18.2</v>
       </c>
       <c r="E254" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F254" t="n">
-        <v>2993.8472</v>
+        <v>50000</v>
       </c>
       <c r="G254" t="n">
-        <v>18.05833333333338</v>
+        <v>18.05666666666671</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9356,16 +9340,16 @@
         <v>18.2</v>
       </c>
       <c r="F255" t="n">
-        <v>2334.7548</v>
+        <v>2993.8472</v>
       </c>
       <c r="G255" t="n">
-        <v>18.06000000000004</v>
+        <v>18.05833333333338</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -9391,10 +9375,10 @@
         <v>18.2</v>
       </c>
       <c r="F256" t="n">
-        <v>153.18681318</v>
+        <v>2334.7548</v>
       </c>
       <c r="G256" t="n">
-        <v>18.06166666666671</v>
+        <v>18.06000000000004</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9414,19 +9398,19 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E257" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F257" t="n">
-        <v>1995</v>
+        <v>153.18681318</v>
       </c>
       <c r="G257" t="n">
         <v>18.06166666666671</v>
@@ -9449,28 +9433,28 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E258" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F258" t="n">
-        <v>6043.956</v>
+        <v>1995</v>
       </c>
       <c r="G258" t="n">
-        <v>18.06333333333338</v>
+        <v>18.06166666666671</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9484,19 +9468,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E259" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F259" t="n">
-        <v>2635.18</v>
+        <v>6043.956</v>
       </c>
       <c r="G259" t="n">
         <v>18.06333333333338</v>
@@ -9531,7 +9515,7 @@
         <v>18.1</v>
       </c>
       <c r="F260" t="n">
-        <v>315853.3516</v>
+        <v>2635.18</v>
       </c>
       <c r="G260" t="n">
         <v>18.06333333333338</v>
@@ -9540,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -9554,22 +9538,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E261" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F261" t="n">
-        <v>10.151</v>
+        <v>315853.3516</v>
       </c>
       <c r="G261" t="n">
-        <v>18.06500000000005</v>
+        <v>18.06333333333338</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9589,22 +9573,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="C262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="E262" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="F262" t="n">
-        <v>1548.85</v>
+        <v>10.151</v>
       </c>
       <c r="G262" t="n">
-        <v>18.06166666666672</v>
+        <v>18.06500000000005</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9624,22 +9608,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C263" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="D263" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="E263" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F263" t="n">
-        <v>27500</v>
+        <v>1548.85</v>
       </c>
       <c r="G263" t="n">
-        <v>18.06333333333339</v>
+        <v>18.06166666666672</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9662,19 +9646,19 @@
         <v>18.1</v>
       </c>
       <c r="C264" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D264" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E264" t="n">
         <v>18.1</v>
       </c>
       <c r="F264" t="n">
-        <v>95013.25</v>
+        <v>27500</v>
       </c>
       <c r="G264" t="n">
-        <v>18.06166666666672</v>
+        <v>18.06333333333339</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9706,10 +9690,10 @@
         <v>18.1</v>
       </c>
       <c r="F265" t="n">
-        <v>18231.98895027</v>
+        <v>95013.25</v>
       </c>
       <c r="G265" t="n">
-        <v>18.06000000000005</v>
+        <v>18.06166666666672</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9741,7 +9725,7 @@
         <v>18.1</v>
       </c>
       <c r="F266" t="n">
-        <v>126629.6126</v>
+        <v>18231.98895027</v>
       </c>
       <c r="G266" t="n">
         <v>18.06000000000005</v>
@@ -9764,22 +9748,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C267" t="n">
         <v>18.1</v>
       </c>
       <c r="D267" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E267" t="n">
         <v>18.1</v>
       </c>
       <c r="F267" t="n">
-        <v>25356.07021978</v>
+        <v>126629.6126</v>
       </c>
       <c r="G267" t="n">
-        <v>18.05833333333338</v>
+        <v>18.06000000000005</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9799,19 +9783,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C268" t="n">
         <v>18.1</v>
       </c>
       <c r="D268" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E268" t="n">
         <v>18.1</v>
       </c>
       <c r="F268" t="n">
-        <v>38504.7981</v>
+        <v>25356.07021978</v>
       </c>
       <c r="G268" t="n">
         <v>18.05833333333338</v>
@@ -9846,7 +9830,7 @@
         <v>18.1</v>
       </c>
       <c r="F269" t="n">
-        <v>4617.2922</v>
+        <v>38504.7981</v>
       </c>
       <c r="G269" t="n">
         <v>18.05833333333338</v>
@@ -9881,7 +9865,7 @@
         <v>18.1</v>
       </c>
       <c r="F270" t="n">
-        <v>11548.5027</v>
+        <v>4617.2922</v>
       </c>
       <c r="G270" t="n">
         <v>18.05833333333338</v>
@@ -9910,13 +9894,13 @@
         <v>18.1</v>
       </c>
       <c r="D271" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E271" t="n">
         <v>18.1</v>
       </c>
       <c r="F271" t="n">
-        <v>309441.7082</v>
+        <v>11548.5027</v>
       </c>
       <c r="G271" t="n">
         <v>18.05833333333338</v>
@@ -9945,13 +9929,13 @@
         <v>18.1</v>
       </c>
       <c r="D272" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E272" t="n">
         <v>18.1</v>
       </c>
       <c r="F272" t="n">
-        <v>50840.4786</v>
+        <v>309441.7082</v>
       </c>
       <c r="G272" t="n">
         <v>18.05833333333338</v>
@@ -9974,19 +9958,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C273" t="n">
         <v>18.1</v>
       </c>
       <c r="D273" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E273" t="n">
         <v>18.1</v>
       </c>
       <c r="F273" t="n">
-        <v>11317.3342</v>
+        <v>50840.4786</v>
       </c>
       <c r="G273" t="n">
         <v>18.05833333333338</v>
@@ -10009,19 +9993,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C274" t="n">
         <v>18.1</v>
       </c>
       <c r="D274" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E274" t="n">
         <v>18.1</v>
       </c>
       <c r="F274" t="n">
-        <v>4631.7592</v>
+        <v>11317.3342</v>
       </c>
       <c r="G274" t="n">
         <v>18.05833333333338</v>
@@ -10044,22 +10028,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="D275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E275" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="F275" t="n">
-        <v>160</v>
+        <v>4631.7592</v>
       </c>
       <c r="G275" t="n">
-        <v>18.06166666666671</v>
+        <v>18.05833333333338</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10079,22 +10063,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="D276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E276" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F276" t="n">
-        <v>6276.0043</v>
+        <v>160</v>
       </c>
       <c r="G276" t="n">
-        <v>18.06333333333338</v>
+        <v>18.06166666666671</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10114,22 +10098,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="C277" t="n">
         <v>18.1</v>
       </c>
       <c r="D277" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="E277" t="n">
         <v>18.1</v>
       </c>
       <c r="F277" t="n">
-        <v>16776.3017</v>
+        <v>6276.0043</v>
       </c>
       <c r="G277" t="n">
-        <v>18.06500000000004</v>
+        <v>18.06333333333338</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10149,22 +10133,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="C278" t="n">
         <v>18.1</v>
       </c>
       <c r="D278" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="E278" t="n">
         <v>18.1</v>
       </c>
       <c r="F278" t="n">
-        <v>240407.0723</v>
+        <v>16776.3017</v>
       </c>
       <c r="G278" t="n">
-        <v>18.06666666666671</v>
+        <v>18.06500000000004</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10196,10 +10180,10 @@
         <v>18.1</v>
       </c>
       <c r="F279" t="n">
-        <v>85608</v>
+        <v>240407.0723</v>
       </c>
       <c r="G279" t="n">
-        <v>18.07000000000004</v>
+        <v>18.06666666666671</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10219,19 +10203,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E280" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F280" t="n">
-        <v>1709.64</v>
+        <v>85608</v>
       </c>
       <c r="G280" t="n">
         <v>18.07000000000004</v>
@@ -10254,22 +10238,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E281" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F281" t="n">
-        <v>76300</v>
+        <v>1709.64</v>
       </c>
       <c r="G281" t="n">
-        <v>18.0716666666667</v>
+        <v>18.07000000000004</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10301,10 +10285,10 @@
         <v>18.1</v>
       </c>
       <c r="F282" t="n">
-        <v>69000</v>
+        <v>76300</v>
       </c>
       <c r="G282" t="n">
-        <v>18.07333333333337</v>
+        <v>18.0716666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10336,10 +10320,10 @@
         <v>18.1</v>
       </c>
       <c r="F283" t="n">
-        <v>33</v>
+        <v>69000</v>
       </c>
       <c r="G283" t="n">
-        <v>18.07500000000003</v>
+        <v>18.07333333333337</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10362,16 +10346,16 @@
         <v>18.1</v>
       </c>
       <c r="C284" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D284" t="n">
         <v>18.1</v>
       </c>
       <c r="E284" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F284" t="n">
-        <v>769.2187</v>
+        <v>33</v>
       </c>
       <c r="G284" t="n">
         <v>18.07500000000003</v>
@@ -10397,19 +10381,19 @@
         <v>18.1</v>
       </c>
       <c r="C285" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D285" t="n">
         <v>18.1</v>
       </c>
       <c r="E285" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F285" t="n">
-        <v>16574.5856</v>
+        <v>769.2187</v>
       </c>
       <c r="G285" t="n">
-        <v>18.0766666666667</v>
+        <v>18.07500000000003</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10429,19 +10413,19 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E286" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F286" t="n">
-        <v>56027.58</v>
+        <v>16574.5856</v>
       </c>
       <c r="G286" t="n">
         <v>18.0766666666667</v>
@@ -10476,7 +10460,7 @@
         <v>18</v>
       </c>
       <c r="F287" t="n">
-        <v>1150.5589</v>
+        <v>56027.58</v>
       </c>
       <c r="G287" t="n">
         <v>18.0766666666667</v>
@@ -10511,7 +10495,7 @@
         <v>18</v>
       </c>
       <c r="F288" t="n">
-        <v>27191.3057</v>
+        <v>1150.5589</v>
       </c>
       <c r="G288" t="n">
         <v>18.0766666666667</v>
@@ -10534,22 +10518,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E289" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F289" t="n">
-        <v>10</v>
+        <v>27191.3057</v>
       </c>
       <c r="G289" t="n">
-        <v>18.07833333333337</v>
+        <v>18.0766666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10581,10 +10565,10 @@
         <v>18.1</v>
       </c>
       <c r="F290" t="n">
-        <v>189.0055</v>
+        <v>10</v>
       </c>
       <c r="G290" t="n">
-        <v>18.08000000000003</v>
+        <v>18.07833333333337</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10604,19 +10588,19 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E291" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F291" t="n">
-        <v>147947.7749</v>
+        <v>189.0055</v>
       </c>
       <c r="G291" t="n">
         <v>18.08000000000003</v>
@@ -10651,7 +10635,7 @@
         <v>18</v>
       </c>
       <c r="F292" t="n">
-        <v>38.4749</v>
+        <v>147947.7749</v>
       </c>
       <c r="G292" t="n">
         <v>18.08000000000003</v>
@@ -10674,22 +10658,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="C293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="D293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="E293" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F293" t="n">
-        <v>18496.9613</v>
+        <v>38.4749</v>
       </c>
       <c r="G293" t="n">
-        <v>18.08333333333336</v>
+        <v>18.08000000000003</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10721,10 +10705,10 @@
         <v>18.1</v>
       </c>
       <c r="F294" t="n">
-        <v>50510.2486</v>
+        <v>18496.9613</v>
       </c>
       <c r="G294" t="n">
-        <v>18.08500000000003</v>
+        <v>18.08333333333336</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10744,22 +10728,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="C295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="D295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="E295" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="F295" t="n">
-        <v>2239.2168</v>
+        <v>50510.2486</v>
       </c>
       <c r="G295" t="n">
-        <v>18.08666666666669</v>
+        <v>18.08500000000003</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10774,6 +10758,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>18</v>
+      </c>
+      <c r="C296" t="n">
+        <v>18</v>
+      </c>
+      <c r="D296" t="n">
+        <v>18</v>
+      </c>
+      <c r="E296" t="n">
+        <v>18</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2239.2168</v>
+      </c>
+      <c r="G296" t="n">
+        <v>18.08666666666669</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:N306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>7699.5378</v>
       </c>
       <c r="G2" t="n">
+        <v>18.50666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>18.50000000000007</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>82487.69010000001</v>
       </c>
       <c r="G3" t="n">
+        <v>18.50666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>18.4983333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>37291.1009</v>
       </c>
       <c r="G4" t="n">
+        <v>18.50666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>18.49666666666674</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>5870</v>
       </c>
       <c r="G5" t="n">
+        <v>18.50666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>18.49500000000007</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>9412.999900000001</v>
       </c>
       <c r="G6" t="n">
+        <v>18.50666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>18.49166666666674</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>19037.7805</v>
       </c>
       <c r="G7" t="n">
+        <v>18.49999999999999</v>
+      </c>
+      <c r="H7" t="n">
         <v>18.48666666666674</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>147061.284</v>
       </c>
       <c r="G8" t="n">
+        <v>18.49333333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>18.48166666666674</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>52000</v>
       </c>
       <c r="G9" t="n">
+        <v>18.47999999999998</v>
+      </c>
+      <c r="H9" t="n">
         <v>18.47833333333341</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>169326</v>
       </c>
       <c r="G10" t="n">
+        <v>18.47333333333331</v>
+      </c>
+      <c r="H10" t="n">
         <v>18.47333333333341</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>22980.9021</v>
       </c>
       <c r="G11" t="n">
+        <v>18.46666666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>18.47000000000008</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>5100</v>
       </c>
       <c r="G12" t="n">
+        <v>18.45333333333332</v>
+      </c>
+      <c r="H12" t="n">
         <v>18.46500000000008</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>172858.4239</v>
       </c>
       <c r="G13" t="n">
+        <v>18.44666666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>18.46166666666675</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>99691.1681</v>
       </c>
       <c r="G14" t="n">
+        <v>18.43333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>18.45833333333342</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>727172.068</v>
       </c>
       <c r="G15" t="n">
+        <v>18.41999999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>18.45333333333342</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2192101.9082</v>
       </c>
       <c r="G16" t="n">
+        <v>18.41333333333331</v>
+      </c>
+      <c r="H16" t="n">
         <v>18.44833333333342</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>194420.7002</v>
       </c>
       <c r="G17" t="n">
+        <v>18.39999999999998</v>
+      </c>
+      <c r="H17" t="n">
         <v>18.44500000000009</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>317409.6116</v>
       </c>
       <c r="G18" t="n">
+        <v>18.38666666666665</v>
+      </c>
+      <c r="H18" t="n">
         <v>18.44166666666676</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>8627.026900000001</v>
       </c>
       <c r="G19" t="n">
+        <v>18.37333333333332</v>
+      </c>
+      <c r="H19" t="n">
         <v>18.43833333333342</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>24146.0857</v>
       </c>
       <c r="G20" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H20" t="n">
         <v>18.43500000000008</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>126455.4644</v>
       </c>
       <c r="G21" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>18.43166666666675</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>314915.374</v>
       </c>
       <c r="G22" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>18.42833333333342</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>53920</v>
       </c>
       <c r="G23" t="n">
+        <v>18.33333333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>18.42500000000008</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>11108.0228</v>
       </c>
       <c r="G24" t="n">
+        <v>18.32666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>18.42166666666675</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>95208.9999</v>
       </c>
       <c r="G25" t="n">
+        <v>18.32666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>18.42000000000008</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>22022.1446</v>
       </c>
       <c r="G26" t="n">
+        <v>18.31999999999999</v>
+      </c>
+      <c r="H26" t="n">
         <v>18.41833333333341</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>83663.34359999999</v>
       </c>
       <c r="G27" t="n">
+        <v>18.31999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>174132.52</v>
       </c>
       <c r="G28" t="n">
+        <v>18.31999999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>18.41500000000008</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>27967.1016</v>
       </c>
       <c r="G29" t="n">
+        <v>18.31999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>18.41333333333342</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>45384.3498</v>
       </c>
       <c r="G30" t="n">
+        <v>18.32666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>18.41333333333342</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>432871.41081081</v>
       </c>
       <c r="G31" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>18.41500000000008</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>48210.5604</v>
       </c>
       <c r="G32" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H32" t="n">
         <v>18.41500000000008</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>4345.8866</v>
       </c>
       <c r="G33" t="n">
+        <v>18.35333333333332</v>
+      </c>
+      <c r="H33" t="n">
         <v>18.41500000000008</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>10789.1891</v>
       </c>
       <c r="G34" t="n">
+        <v>18.36666666666665</v>
+      </c>
+      <c r="H34" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1620.72</v>
       </c>
       <c r="G35" t="n">
+        <v>18.37333333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2283</v>
       </c>
       <c r="G36" t="n">
+        <v>18.37999999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>151.8817</v>
       </c>
       <c r="G37" t="n">
+        <v>18.37999999999998</v>
+      </c>
+      <c r="H37" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>106780.9999</v>
       </c>
       <c r="G38" t="n">
+        <v>18.38666666666665</v>
+      </c>
+      <c r="H38" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>62547.7153</v>
       </c>
       <c r="G39" t="n">
+        <v>18.39333333333331</v>
+      </c>
+      <c r="H39" t="n">
         <v>18.41666666666675</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>112298.2655</v>
       </c>
       <c r="G40" t="n">
+        <v>18.38666666666665</v>
+      </c>
+      <c r="H40" t="n">
         <v>18.41500000000008</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>54.6467</v>
       </c>
       <c r="G41" t="n">
+        <v>18.39333333333331</v>
+      </c>
+      <c r="H41" t="n">
         <v>18.41333333333341</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>51.4673</v>
       </c>
       <c r="G42" t="n">
+        <v>18.39999999999997</v>
+      </c>
+      <c r="H42" t="n">
         <v>18.41166666666675</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>27.0652</v>
       </c>
       <c r="G43" t="n">
+        <v>18.39999999999997</v>
+      </c>
+      <c r="H43" t="n">
         <v>18.41166666666675</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>82041.14999999999</v>
       </c>
       <c r="G44" t="n">
+        <v>18.39333333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>18.41000000000008</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>49648.9015</v>
       </c>
       <c r="G45" t="n">
+        <v>18.38666666666665</v>
+      </c>
+      <c r="H45" t="n">
         <v>18.40833333333341</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>977.3913</v>
       </c>
       <c r="G46" t="n">
+        <v>18.37999999999998</v>
+      </c>
+      <c r="H46" t="n">
         <v>18.40833333333341</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1847.4243</v>
       </c>
       <c r="G47" t="n">
+        <v>18.37333333333331</v>
+      </c>
+      <c r="H47" t="n">
         <v>18.40666666666674</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1471.6</v>
       </c>
       <c r="G48" t="n">
+        <v>18.36666666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>18.40333333333341</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>4599.8252</v>
       </c>
       <c r="G49" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H49" t="n">
         <v>18.40000000000007</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>543.4782</v>
       </c>
       <c r="G50" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H50" t="n">
         <v>18.39833333333341</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>54.8625</v>
       </c>
       <c r="G51" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H51" t="n">
         <v>18.39500000000007</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>155</v>
       </c>
       <c r="G52" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H52" t="n">
         <v>18.39166666666674</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>36854.3465</v>
       </c>
       <c r="G53" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H53" t="n">
         <v>18.39000000000008</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>2359.5</v>
       </c>
       <c r="G54" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>18.38500000000007</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>17.8532</v>
       </c>
       <c r="G55" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H55" t="n">
         <v>18.38333333333341</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1544.33</v>
       </c>
       <c r="G56" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H56" t="n">
         <v>18.38000000000007</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>10869.56521739</v>
       </c>
       <c r="G57" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>18.37833333333341</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1544.92</v>
       </c>
       <c r="G58" t="n">
+        <v>18.33333333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>18.37500000000007</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>24663.4615</v>
       </c>
       <c r="G59" t="n">
+        <v>18.33333333333332</v>
+      </c>
+      <c r="H59" t="n">
         <v>18.37000000000008</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>534.7593000000001</v>
       </c>
       <c r="G60" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>18.36833333333341</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>1106.9043</v>
       </c>
       <c r="G61" t="n">
+        <v>18.33333333333332</v>
+      </c>
+      <c r="H61" t="n">
         <v>18.36666666666674</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>12794.1304</v>
       </c>
       <c r="G62" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H62" t="n">
         <v>18.36500000000008</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>554409.5662</v>
       </c>
       <c r="G63" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H63" t="n">
         <v>18.36333333333341</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>203854.6125</v>
       </c>
       <c r="G64" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H64" t="n">
         <v>18.36166666666675</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>36670</v>
       </c>
       <c r="G65" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H65" t="n">
         <v>18.36000000000008</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3050</v>
       </c>
       <c r="G66" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H66" t="n">
         <v>18.35833333333342</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>91383</v>
       </c>
       <c r="G67" t="n">
+        <v>18.36666666666664</v>
+      </c>
+      <c r="H67" t="n">
         <v>18.35833333333342</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>300.652</v>
       </c>
       <c r="G68" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H68" t="n">
         <v>18.35666666666675</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>349192.43</v>
       </c>
       <c r="G69" t="n">
+        <v>18.36666666666664</v>
+      </c>
+      <c r="H69" t="n">
         <v>18.35666666666675</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>11</v>
       </c>
       <c r="G70" t="n">
+        <v>18.36666666666664</v>
+      </c>
+      <c r="H70" t="n">
         <v>18.35666666666675</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>7000</v>
       </c>
       <c r="G71" t="n">
+        <v>18.36666666666664</v>
+      </c>
+      <c r="H71" t="n">
         <v>18.35500000000008</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>665022.3954</v>
       </c>
       <c r="G72" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H72" t="n">
         <v>18.35500000000008</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>278221.9264</v>
       </c>
       <c r="G73" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>18.35333333333341</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>15296.9999</v>
       </c>
       <c r="G74" t="n">
+        <v>18.35999999999998</v>
+      </c>
+      <c r="H74" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>13197.6502</v>
       </c>
       <c r="G75" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H75" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>41742.164</v>
       </c>
       <c r="G76" t="n">
+        <v>18.35333333333331</v>
+      </c>
+      <c r="H76" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>28217.9424</v>
       </c>
       <c r="G77" t="n">
+        <v>18.34666666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>20075.8995</v>
       </c>
       <c r="G78" t="n">
+        <v>18.33999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>61300</v>
       </c>
       <c r="G79" t="n">
+        <v>18.33333333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>90392</v>
       </c>
       <c r="G80" t="n">
+        <v>18.32666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>10211.6939</v>
       </c>
       <c r="G81" t="n">
+        <v>18.31999999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>18.35166666666674</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>20</v>
       </c>
       <c r="G82" t="n">
+        <v>18.30666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>18.35000000000008</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>12005.4644</v>
       </c>
       <c r="G83" t="n">
+        <v>18.30666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>18.35000000000008</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>1800.09</v>
       </c>
       <c r="G84" t="n">
+        <v>18.29333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>18.34833333333341</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>198244.7587</v>
       </c>
       <c r="G85" t="n">
+        <v>18.27999999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>18.34500000000008</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>698273.3936</v>
       </c>
       <c r="G86" t="n">
+        <v>18.26666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>18.34166666666674</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
+        <v>18.25999999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>18.34000000000008</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>207.5824</v>
       </c>
       <c r="G88" t="n">
+        <v>18.25333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>18.33666666666674</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>2022.4175</v>
       </c>
       <c r="G89" t="n">
+        <v>18.24666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>18.33333333333341</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>160</v>
       </c>
       <c r="G90" t="n">
+        <v>18.23999999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>18.33000000000008</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>285.151</v>
       </c>
       <c r="G91" t="n">
+        <v>18.23333333333332</v>
+      </c>
+      <c r="H91" t="n">
         <v>18.32500000000008</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>427.6923</v>
       </c>
       <c r="G92" t="n">
+        <v>18.22666666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>18.32166666666674</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>148318.5714</v>
       </c>
       <c r="G93" t="n">
+        <v>18.21999999999998</v>
+      </c>
+      <c r="H93" t="n">
         <v>18.31833333333341</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>27930</v>
       </c>
       <c r="G94" t="n">
+        <v>18.20666666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>18.31166666666674</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>1072.1978</v>
       </c>
       <c r="G95" t="n">
+        <v>18.19999999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>18.3083333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>262088.4746</v>
       </c>
       <c r="G96" t="n">
+        <v>18.18666666666665</v>
+      </c>
+      <c r="H96" t="n">
         <v>18.3033333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>219599.6629</v>
       </c>
       <c r="G97" t="n">
+        <v>18.17999999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>18.30000000000007</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>231061.998</v>
       </c>
       <c r="G98" t="n">
+        <v>18.16666666666665</v>
+      </c>
+      <c r="H98" t="n">
         <v>18.29500000000007</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1009</v>
       </c>
       <c r="G99" t="n">
+        <v>18.16666666666665</v>
+      </c>
+      <c r="H99" t="n">
         <v>18.29166666666673</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>191.3736</v>
       </c>
       <c r="G100" t="n">
+        <v>18.16666666666665</v>
+      </c>
+      <c r="H100" t="n">
         <v>18.29000000000007</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>70994.50539999999</v>
       </c>
       <c r="G101" t="n">
+        <v>18.16666666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>18.28500000000006</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>302273.91</v>
       </c>
       <c r="G102" t="n">
+        <v>18.15999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>18.28000000000006</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>142166.0718</v>
       </c>
       <c r="G103" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>18.27500000000006</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>265592.6572</v>
       </c>
       <c r="G104" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>18.27333333333339</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>101</v>
       </c>
       <c r="G105" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>18.27166666666673</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>2187.6489</v>
       </c>
       <c r="G106" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>18.26666666666672</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>1902.4175</v>
       </c>
       <c r="G107" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>18.26500000000006</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>40931.8681</v>
       </c>
       <c r="G108" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>18.26333333333339</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>3000</v>
       </c>
       <c r="G109" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>18.26166666666673</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>160</v>
       </c>
       <c r="G110" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>18.25666666666672</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>13064.6031</v>
       </c>
       <c r="G111" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>18.25500000000006</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>483.8624</v>
       </c>
       <c r="G112" t="n">
+        <v>18.15999999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>18.25333333333339</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>2088.42</v>
       </c>
       <c r="G113" t="n">
+        <v>18.15999999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>18.24833333333339</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>120100</v>
       </c>
       <c r="G114" t="n">
+        <v>18.15333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>18.24500000000006</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>120625.5025</v>
       </c>
       <c r="G115" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>18.24000000000006</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>65</v>
       </c>
       <c r="G116" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>18.23666666666672</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>26334.3181</v>
       </c>
       <c r="G117" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>18.23166666666672</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>32015.5878</v>
       </c>
       <c r="G118" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>18.22833333333339</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>4987.5</v>
       </c>
       <c r="G119" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>18.22333333333338</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1427934.2814</v>
       </c>
       <c r="G120" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H120" t="n">
         <v>18.21666666666671</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>231.8756</v>
       </c>
       <c r="G121" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H121" t="n">
         <v>18.21333333333338</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>41200</v>
       </c>
       <c r="G122" t="n">
+        <v>18.10666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>18.20666666666671</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>308027.8655</v>
       </c>
       <c r="G123" t="n">
+        <v>18.09333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>18.20000000000005</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>106984.8752</v>
       </c>
       <c r="G124" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H124" t="n">
         <v>18.19333333333338</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>82.8729</v>
       </c>
       <c r="G125" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H125" t="n">
         <v>18.18833333333338</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>27564.2201</v>
       </c>
       <c r="G126" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H126" t="n">
         <v>18.18166666666671</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>13807.1806</v>
       </c>
       <c r="G127" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>18.17500000000004</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>6419.4875</v>
       </c>
       <c r="G128" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>18.17000000000004</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>240</v>
       </c>
       <c r="G129" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>18.16500000000003</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>226.1878</v>
       </c>
       <c r="G130" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>18.16000000000003</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>191.1049</v>
       </c>
       <c r="G131" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>18.1566666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>104</v>
       </c>
       <c r="G132" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>18.15333333333336</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>2000</v>
       </c>
       <c r="G133" t="n">
+        <v>18.04666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>18.15000000000003</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>1384879.9953</v>
       </c>
       <c r="G134" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>18.1466666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>1571274.2849</v>
       </c>
       <c r="G135" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H135" t="n">
         <v>18.14333333333336</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>152939.8879</v>
       </c>
       <c r="G136" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H136" t="n">
         <v>18.14000000000003</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>1295.6689</v>
       </c>
       <c r="G137" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>18.1366666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>325281</v>
       </c>
       <c r="G138" t="n">
+        <v>18.07333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>18.13333333333336</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1844.6659</v>
       </c>
       <c r="G139" t="n">
+        <v>18.08000000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>18.13000000000003</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>280272.2659</v>
       </c>
       <c r="G140" t="n">
+        <v>18.07333333333334</v>
+      </c>
+      <c r="H140" t="n">
         <v>18.12500000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>42320</v>
       </c>
       <c r="G141" t="n">
+        <v>18.08000000000001</v>
+      </c>
+      <c r="H141" t="n">
         <v>18.12166666666669</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>18.08666666666668</v>
+      </c>
+      <c r="H142" t="n">
         <v>18.12000000000002</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>301</v>
       </c>
       <c r="G143" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>18.11666666666669</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>18.11500000000002</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>691977.9162</v>
       </c>
       <c r="G145" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>18.11333333333335</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>16574.5856</v>
       </c>
       <c r="G146" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>18.11333333333335</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>19930</v>
       </c>
       <c r="G147" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H147" t="n">
         <v>18.11166666666668</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>2199.1712</v>
       </c>
       <c r="G148" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>18.11000000000001</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>10</v>
       </c>
       <c r="G149" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>18.10833333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>500</v>
       </c>
       <c r="G150" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H150" t="n">
         <v>18.10666666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>1961.04</v>
       </c>
       <c r="G151" t="n">
+        <v>18.08666666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>18.10333333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>1227.2334</v>
       </c>
       <c r="G152" t="n">
+        <v>18.08000000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>18.10000000000001</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>43332.4982</v>
       </c>
       <c r="G153" t="n">
+        <v>18.07333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>18.09666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>1452.32</v>
       </c>
       <c r="G154" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>18.09500000000001</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>260849.9445</v>
       </c>
       <c r="G155" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>18.09166666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>100</v>
       </c>
       <c r="G156" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>18.09166666666668</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>950.8287</v>
       </c>
       <c r="G157" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>18.09166666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>1491.7127</v>
       </c>
       <c r="G158" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>18.09166666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>66298.2795</v>
       </c>
       <c r="G159" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>18.09000000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>20240.2597</v>
       </c>
       <c r="G160" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>5524.8618</v>
       </c>
       <c r="G161" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>3349.0607</v>
       </c>
       <c r="G162" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>11049.7237569</v>
       </c>
       <c r="G163" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>100000</v>
       </c>
       <c r="G164" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H164" t="n">
         <v>18.08666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>31848.8736</v>
       </c>
       <c r="G165" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>18.085</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>127338.5443</v>
       </c>
       <c r="G166" t="n">
+        <v>18.07333333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>18.085</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>49723.7569</v>
       </c>
       <c r="G167" t="n">
+        <v>18.08000000000001</v>
+      </c>
+      <c r="H167" t="n">
         <v>18.08333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>295421.9999431</v>
       </c>
       <c r="G168" t="n">
+        <v>18.08666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>18.08166666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>6964.6152</v>
       </c>
       <c r="G169" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="H169" t="n">
         <v>18.08166666666666</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>6307.8296</v>
       </c>
       <c r="G170" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H170" t="n">
         <v>18.08166666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,21 @@
         <v>10.8791</v>
       </c>
       <c r="G171" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>18.08166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6913,21 @@
         <v>2006.31</v>
       </c>
       <c r="G172" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>18.07999999999999</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6951,21 @@
         <v>34111.3333</v>
       </c>
       <c r="G173" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>18.07999999999999</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +6989,21 @@
         <v>480751.2929</v>
       </c>
       <c r="G174" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>18.07999999999999</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7027,21 @@
         <v>12220</v>
       </c>
       <c r="G175" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H175" t="n">
         <v>18.07999999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7065,21 @@
         <v>654613.1878</v>
       </c>
       <c r="G176" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H176" t="n">
         <v>18.07999999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7103,21 @@
         <v>30000</v>
       </c>
       <c r="G177" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H177" t="n">
         <v>18.08166666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7141,21 @@
         <v>110000</v>
       </c>
       <c r="G178" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>18.08333333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7179,21 @@
         <v>350000</v>
       </c>
       <c r="G179" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>18.08499999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7217,21 @@
         <v>36565.934</v>
       </c>
       <c r="G180" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7255,21 @@
         <v>1441.61</v>
       </c>
       <c r="G181" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>18.08833333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7293,21 @@
         <v>3416.7307</v>
       </c>
       <c r="G182" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="H182" t="n">
         <v>18.09166666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7331,21 @@
         <v>1483.78</v>
       </c>
       <c r="G183" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="H183" t="n">
         <v>18.09333333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7369,21 @@
         <v>343513.4905</v>
       </c>
       <c r="G184" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>18.09499999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7407,21 @@
         <v>167948.736</v>
       </c>
       <c r="G185" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>18.09499999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7445,21 @@
         <v>1335.5791</v>
       </c>
       <c r="G186" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>18.09666666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7483,21 @@
         <v>164380.5219</v>
       </c>
       <c r="G187" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>18.09833333333332</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7521,21 @@
         <v>63228.7716</v>
       </c>
       <c r="G188" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>18.09999999999999</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7559,21 @@
         <v>75231.5</v>
       </c>
       <c r="G189" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>18.09999999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7597,21 @@
         <v>1973.5339</v>
       </c>
       <c r="G190" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>18.09999999999999</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7635,21 @@
         <v>5000</v>
       </c>
       <c r="G191" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7673,21 @@
         <v>56758.5806</v>
       </c>
       <c r="G192" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7711,21 @@
         <v>28762.0131</v>
       </c>
       <c r="G193" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H193" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7749,21 @@
         <v>33409.5536</v>
       </c>
       <c r="G194" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H194" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7787,21 @@
         <v>27024.7182</v>
       </c>
       <c r="G195" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7825,21 @@
         <v>27071.8232</v>
       </c>
       <c r="G196" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7863,21 @@
         <v>13125.798</v>
       </c>
       <c r="G197" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7901,21 @@
         <v>30657.9232</v>
       </c>
       <c r="G198" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7939,21 @@
         <v>8862.0041</v>
       </c>
       <c r="G199" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H199" t="n">
         <v>18.10166666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7977,21 @@
         <v>2440.8</v>
       </c>
       <c r="G200" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H200" t="n">
         <v>18.10333333333332</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8015,21 @@
         <v>1686.8408</v>
       </c>
       <c r="G201" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>18.10333333333332</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8053,21 @@
         <v>1724.8026</v>
       </c>
       <c r="G202" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H202" t="n">
         <v>18.10333333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8091,21 @@
         <v>63.1868</v>
       </c>
       <c r="G203" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H203" t="n">
         <v>18.10499999999999</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8129,21 @@
         <v>39177.2823</v>
       </c>
       <c r="G204" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>18.10499999999999</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8167,21 @@
         <v>1633.5164</v>
       </c>
       <c r="G205" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H205" t="n">
         <v>18.10666666666666</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8205,21 @@
         <v>12074.5054</v>
       </c>
       <c r="G206" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H206" t="n">
         <v>18.10833333333333</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8243,21 @@
         <v>1454.86</v>
       </c>
       <c r="G207" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H207" t="n">
         <v>18.10833333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8281,21 @@
         <v>23.1868</v>
       </c>
       <c r="G208" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>18.11</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8319,21 @@
         <v>38411.9051</v>
       </c>
       <c r="G209" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>18.11</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8357,21 @@
         <v>98923.0702</v>
       </c>
       <c r="G210" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>18.11</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8395,21 @@
         <v>630673.8602999999</v>
       </c>
       <c r="G211" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>18.11166666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8433,21 @@
         <v>313367.8452</v>
       </c>
       <c r="G212" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>18.11333333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8471,21 @@
         <v>332.98342541</v>
       </c>
       <c r="G213" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>18.11499999999999</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8509,21 @@
         <v>99943.63800000001</v>
       </c>
       <c r="G214" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>18.11666666666666</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8547,21 @@
         <v>555.0276243</v>
       </c>
       <c r="G215" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>18.11833333333333</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8585,21 @@
         <v>1760.59</v>
       </c>
       <c r="G216" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H216" t="n">
         <v>18.11666666666666</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8623,21 @@
         <v>900557.5516</v>
       </c>
       <c r="G217" t="n">
+        <v>18.11333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>18.11499999999999</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8661,21 @@
         <v>1009622.2012</v>
       </c>
       <c r="G218" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H218" t="n">
         <v>18.11333333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8699,21 @@
         <v>404554.0554</v>
       </c>
       <c r="G219" t="n">
+        <v>18.09333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>18.11166666666666</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8737,21 @@
         <v>3875.8281</v>
       </c>
       <c r="G220" t="n">
+        <v>18.07333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>18.10833333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8775,21 @@
         <v>15</v>
       </c>
       <c r="G221" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H221" t="n">
         <v>18.10666666666667</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8813,21 @@
         <v>81783.977</v>
       </c>
       <c r="G222" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>18.105</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8851,21 @@
         <v>24741.1666</v>
       </c>
       <c r="G223" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="H223" t="n">
         <v>18.10333333333334</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8889,21 @@
         <v>40336.3136</v>
       </c>
       <c r="G224" t="n">
+        <v>18.03333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>18.10166666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8927,21 @@
         <v>41300</v>
       </c>
       <c r="G225" t="n">
+        <v>18.02666666666666</v>
+      </c>
+      <c r="H225" t="n">
         <v>18.10000000000001</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8965,21 @@
         <v>214648.5503</v>
       </c>
       <c r="G226" t="n">
+        <v>18.01999999999999</v>
+      </c>
+      <c r="H226" t="n">
         <v>18.09833333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9003,21 @@
         <v>3000</v>
       </c>
       <c r="G227" t="n">
+        <v>18.01333333333332</v>
+      </c>
+      <c r="H227" t="n">
         <v>18.09666666666668</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9041,21 @@
         <v>159576.0594</v>
       </c>
       <c r="G228" t="n">
+        <v>18.00666666666666</v>
+      </c>
+      <c r="H228" t="n">
         <v>18.09500000000001</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,22 +9079,21 @@
         <v>17003.9841</v>
       </c>
       <c r="G229" t="n">
+        <v>17.99999999999999</v>
+      </c>
+      <c r="H229" t="n">
         <v>18.09166666666668</v>
       </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>18</v>
-      </c>
-      <c r="K229" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8432,369 +9117,383 @@
         <v>46733.4206</v>
       </c>
       <c r="G230" t="n">
+        <v>17.99333333333332</v>
+      </c>
+      <c r="H230" t="n">
         <v>18.09000000000001</v>
       </c>
-      <c r="H230" t="n">
-        <v>1</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
       <c r="J230" t="n">
-        <v>18</v>
-      </c>
-      <c r="K230" t="n">
-        <v>18</v>
-      </c>
-      <c r="L230" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18</v>
+      </c>
+      <c r="C231" t="n">
+        <v>18</v>
+      </c>
+      <c r="D231" t="n">
+        <v>18</v>
+      </c>
+      <c r="E231" t="n">
+        <v>18</v>
+      </c>
+      <c r="F231" t="n">
+        <v>504206.1638</v>
+      </c>
+      <c r="G231" t="n">
+        <v>17.99333333333332</v>
+      </c>
+      <c r="H231" t="n">
+        <v>18.08666666666668</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18</v>
+      </c>
+      <c r="C232" t="n">
+        <v>18</v>
+      </c>
+      <c r="D232" t="n">
+        <v>18</v>
+      </c>
+      <c r="E232" t="n">
+        <v>18</v>
+      </c>
+      <c r="F232" t="n">
+        <v>55555.55555555</v>
+      </c>
+      <c r="G232" t="n">
+        <v>17.99333333333332</v>
+      </c>
+      <c r="H232" t="n">
+        <v>18.08500000000002</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18</v>
+      </c>
+      <c r="C233" t="n">
+        <v>18</v>
+      </c>
+      <c r="D233" t="n">
+        <v>18</v>
+      </c>
+      <c r="E233" t="n">
+        <v>18</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2408.2777</v>
+      </c>
+      <c r="G233" t="n">
+        <v>17.99333333333332</v>
+      </c>
+      <c r="H233" t="n">
+        <v>18.08333333333335</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C234" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D234" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E234" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F234" t="n">
+        <v>3005.22</v>
+      </c>
+      <c r="G234" t="n">
+        <v>17.98666666666665</v>
+      </c>
+      <c r="H234" t="n">
+        <v>18.08000000000002</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>18</v>
+      </c>
+      <c r="C235" t="n">
+        <v>18</v>
+      </c>
+      <c r="D235" t="n">
+        <v>18</v>
+      </c>
+      <c r="E235" t="n">
+        <v>18</v>
+      </c>
+      <c r="F235" t="n">
+        <v>230</v>
+      </c>
+      <c r="G235" t="n">
+        <v>17.99333333333332</v>
+      </c>
+      <c r="H235" t="n">
+        <v>18.07833333333335</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C236" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E236" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2570.7085</v>
+      </c>
+      <c r="G236" t="n">
+        <v>17.98666666666665</v>
+      </c>
+      <c r="H236" t="n">
+        <v>18.07500000000002</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>823277.7602</v>
+      </c>
+      <c r="G237" t="n">
+        <v>17.97999999999998</v>
+      </c>
+      <c r="H237" t="n">
+        <v>18.07000000000003</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L237" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F238" t="n">
+        <v>310112.2771</v>
+      </c>
+      <c r="G238" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H238" t="n">
+        <v>18.06500000000002</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L238" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="M238" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>18</v>
-      </c>
-      <c r="C231" t="n">
-        <v>18</v>
-      </c>
-      <c r="D231" t="n">
-        <v>18</v>
-      </c>
-      <c r="E231" t="n">
-        <v>18</v>
-      </c>
-      <c r="F231" t="n">
-        <v>504206.1638</v>
-      </c>
-      <c r="G231" t="n">
-        <v>18.08666666666668</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="n">
-        <v>18</v>
-      </c>
-      <c r="K231" t="n">
-        <v>18</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>18</v>
+      </c>
+      <c r="C239" t="n">
+        <v>18</v>
+      </c>
+      <c r="D239" t="n">
+        <v>18</v>
+      </c>
+      <c r="E239" t="n">
+        <v>18</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G239" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H239" t="n">
+        <v>18.06333333333336</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L239" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="M239" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>18</v>
-      </c>
-      <c r="C232" t="n">
-        <v>18</v>
-      </c>
-      <c r="D232" t="n">
-        <v>18</v>
-      </c>
-      <c r="E232" t="n">
-        <v>18</v>
-      </c>
-      <c r="F232" t="n">
-        <v>55555.55555555</v>
-      </c>
-      <c r="G232" t="n">
-        <v>18.08500000000002</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="n">
-        <v>18</v>
-      </c>
-      <c r="K232" t="n">
-        <v>18</v>
-      </c>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>18</v>
-      </c>
-      <c r="C233" t="n">
-        <v>18</v>
-      </c>
-      <c r="D233" t="n">
-        <v>18</v>
-      </c>
-      <c r="E233" t="n">
-        <v>18</v>
-      </c>
-      <c r="F233" t="n">
-        <v>2408.2777</v>
-      </c>
-      <c r="G233" t="n">
-        <v>18.08333333333335</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>18</v>
-      </c>
-      <c r="K233" t="n">
-        <v>18</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C234" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D234" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E234" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F234" t="n">
-        <v>3005.22</v>
-      </c>
-      <c r="G234" t="n">
-        <v>18.08000000000002</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>18</v>
-      </c>
-      <c r="K234" t="n">
-        <v>18</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>18</v>
-      </c>
-      <c r="C235" t="n">
-        <v>18</v>
-      </c>
-      <c r="D235" t="n">
-        <v>18</v>
-      </c>
-      <c r="E235" t="n">
-        <v>18</v>
-      </c>
-      <c r="F235" t="n">
-        <v>230</v>
-      </c>
-      <c r="G235" t="n">
-        <v>18.07833333333335</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E236" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2570.7085</v>
-      </c>
-      <c r="G236" t="n">
-        <v>18.07500000000002</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C237" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D237" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E237" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F237" t="n">
-        <v>823277.7602</v>
-      </c>
-      <c r="G237" t="n">
-        <v>18.07000000000003</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E238" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>310112.2771</v>
-      </c>
-      <c r="G238" t="n">
-        <v>18.06500000000002</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>18</v>
-      </c>
-      <c r="C239" t="n">
-        <v>18</v>
-      </c>
-      <c r="D239" t="n">
-        <v>18</v>
-      </c>
-      <c r="E239" t="n">
-        <v>18</v>
-      </c>
-      <c r="F239" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G239" t="n">
-        <v>18.06333333333336</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8818,18 +9517,25 @@
         <v>1090040.95664445</v>
       </c>
       <c r="G240" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H240" t="n">
         <v>18.06000000000002</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>18</v>
+      </c>
+      <c r="L240" t="n">
+        <v>18</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8853,18 +9559,29 @@
         <v>767395.4639</v>
       </c>
       <c r="G241" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H241" t="n">
         <v>18.05833333333336</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>18</v>
+      </c>
+      <c r="L241" t="n">
+        <v>18</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8888,18 +9605,29 @@
         <v>119154.2366</v>
       </c>
       <c r="G242" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H242" t="n">
         <v>18.05500000000002</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>18</v>
+      </c>
+      <c r="L242" t="n">
+        <v>18</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8923,18 +9651,29 @@
         <v>430.5508</v>
       </c>
       <c r="G243" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H243" t="n">
         <v>18.05333333333336</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>18</v>
+      </c>
+      <c r="L243" t="n">
+        <v>18</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8958,18 +9697,29 @@
         <v>194791.5639</v>
       </c>
       <c r="G244" t="n">
+        <v>17.97333333333331</v>
+      </c>
+      <c r="H244" t="n">
         <v>18.05166666666669</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>18</v>
+      </c>
+      <c r="L244" t="n">
+        <v>18</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8993,18 +9743,29 @@
         <v>555.0276243</v>
       </c>
       <c r="G245" t="n">
+        <v>17.97999999999998</v>
+      </c>
+      <c r="H245" t="n">
         <v>18.05166666666669</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>18</v>
+      </c>
+      <c r="L245" t="n">
+        <v>18</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9028,18 +9789,29 @@
         <v>2251.3</v>
       </c>
       <c r="G246" t="n">
+        <v>17.97999999999998</v>
+      </c>
+      <c r="H246" t="n">
         <v>18.05000000000003</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>18</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9063,18 +9835,29 @@
         <v>216220.353</v>
       </c>
       <c r="G247" t="n">
+        <v>17.98666666666665</v>
+      </c>
+      <c r="H247" t="n">
         <v>18.05000000000003</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>18</v>
+      </c>
+      <c r="L247" t="n">
+        <v>18</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9098,18 +9881,29 @@
         <v>308978.8613514</v>
       </c>
       <c r="G248" t="n">
+        <v>17.99999999999999</v>
+      </c>
+      <c r="H248" t="n">
         <v>18.0516666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>18</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9133,18 +9927,27 @@
         <v>76133.02197802</v>
       </c>
       <c r="G249" t="n">
+        <v>18.01999999999999</v>
+      </c>
+      <c r="H249" t="n">
         <v>18.05333333333337</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>18</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9168,18 +9971,27 @@
         <v>487959.2991</v>
       </c>
       <c r="G250" t="n">
+        <v>18.03333333333332</v>
+      </c>
+      <c r="H250" t="n">
         <v>18.05500000000004</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>18</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9203,18 +10015,27 @@
         <v>26655.1916</v>
       </c>
       <c r="G251" t="n">
+        <v>18.05333333333332</v>
+      </c>
+      <c r="H251" t="n">
         <v>18.05500000000004</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>18</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9238,18 +10059,27 @@
         <v>147970.283</v>
       </c>
       <c r="G252" t="n">
+        <v>18.06666666666666</v>
+      </c>
+      <c r="H252" t="n">
         <v>18.05500000000004</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>18</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9273,18 +10103,27 @@
         <v>10962.912</v>
       </c>
       <c r="G253" t="n">
+        <v>18.08666666666666</v>
+      </c>
+      <c r="H253" t="n">
         <v>18.05666666666671</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>18</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,18 +10147,27 @@
         <v>50000</v>
       </c>
       <c r="G254" t="n">
+        <v>18.09333333333332</v>
+      </c>
+      <c r="H254" t="n">
         <v>18.05666666666671</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>18</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9343,18 +10191,27 @@
         <v>2993.8472</v>
       </c>
       <c r="G255" t="n">
+        <v>18.10666666666666</v>
+      </c>
+      <c r="H255" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>18</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9378,18 +10235,27 @@
         <v>2334.7548</v>
       </c>
       <c r="G256" t="n">
+        <v>18.11999999999999</v>
+      </c>
+      <c r="H256" t="n">
         <v>18.06000000000004</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>18</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9413,18 +10279,27 @@
         <v>153.18681318</v>
       </c>
       <c r="G257" t="n">
+        <v>18.13333333333332</v>
+      </c>
+      <c r="H257" t="n">
         <v>18.06166666666671</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>18</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9448,18 +10323,27 @@
         <v>1995</v>
       </c>
       <c r="G258" t="n">
+        <v>18.13999999999999</v>
+      </c>
+      <c r="H258" t="n">
         <v>18.06166666666671</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>18</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9483,18 +10367,27 @@
         <v>6043.956</v>
       </c>
       <c r="G259" t="n">
+        <v>18.15333333333332</v>
+      </c>
+      <c r="H259" t="n">
         <v>18.06333333333338</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>18</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9518,18 +10411,27 @@
         <v>2635.18</v>
       </c>
       <c r="G260" t="n">
+        <v>18.15333333333332</v>
+      </c>
+      <c r="H260" t="n">
         <v>18.06333333333338</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>18</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9553,18 +10455,29 @@
         <v>315853.3516</v>
       </c>
       <c r="G261" t="n">
+        <v>18.15999999999999</v>
+      </c>
+      <c r="H261" t="n">
         <v>18.06333333333338</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>18</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9588,18 +10501,27 @@
         <v>10.151</v>
       </c>
       <c r="G262" t="n">
+        <v>18.16666666666665</v>
+      </c>
+      <c r="H262" t="n">
         <v>18.06500000000005</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>18</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9623,18 +10545,27 @@
         <v>1548.85</v>
       </c>
       <c r="G263" t="n">
+        <v>18.15333333333332</v>
+      </c>
+      <c r="H263" t="n">
         <v>18.06166666666672</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>18</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9658,18 +10589,27 @@
         <v>27500</v>
       </c>
       <c r="G264" t="n">
+        <v>18.15333333333332</v>
+      </c>
+      <c r="H264" t="n">
         <v>18.06333333333339</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>18</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9693,18 +10633,27 @@
         <v>95013.25</v>
       </c>
       <c r="G265" t="n">
+        <v>18.14666666666666</v>
+      </c>
+      <c r="H265" t="n">
         <v>18.06166666666672</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>18</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9728,18 +10677,27 @@
         <v>18231.98895027</v>
       </c>
       <c r="G266" t="n">
+        <v>18.13999999999999</v>
+      </c>
+      <c r="H266" t="n">
         <v>18.06000000000005</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>18</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9763,18 +10721,27 @@
         <v>126629.6126</v>
       </c>
       <c r="G267" t="n">
+        <v>18.13999999999999</v>
+      </c>
+      <c r="H267" t="n">
         <v>18.06000000000005</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="L267" t="n">
+        <v>18</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9798,18 +10765,27 @@
         <v>25356.07021978</v>
       </c>
       <c r="G268" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="L268" t="n">
+        <v>18</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9833,18 +10809,27 @@
         <v>38504.7981</v>
       </c>
       <c r="G269" t="n">
+        <v>18.13333333333333</v>
+      </c>
+      <c r="H269" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="L269" t="n">
+        <v>18</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9868,18 +10853,27 @@
         <v>4617.2922</v>
       </c>
       <c r="G270" t="n">
+        <v>18.12666666666667</v>
+      </c>
+      <c r="H270" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="L270" t="n">
+        <v>18</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9903,18 +10897,27 @@
         <v>11548.5027</v>
       </c>
       <c r="G271" t="n">
+        <v>18.12</v>
+      </c>
+      <c r="H271" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="L271" t="n">
+        <v>18</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9938,18 +10941,27 @@
         <v>309441.7082</v>
       </c>
       <c r="G272" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H272" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="L272" t="n">
+        <v>18</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9973,18 +10985,27 @@
         <v>50840.4786</v>
       </c>
       <c r="G273" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H273" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="L273" t="n">
+        <v>18</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10008,18 +11029,27 @@
         <v>11317.3342</v>
       </c>
       <c r="G274" t="n">
+        <v>18.10666666666667</v>
+      </c>
+      <c r="H274" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="L274" t="n">
+        <v>18</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10043,18 +11073,27 @@
         <v>4631.7592</v>
       </c>
       <c r="G275" t="n">
+        <v>18.10666666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>18.05833333333338</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="L275" t="n">
+        <v>18</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10078,18 +11117,27 @@
         <v>160</v>
       </c>
       <c r="G276" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H276" t="n">
         <v>18.06166666666671</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="L276" t="n">
+        <v>18</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10113,18 +11161,27 @@
         <v>6276.0043</v>
       </c>
       <c r="G277" t="n">
+        <v>18.10666666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>18.06333333333338</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="L277" t="n">
+        <v>18</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10148,18 +11205,27 @@
         <v>16776.3017</v>
       </c>
       <c r="G278" t="n">
+        <v>18.11333333333334</v>
+      </c>
+      <c r="H278" t="n">
         <v>18.06500000000004</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="L278" t="n">
+        <v>18</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10183,18 +11249,27 @@
         <v>240407.0723</v>
       </c>
       <c r="G279" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H279" t="n">
         <v>18.06666666666671</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="L279" t="n">
+        <v>18</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10218,18 +11293,27 @@
         <v>85608</v>
       </c>
       <c r="G280" t="n">
+        <v>18.10666666666668</v>
+      </c>
+      <c r="H280" t="n">
         <v>18.07000000000004</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="L280" t="n">
+        <v>18</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10253,18 +11337,27 @@
         <v>1709.64</v>
       </c>
       <c r="G281" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="H281" t="n">
         <v>18.07000000000004</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="L281" t="n">
+        <v>18</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10288,18 +11381,27 @@
         <v>76300</v>
       </c>
       <c r="G282" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="H282" t="n">
         <v>18.0716666666667</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="L282" t="n">
+        <v>18</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10323,18 +11425,27 @@
         <v>69000</v>
       </c>
       <c r="G283" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="H283" t="n">
         <v>18.07333333333337</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="L283" t="n">
+        <v>18</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10358,18 +11469,27 @@
         <v>33</v>
       </c>
       <c r="G284" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="H284" t="n">
         <v>18.07500000000003</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="L284" t="n">
+        <v>18</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10393,18 +11513,27 @@
         <v>769.2187</v>
       </c>
       <c r="G285" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H285" t="n">
         <v>18.07500000000003</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="L285" t="n">
+        <v>18</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10428,18 +11557,27 @@
         <v>16574.5856</v>
       </c>
       <c r="G286" t="n">
+        <v>18.09333333333334</v>
+      </c>
+      <c r="H286" t="n">
         <v>18.0766666666667</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="L286" t="n">
+        <v>18</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10463,18 +11601,27 @@
         <v>56027.58</v>
       </c>
       <c r="G287" t="n">
+        <v>18.08666666666667</v>
+      </c>
+      <c r="H287" t="n">
         <v>18.0766666666667</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="L287" t="n">
+        <v>18</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10498,18 +11645,27 @@
         <v>1150.5589</v>
       </c>
       <c r="G288" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="H288" t="n">
         <v>18.0766666666667</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="L288" t="n">
+        <v>18</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10533,18 +11689,27 @@
         <v>27191.3057</v>
       </c>
       <c r="G289" t="n">
+        <v>18.07333333333333</v>
+      </c>
+      <c r="H289" t="n">
         <v>18.0766666666667</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="L289" t="n">
+        <v>18</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10568,18 +11733,27 @@
         <v>10</v>
       </c>
       <c r="G290" t="n">
+        <v>18.07333333333333</v>
+      </c>
+      <c r="H290" t="n">
         <v>18.07833333333337</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="L290" t="n">
+        <v>18</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10603,18 +11777,27 @@
         <v>189.0055</v>
       </c>
       <c r="G291" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H291" t="n">
         <v>18.08000000000003</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="L291" t="n">
+        <v>18</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10638,18 +11821,27 @@
         <v>147947.7749</v>
       </c>
       <c r="G292" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H292" t="n">
         <v>18.08000000000003</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="L292" t="n">
+        <v>18</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10673,18 +11865,27 @@
         <v>38.4749</v>
       </c>
       <c r="G293" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H293" t="n">
         <v>18.08000000000003</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="L293" t="n">
+        <v>18</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10708,18 +11909,27 @@
         <v>18496.9613</v>
       </c>
       <c r="G294" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H294" t="n">
         <v>18.08333333333336</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="L294" t="n">
+        <v>18</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10743,18 +11953,27 @@
         <v>50510.2486</v>
       </c>
       <c r="G295" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H295" t="n">
         <v>18.08500000000003</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="L295" t="n">
+        <v>18</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10778,18 +11997,467 @@
         <v>2239.2168</v>
       </c>
       <c r="G296" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H296" t="n">
         <v>18.08666666666669</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="L296" t="n">
+        <v>18</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D297" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>251220.5969</v>
+      </c>
+      <c r="G297" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H297" t="n">
+        <v>18.09000000000002</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>18</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D298" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E298" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F298" t="n">
+        <v>17502.6256</v>
+      </c>
+      <c r="G298" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H298" t="n">
+        <v>18.09333333333335</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>18</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C299" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>4033.5714</v>
+      </c>
+      <c r="G299" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H299" t="n">
+        <v>18.09500000000002</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>18</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D300" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E300" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F300" t="n">
+        <v>33640</v>
+      </c>
+      <c r="G300" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H300" t="n">
+        <v>18.09666666666668</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>18</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>18</v>
+      </c>
+      <c r="C301" t="n">
+        <v>18</v>
+      </c>
+      <c r="D301" t="n">
+        <v>18</v>
+      </c>
+      <c r="E301" t="n">
+        <v>18</v>
+      </c>
+      <c r="F301" t="n">
+        <v>169.4915</v>
+      </c>
+      <c r="G301" t="n">
+        <v>18.05333333333333</v>
+      </c>
+      <c r="H301" t="n">
+        <v>18.09666666666668</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>18</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D302" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E302" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F302" t="n">
+        <v>24856.9649</v>
+      </c>
+      <c r="G302" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="H302" t="n">
+        <v>18.09833333333335</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>18</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>5620</v>
+      </c>
+      <c r="G303" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H303" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>18</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1090.82872928</v>
+      </c>
+      <c r="G304" t="n">
+        <v>18.07333333333334</v>
+      </c>
+      <c r="H304" t="n">
+        <v>18.10166666666668</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>18</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>18</v>
+      </c>
+      <c r="C305" t="n">
+        <v>18</v>
+      </c>
+      <c r="D305" t="n">
+        <v>18</v>
+      </c>
+      <c r="E305" t="n">
+        <v>18</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1668.53</v>
+      </c>
+      <c r="G305" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H305" t="n">
+        <v>18.10000000000001</v>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>18</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D306" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E306" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F306" t="n">
+        <v>27773.8121</v>
+      </c>
+      <c r="G306" t="n">
+        <v>18.06666666666667</v>
+      </c>
+      <c r="H306" t="n">
+        <v>18.10166666666668</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>18</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-426361.5706903801</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-344659.8389903801</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-413515.3633903801</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-225720.89699038</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-225720.89699038</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-444484.19539038</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-374289.26907957</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-379806.53467957</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-462663.07097957</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-462663.07097957</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -7315,14 +7315,10 @@
         <v>-1149764.14696218</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="n">
-        <v>18</v>
-      </c>
-      <c r="J210" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7352,3734 +7348,3244 @@
         <v>-1149764.14696218</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>18</v>
-      </c>
-      <c r="J211" t="n">
-        <v>18</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18</v>
+      </c>
+      <c r="D212" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>18</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1452.32</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1149764.14696218</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>18</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18</v>
+      </c>
+      <c r="D213" t="n">
+        <v>18</v>
+      </c>
+      <c r="E213" t="n">
+        <v>18</v>
+      </c>
+      <c r="F213" t="n">
+        <v>260849.9445</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1149764.14696218</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D214" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E214" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D215" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>950.8287</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D216" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1491.7127</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F217" t="n">
+        <v>66298.2795</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>18</v>
+      </c>
+      <c r="C218" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D218" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>18</v>
+      </c>
+      <c r="F218" t="n">
+        <v>20240.2597</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D219" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>5524.8618</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3349.0607</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>11049.7237569</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D222" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E222" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D223" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E223" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>31848.8736</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E224" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>127338.5443</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D225" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E225" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F225" t="n">
+        <v>49723.7569</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D226" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E226" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>295421.9999431</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1149664.14696218</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F227" t="n">
+        <v>6964.6152</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1142699.53176218</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D228" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6307.8296</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1149007.36136218</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>10.8791</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1148996.48226218</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2006.31</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1151002.79226218</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>34111.3333</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1151002.79226218</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F232" t="n">
+        <v>480751.2929</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1151002.79226218</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D233" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F233" t="n">
+        <v>12220</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1151002.79226218</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D234" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F234" t="n">
+        <v>654613.1878</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1151002.79226218</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1121002.79226218</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1121002.79226218</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E237" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1471002.79226218</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F238" t="n">
+        <v>36565.934</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1434436.85826218</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1441.61</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1435878.46826218</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3416.7307</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1432461.73756218</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D241" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1483.78</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D242" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E242" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F242" t="n">
+        <v>343513.4905</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D243" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F243" t="n">
+        <v>167948.736</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E244" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1335.5791</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D245" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E245" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F245" t="n">
+        <v>164380.5219</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E246" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>63228.7716</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D247" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E247" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>75231.5</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C248" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D248" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1973.5339</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1433945.51756218</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1428945.51756218</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D250" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E250" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F250" t="n">
+        <v>56758.5806</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E251" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28762.0131</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E252" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>33409.5536</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D253" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E253" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>27024.7182</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>27071.8232</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D255" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F255" t="n">
+        <v>13125.798</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E256" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F256" t="n">
+        <v>30657.9232</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F257" t="n">
+        <v>8862.0041</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2440.8</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1686.8408</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1724.8026</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1485704.09816218</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>63.1868</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1485640.91136218</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C262" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D262" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F262" t="n">
+        <v>39177.2823</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1524818.19366218</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1633.5164</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1523184.67726218</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>12074.5054</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1523184.67726218</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D265" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1454.86</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1524639.53726218</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>23.1868</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1524616.35046218</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D267" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E267" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>38411.9051</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D268" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F268" t="n">
+        <v>98923.0702</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E269" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F269" t="n">
+        <v>630673.8602999999</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F270" t="n">
+        <v>313367.8452</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F271" t="n">
+        <v>332.98342541</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F272" t="n">
+        <v>99943.63800000001</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F273" t="n">
+        <v>555.0276243</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1563028.25556218</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>18</v>
+      </c>
+      <c r="C274" t="n">
+        <v>18</v>
+      </c>
+      <c r="D274" t="n">
+        <v>18</v>
+      </c>
+      <c r="E274" t="n">
+        <v>18</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1760.59</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C212" t="n">
-        <v>18</v>
-      </c>
-      <c r="D212" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>18</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1452.32</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1149764.14696218</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>18</v>
-      </c>
-      <c r="K212" t="inlineStr">
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>18</v>
+      </c>
+      <c r="C275" t="n">
+        <v>18</v>
+      </c>
+      <c r="D275" t="n">
+        <v>18</v>
+      </c>
+      <c r="E275" t="n">
+        <v>18</v>
+      </c>
+      <c r="F275" t="n">
+        <v>900557.5516</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>18</v>
+      </c>
+      <c r="J275" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>18</v>
+      </c>
+      <c r="C276" t="n">
+        <v>18</v>
+      </c>
+      <c r="D276" t="n">
+        <v>18</v>
+      </c>
+      <c r="E276" t="n">
+        <v>18</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1009622.2012</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>18</v>
+      </c>
+      <c r="J276" t="n">
+        <v>18</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>18</v>
+      </c>
+      <c r="C277" t="n">
+        <v>18</v>
+      </c>
+      <c r="D277" t="n">
+        <v>18</v>
+      </c>
+      <c r="E277" t="n">
+        <v>18</v>
+      </c>
+      <c r="F277" t="n">
+        <v>404554.0554</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>18</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3875.8281</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1568664.673662181</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>18</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>18</v>
+      </c>
+      <c r="C279" t="n">
+        <v>18</v>
+      </c>
+      <c r="D279" t="n">
+        <v>18</v>
+      </c>
+      <c r="E279" t="n">
+        <v>18</v>
+      </c>
+      <c r="F279" t="n">
+        <v>15</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J279" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>18</v>
+      </c>
+      <c r="C280" t="n">
+        <v>18</v>
+      </c>
+      <c r="D280" t="n">
+        <v>18</v>
+      </c>
+      <c r="E280" t="n">
+        <v>18</v>
+      </c>
+      <c r="F280" t="n">
+        <v>81783.977</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>18</v>
+      </c>
+      <c r="C281" t="n">
+        <v>18</v>
+      </c>
+      <c r="D281" t="n">
+        <v>18</v>
+      </c>
+      <c r="E281" t="n">
+        <v>18</v>
+      </c>
+      <c r="F281" t="n">
+        <v>24741.1666</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>18</v>
+      </c>
+      <c r="J281" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>18</v>
+      </c>
+      <c r="C282" t="n">
+        <v>18</v>
+      </c>
+      <c r="D282" t="n">
+        <v>18</v>
+      </c>
+      <c r="E282" t="n">
+        <v>18</v>
+      </c>
+      <c r="F282" t="n">
+        <v>40336.3136</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>18</v>
+      </c>
+      <c r="J282" t="n">
+        <v>18</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>18</v>
+      </c>
+      <c r="C283" t="n">
+        <v>18</v>
+      </c>
+      <c r="D283" t="n">
+        <v>18</v>
+      </c>
+      <c r="E283" t="n">
+        <v>18</v>
+      </c>
+      <c r="F283" t="n">
+        <v>41300</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>18</v>
+      </c>
+      <c r="J283" t="n">
+        <v>18</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>18</v>
+      </c>
+      <c r="C284" t="n">
+        <v>18</v>
+      </c>
+      <c r="D284" t="n">
+        <v>18</v>
+      </c>
+      <c r="E284" t="n">
+        <v>18</v>
+      </c>
+      <c r="F284" t="n">
+        <v>214648.5503</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>18</v>
+      </c>
+      <c r="J284" t="n">
+        <v>18</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>18</v>
+      </c>
+      <c r="C285" t="n">
+        <v>18</v>
+      </c>
+      <c r="D285" t="n">
+        <v>18</v>
+      </c>
+      <c r="E285" t="n">
+        <v>18</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>18</v>
+      </c>
+      <c r="J285" t="n">
+        <v>18</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>18</v>
+      </c>
+      <c r="C286" t="n">
+        <v>18</v>
+      </c>
+      <c r="D286" t="n">
+        <v>18</v>
+      </c>
+      <c r="E286" t="n">
+        <v>18</v>
+      </c>
+      <c r="F286" t="n">
+        <v>159576.0594</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>18</v>
+      </c>
+      <c r="J286" t="n">
+        <v>18</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>18</v>
+      </c>
+      <c r="C287" t="n">
+        <v>18</v>
+      </c>
+      <c r="D287" t="n">
+        <v>18</v>
+      </c>
+      <c r="E287" t="n">
+        <v>18</v>
+      </c>
+      <c r="F287" t="n">
+        <v>17003.9841</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>18</v>
+      </c>
+      <c r="J287" t="n">
+        <v>18</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>18</v>
+      </c>
+      <c r="C288" t="n">
+        <v>18</v>
+      </c>
+      <c r="D288" t="n">
+        <v>18</v>
+      </c>
+      <c r="E288" t="n">
+        <v>18</v>
+      </c>
+      <c r="F288" t="n">
+        <v>46733.4206</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>18</v>
+      </c>
+      <c r="J288" t="n">
+        <v>18</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>18</v>
+      </c>
+      <c r="C289" t="n">
+        <v>18</v>
+      </c>
+      <c r="D289" t="n">
+        <v>18</v>
+      </c>
+      <c r="E289" t="n">
+        <v>18</v>
+      </c>
+      <c r="F289" t="n">
+        <v>504206.1638</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>18</v>
+      </c>
+      <c r="J289" t="n">
+        <v>18</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>18</v>
+      </c>
+      <c r="C290" t="n">
+        <v>18</v>
+      </c>
+      <c r="D290" t="n">
+        <v>18</v>
+      </c>
+      <c r="E290" t="n">
+        <v>18</v>
+      </c>
+      <c r="F290" t="n">
+        <v>55555.55555555</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>18</v>
+      </c>
+      <c r="J290" t="n">
+        <v>18</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>18</v>
+      </c>
+      <c r="C291" t="n">
+        <v>18</v>
+      </c>
+      <c r="D291" t="n">
+        <v>18</v>
+      </c>
+      <c r="E291" t="n">
+        <v>18</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2408.2777</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C292" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D292" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E292" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3005.22</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-1571654.893662181</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>18</v>
+      </c>
+      <c r="C293" t="n">
+        <v>18</v>
+      </c>
+      <c r="D293" t="n">
+        <v>18</v>
+      </c>
+      <c r="E293" t="n">
+        <v>18</v>
+      </c>
+      <c r="F293" t="n">
+        <v>230</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-1571424.893662181</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J293" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C294" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D294" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E294" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2570.7085</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-1573995.60216218</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>18</v>
+      </c>
+      <c r="J294" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F295" t="n">
+        <v>823277.7602</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-1573995.60216218</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J295" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F296" t="n">
+        <v>310112.2771</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-1573995.60216218</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J296" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>18</v>
+      </c>
+      <c r="C297" t="n">
+        <v>18</v>
+      </c>
+      <c r="D297" t="n">
+        <v>18</v>
+      </c>
+      <c r="E297" t="n">
+        <v>18</v>
+      </c>
+      <c r="F297" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="J297" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>18</v>
+      </c>
+      <c r="C298" t="n">
+        <v>18</v>
+      </c>
+      <c r="D298" t="n">
+        <v>18</v>
+      </c>
+      <c r="E298" t="n">
+        <v>18</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1090040.95664445</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>18</v>
+      </c>
+      <c r="J298" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>18</v>
+      </c>
+      <c r="C299" t="n">
+        <v>18</v>
+      </c>
+      <c r="D299" t="n">
+        <v>18</v>
+      </c>
+      <c r="E299" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F299" t="n">
+        <v>767395.4639</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>18</v>
+      </c>
+      <c r="C300" t="n">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>18</v>
+      </c>
+      <c r="E300" t="n">
+        <v>18</v>
+      </c>
+      <c r="F300" t="n">
+        <v>119154.2366</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>18</v>
+      </c>
+      <c r="C301" t="n">
+        <v>18</v>
+      </c>
+      <c r="D301" t="n">
+        <v>18</v>
+      </c>
+      <c r="E301" t="n">
+        <v>18</v>
+      </c>
+      <c r="F301" t="n">
+        <v>430.5508</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>18</v>
+      </c>
+      <c r="C302" t="n">
+        <v>18</v>
+      </c>
+      <c r="D302" t="n">
+        <v>18</v>
+      </c>
+      <c r="E302" t="n">
+        <v>18</v>
+      </c>
+      <c r="F302" t="n">
+        <v>194791.5639</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-1568995.60216218</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="E303" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>555.0276243</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-1568440.57453788</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>18</v>
+      </c>
+      <c r="J303" t="n">
+        <v>18</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C304" t="n">
+        <v>18</v>
+      </c>
+      <c r="D304" t="n">
+        <v>18</v>
+      </c>
+      <c r="E304" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2251.3</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-1570691.874537881</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>18</v>
+      </c>
+      <c r="K304" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>18</v>
-      </c>
-      <c r="C213" t="n">
-        <v>18</v>
-      </c>
-      <c r="D213" t="n">
-        <v>18</v>
-      </c>
-      <c r="E213" t="n">
-        <v>18</v>
-      </c>
-      <c r="F213" t="n">
-        <v>260849.9445</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1149764.14696218</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>18</v>
-      </c>
-      <c r="J213" t="n">
-        <v>18</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C214" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E214" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F214" t="n">
-        <v>100</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>18</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C215" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D215" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E215" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F215" t="n">
-        <v>950.8287</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>18</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C216" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D216" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E216" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1491.7127</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>18</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C217" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E217" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F217" t="n">
-        <v>66298.2795</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>18</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>18</v>
-      </c>
-      <c r="C218" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D218" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E218" t="n">
-        <v>18</v>
-      </c>
-      <c r="F218" t="n">
-        <v>20240.2597</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>18</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C219" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E219" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F219" t="n">
-        <v>5524.8618</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>18</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C220" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E220" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3349.0607</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>18</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C221" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D221" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E221" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F221" t="n">
-        <v>11049.7237569</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>18</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C222" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D222" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E222" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F222" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>18</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C223" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E223" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>31848.8736</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>18</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C224" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E224" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F224" t="n">
-        <v>127338.5443</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>18</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>49723.7569</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>18</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E226" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F226" t="n">
-        <v>295421.9999431</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1149664.14696218</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J226" t="n">
-        <v>18</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F227" t="n">
-        <v>6964.6152</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1142699.53176218</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>18</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C228" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E228" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>6307.8296</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1149007.36136218</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>18</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F229" t="n">
-        <v>10.8791</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1148996.48226218</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>2006.31</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1151002.79226218</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>18</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D231" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E231" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>34111.3333</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1151002.79226218</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>18</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C232" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D232" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E232" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F232" t="n">
-        <v>480751.2929</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1151002.79226218</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>18</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C233" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D233" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E233" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F233" t="n">
-        <v>12220</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1151002.79226218</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J233" t="n">
-        <v>18</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C234" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D234" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E234" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>654613.1878</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1151002.79226218</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J234" t="n">
-        <v>18</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F235" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1121002.79226218</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J235" t="n">
-        <v>18</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F236" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1121002.79226218</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J236" t="n">
-        <v>18</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C237" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>350000</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1471002.79226218</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J237" t="n">
-        <v>18</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F238" t="n">
-        <v>36565.934</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1434436.85826218</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>18</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E239" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1441.61</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1435878.46826218</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J239" t="n">
-        <v>18</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F240" t="n">
-        <v>3416.7307</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1432461.73756218</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J240" t="n">
-        <v>18</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C241" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E241" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>1483.78</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J241" t="n">
-        <v>18</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D242" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E242" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F242" t="n">
-        <v>343513.4905</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>18</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E243" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>167948.736</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>18</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E244" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1335.5791</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>18</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C245" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E245" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>164380.5219</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>18</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C246" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D246" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E246" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F246" t="n">
-        <v>63228.7716</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>18</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C247" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E247" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F247" t="n">
-        <v>75231.5</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>18</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C248" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E248" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1973.5339</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1433945.51756218</v>
-      </c>
-      <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J248" t="n">
-        <v>18</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F249" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1428945.51756218</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>18</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C250" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D250" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E250" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>56758.5806</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>18</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C251" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E251" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>28762.0131</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>18</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C252" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E252" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>33409.5536</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>18</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C253" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D253" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E253" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F253" t="n">
-        <v>27024.7182</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>18</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C254" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D254" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E254" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F254" t="n">
-        <v>27071.8232</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J254" t="n">
-        <v>18</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C255" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D255" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E255" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F255" t="n">
-        <v>13125.798</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J255" t="n">
-        <v>18</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C256" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D256" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E256" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F256" t="n">
-        <v>30657.9232</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J256" t="n">
-        <v>18</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C257" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D257" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E257" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F257" t="n">
-        <v>8862.0041</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J257" t="n">
-        <v>18</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C258" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D258" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E258" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F258" t="n">
-        <v>2440.8</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J258" t="n">
-        <v>18</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C259" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D259" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E259" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1686.8408</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J259" t="n">
-        <v>18</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C260" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D260" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E260" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1724.8026</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1485704.09816218</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>18</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F261" t="n">
-        <v>63.1868</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1485640.91136218</v>
-      </c>
-      <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J261" t="n">
-        <v>18</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C262" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D262" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E262" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F262" t="n">
-        <v>39177.2823</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1524818.19366218</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>18</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1633.5164</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1523184.67726218</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>18</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F264" t="n">
-        <v>12074.5054</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1523184.67726218</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>18</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C265" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D265" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E265" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F265" t="n">
-        <v>1454.86</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1524639.53726218</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>18</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="C266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="D266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F266" t="n">
-        <v>23.1868</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1524616.35046218</v>
-      </c>
-      <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J266" t="n">
-        <v>18</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C267" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D267" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E267" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F267" t="n">
-        <v>38411.9051</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>18</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C268" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D268" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E268" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F268" t="n">
-        <v>98923.0702</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J268" t="n">
-        <v>18</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C269" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D269" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E269" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F269" t="n">
-        <v>630673.8602999999</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>18</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C270" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D270" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E270" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F270" t="n">
-        <v>313367.8452</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>18</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C271" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D271" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E271" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F271" t="n">
-        <v>332.98342541</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J271" t="n">
-        <v>18</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C272" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D272" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E272" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F272" t="n">
-        <v>99943.63800000001</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J272" t="n">
-        <v>18</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F273" t="n">
-        <v>555.0276243</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1563028.25556218</v>
-      </c>
-      <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J273" t="n">
-        <v>18</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>18</v>
-      </c>
-      <c r="C274" t="n">
-        <v>18</v>
-      </c>
-      <c r="D274" t="n">
-        <v>18</v>
-      </c>
-      <c r="E274" t="n">
-        <v>18</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1760.59</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J274" t="n">
-        <v>18</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>18</v>
-      </c>
-      <c r="C275" t="n">
-        <v>18</v>
-      </c>
-      <c r="D275" t="n">
-        <v>18</v>
-      </c>
-      <c r="E275" t="n">
-        <v>18</v>
-      </c>
-      <c r="F275" t="n">
-        <v>900557.5516</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>18</v>
-      </c>
-      <c r="J275" t="n">
-        <v>18</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>18</v>
-      </c>
-      <c r="C276" t="n">
-        <v>18</v>
-      </c>
-      <c r="D276" t="n">
-        <v>18</v>
-      </c>
-      <c r="E276" t="n">
-        <v>18</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1009622.2012</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>18</v>
-      </c>
-      <c r="J276" t="n">
-        <v>18</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>18</v>
-      </c>
-      <c r="C277" t="n">
-        <v>18</v>
-      </c>
-      <c r="D277" t="n">
-        <v>18</v>
-      </c>
-      <c r="E277" t="n">
-        <v>18</v>
-      </c>
-      <c r="F277" t="n">
-        <v>404554.0554</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>18</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3875.8281</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1568664.673662181</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>18</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>18</v>
-      </c>
-      <c r="C279" t="n">
-        <v>18</v>
-      </c>
-      <c r="D279" t="n">
-        <v>18</v>
-      </c>
-      <c r="E279" t="n">
-        <v>18</v>
-      </c>
-      <c r="F279" t="n">
-        <v>15</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>18</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>18</v>
-      </c>
-      <c r="C280" t="n">
-        <v>18</v>
-      </c>
-      <c r="D280" t="n">
-        <v>18</v>
-      </c>
-      <c r="E280" t="n">
-        <v>18</v>
-      </c>
-      <c r="F280" t="n">
-        <v>81783.977</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>18</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>18</v>
-      </c>
-      <c r="C281" t="n">
-        <v>18</v>
-      </c>
-      <c r="D281" t="n">
-        <v>18</v>
-      </c>
-      <c r="E281" t="n">
-        <v>18</v>
-      </c>
-      <c r="F281" t="n">
-        <v>24741.1666</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>18</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>18</v>
-      </c>
-      <c r="C282" t="n">
-        <v>18</v>
-      </c>
-      <c r="D282" t="n">
-        <v>18</v>
-      </c>
-      <c r="E282" t="n">
-        <v>18</v>
-      </c>
-      <c r="F282" t="n">
-        <v>40336.3136</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>18</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>18</v>
-      </c>
-      <c r="C283" t="n">
-        <v>18</v>
-      </c>
-      <c r="D283" t="n">
-        <v>18</v>
-      </c>
-      <c r="E283" t="n">
-        <v>18</v>
-      </c>
-      <c r="F283" t="n">
-        <v>41300</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>18</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>18</v>
-      </c>
-      <c r="C284" t="n">
-        <v>18</v>
-      </c>
-      <c r="D284" t="n">
-        <v>18</v>
-      </c>
-      <c r="E284" t="n">
-        <v>18</v>
-      </c>
-      <c r="F284" t="n">
-        <v>214648.5503</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>18</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>18</v>
-      </c>
-      <c r="C285" t="n">
-        <v>18</v>
-      </c>
-      <c r="D285" t="n">
-        <v>18</v>
-      </c>
-      <c r="E285" t="n">
-        <v>18</v>
-      </c>
-      <c r="F285" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>18</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>18</v>
-      </c>
-      <c r="C286" t="n">
-        <v>18</v>
-      </c>
-      <c r="D286" t="n">
-        <v>18</v>
-      </c>
-      <c r="E286" t="n">
-        <v>18</v>
-      </c>
-      <c r="F286" t="n">
-        <v>159576.0594</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>18</v>
-      </c>
-      <c r="J286" t="n">
-        <v>18</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>18</v>
-      </c>
-      <c r="C287" t="n">
-        <v>18</v>
-      </c>
-      <c r="D287" t="n">
-        <v>18</v>
-      </c>
-      <c r="E287" t="n">
-        <v>18</v>
-      </c>
-      <c r="F287" t="n">
-        <v>17003.9841</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>18</v>
-      </c>
-      <c r="J287" t="n">
-        <v>18</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>18</v>
-      </c>
-      <c r="C288" t="n">
-        <v>18</v>
-      </c>
-      <c r="D288" t="n">
-        <v>18</v>
-      </c>
-      <c r="E288" t="n">
-        <v>18</v>
-      </c>
-      <c r="F288" t="n">
-        <v>46733.4206</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>18</v>
-      </c>
-      <c r="J288" t="n">
-        <v>18</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>18</v>
-      </c>
-      <c r="C289" t="n">
-        <v>18</v>
-      </c>
-      <c r="D289" t="n">
-        <v>18</v>
-      </c>
-      <c r="E289" t="n">
-        <v>18</v>
-      </c>
-      <c r="F289" t="n">
-        <v>504206.1638</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="n">
-        <v>18</v>
-      </c>
-      <c r="J289" t="n">
-        <v>18</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>18</v>
-      </c>
-      <c r="C290" t="n">
-        <v>18</v>
-      </c>
-      <c r="D290" t="n">
-        <v>18</v>
-      </c>
-      <c r="E290" t="n">
-        <v>18</v>
-      </c>
-      <c r="F290" t="n">
-        <v>55555.55555555</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>18</v>
-      </c>
-      <c r="J290" t="n">
-        <v>18</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>18</v>
-      </c>
-      <c r="C291" t="n">
-        <v>18</v>
-      </c>
-      <c r="D291" t="n">
-        <v>18</v>
-      </c>
-      <c r="E291" t="n">
-        <v>18</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2408.2777</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>18</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C292" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D292" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E292" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F292" t="n">
-        <v>3005.22</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-1571654.893662181</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>18</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>18</v>
-      </c>
-      <c r="C293" t="n">
-        <v>18</v>
-      </c>
-      <c r="D293" t="n">
-        <v>18</v>
-      </c>
-      <c r="E293" t="n">
-        <v>18</v>
-      </c>
-      <c r="F293" t="n">
-        <v>230</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-1571424.893662181</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>18</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C294" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D294" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E294" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F294" t="n">
-        <v>2570.7085</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-1573995.60216218</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>18</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C295" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D295" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E295" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F295" t="n">
-        <v>823277.7602</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-1573995.60216218</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J295" t="n">
-        <v>18</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C296" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D296" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E296" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F296" t="n">
-        <v>310112.2771</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-1573995.60216218</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J296" t="n">
-        <v>18</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>18</v>
-      </c>
-      <c r="C297" t="n">
-        <v>18</v>
-      </c>
-      <c r="D297" t="n">
-        <v>18</v>
-      </c>
-      <c r="E297" t="n">
-        <v>18</v>
-      </c>
-      <c r="F297" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J297" t="n">
-        <v>18</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>18</v>
-      </c>
-      <c r="C298" t="n">
-        <v>18</v>
-      </c>
-      <c r="D298" t="n">
-        <v>18</v>
-      </c>
-      <c r="E298" t="n">
-        <v>18</v>
-      </c>
-      <c r="F298" t="n">
-        <v>1090040.95664445</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>18</v>
-      </c>
-      <c r="J298" t="n">
-        <v>18</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>18</v>
-      </c>
-      <c r="C299" t="n">
-        <v>18</v>
-      </c>
-      <c r="D299" t="n">
-        <v>18</v>
-      </c>
-      <c r="E299" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F299" t="n">
-        <v>767395.4639</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>18</v>
-      </c>
-      <c r="J299" t="n">
-        <v>18</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>18</v>
-      </c>
-      <c r="C300" t="n">
-        <v>18</v>
-      </c>
-      <c r="D300" t="n">
-        <v>18</v>
-      </c>
-      <c r="E300" t="n">
-        <v>18</v>
-      </c>
-      <c r="F300" t="n">
-        <v>119154.2366</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>18</v>
-      </c>
-      <c r="J300" t="n">
-        <v>18</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>18</v>
-      </c>
-      <c r="C301" t="n">
-        <v>18</v>
-      </c>
-      <c r="D301" t="n">
-        <v>18</v>
-      </c>
-      <c r="E301" t="n">
-        <v>18</v>
-      </c>
-      <c r="F301" t="n">
-        <v>430.5508</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>18</v>
-      </c>
-      <c r="J301" t="n">
-        <v>18</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>18</v>
-      </c>
-      <c r="C302" t="n">
-        <v>18</v>
-      </c>
-      <c r="D302" t="n">
-        <v>18</v>
-      </c>
-      <c r="E302" t="n">
-        <v>18</v>
-      </c>
-      <c r="F302" t="n">
-        <v>194791.5639</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-1568995.60216218</v>
-      </c>
-      <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>18</v>
-      </c>
-      <c r="J302" t="n">
-        <v>18</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="C303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E303" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="F303" t="n">
-        <v>555.0276243</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-1568440.57453788</v>
-      </c>
-      <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>18</v>
-      </c>
-      <c r="J303" t="n">
-        <v>18</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C304" t="n">
-        <v>18</v>
-      </c>
-      <c r="D304" t="n">
-        <v>18</v>
-      </c>
-      <c r="E304" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F304" t="n">
-        <v>2251.3</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-1570691.874537881</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J304" t="n">
-        <v>18</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11108,7 +10614,7 @@
         <v>-1354471.52153788</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>18</v>
@@ -11266,11 +10772,9 @@
         <v>-1045492.66018648</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>18</v>
       </c>
@@ -12048,11 +11552,9 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>18</v>
       </c>
@@ -12089,11 +11591,9 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>18</v>
       </c>
@@ -12130,11 +11630,9 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>18</v>
       </c>
@@ -12171,11 +11669,9 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>18</v>
       </c>
@@ -12212,11 +11708,9 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>18</v>
       </c>
@@ -12253,11 +11747,9 @@
         <v>-1296984.356986481</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
         <v>18</v>
       </c>
@@ -12294,11 +11786,9 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
         <v>18</v>
       </c>
@@ -12335,11 +11825,9 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>18</v>
       </c>
@@ -12376,11 +11864,9 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
         <v>18</v>
       </c>
@@ -12417,11 +11903,9 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>18</v>
       </c>
@@ -12458,11 +11942,9 @@
         <v>-1304970.00128648</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>18</v>
       </c>
@@ -12499,11 +11981,9 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>18</v>
       </c>
@@ -12540,11 +12020,9 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>18</v>
       </c>
@@ -12620,11 +12098,9 @@
         <v>-1229439.21998648</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>18.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
         <v>18</v>
       </c>
@@ -13090,11 +12566,9 @@
         <v>-1149351.64788648</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>18</v>
       </c>
@@ -13460,6 +12934,6 @@
       <c r="M364" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-413515.3633903801</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-226720.89699038</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-225720.89699038</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-225720.89699038</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-920077.08229038</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-335095.29607957</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-427661.75557957</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-429206.08557957</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-418336.52036218</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-419346.68106218</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-420453.58536218</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-407960.1069621799</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1151002.79226218</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1121002.79226218</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1471002.79226218</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1435878.46826218</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1524818.19366218</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1524639.53726218</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,14 +9394,10 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J273" t="n">
-        <v>18.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
@@ -9431,567 +9427,485 @@
         <v>-1564788.845562181</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="J274" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>18</v>
+      </c>
+      <c r="C275" t="n">
+        <v>18</v>
+      </c>
+      <c r="D275" t="n">
+        <v>18</v>
+      </c>
+      <c r="E275" t="n">
+        <v>18</v>
+      </c>
+      <c r="F275" t="n">
+        <v>900557.5516</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>18</v>
+      </c>
+      <c r="C276" t="n">
+        <v>18</v>
+      </c>
+      <c r="D276" t="n">
+        <v>18</v>
+      </c>
+      <c r="E276" t="n">
+        <v>18</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1009622.2012</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>18</v>
+      </c>
+      <c r="C277" t="n">
+        <v>18</v>
+      </c>
+      <c r="D277" t="n">
+        <v>18</v>
+      </c>
+      <c r="E277" t="n">
+        <v>18</v>
+      </c>
+      <c r="F277" t="n">
+        <v>404554.0554</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-1564788.845562181</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E278" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3875.8281</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-1568664.673662181</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>18</v>
+      </c>
+      <c r="C279" t="n">
+        <v>18</v>
+      </c>
+      <c r="D279" t="n">
+        <v>18</v>
+      </c>
+      <c r="E279" t="n">
+        <v>18</v>
+      </c>
+      <c r="F279" t="n">
+        <v>15</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>18</v>
+      </c>
+      <c r="C280" t="n">
+        <v>18</v>
+      </c>
+      <c r="D280" t="n">
+        <v>18</v>
+      </c>
+      <c r="E280" t="n">
+        <v>18</v>
+      </c>
+      <c r="F280" t="n">
+        <v>81783.977</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>18</v>
+      </c>
+      <c r="C281" t="n">
+        <v>18</v>
+      </c>
+      <c r="D281" t="n">
+        <v>18</v>
+      </c>
+      <c r="E281" t="n">
+        <v>18</v>
+      </c>
+      <c r="F281" t="n">
+        <v>24741.1666</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>18</v>
+      </c>
+      <c r="C282" t="n">
+        <v>18</v>
+      </c>
+      <c r="D282" t="n">
+        <v>18</v>
+      </c>
+      <c r="E282" t="n">
+        <v>18</v>
+      </c>
+      <c r="F282" t="n">
+        <v>40336.3136</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>18</v>
+      </c>
+      <c r="C283" t="n">
+        <v>18</v>
+      </c>
+      <c r="D283" t="n">
+        <v>18</v>
+      </c>
+      <c r="E283" t="n">
+        <v>18</v>
+      </c>
+      <c r="F283" t="n">
+        <v>41300</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>18</v>
+      </c>
+      <c r="C284" t="n">
+        <v>18</v>
+      </c>
+      <c r="D284" t="n">
+        <v>18</v>
+      </c>
+      <c r="E284" t="n">
+        <v>18</v>
+      </c>
+      <c r="F284" t="n">
+        <v>214648.5503</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>18</v>
+      </c>
+      <c r="C285" t="n">
+        <v>18</v>
+      </c>
+      <c r="D285" t="n">
+        <v>18</v>
+      </c>
+      <c r="E285" t="n">
+        <v>18</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>18</v>
+      </c>
+      <c r="C286" t="n">
+        <v>18</v>
+      </c>
+      <c r="D286" t="n">
+        <v>18</v>
+      </c>
+      <c r="E286" t="n">
+        <v>18</v>
+      </c>
+      <c r="F286" t="n">
+        <v>159576.0594</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>18</v>
+      </c>
+      <c r="C287" t="n">
+        <v>18</v>
+      </c>
+      <c r="D287" t="n">
+        <v>18</v>
+      </c>
+      <c r="E287" t="n">
+        <v>18</v>
+      </c>
+      <c r="F287" t="n">
+        <v>17003.9841</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>18</v>
+      </c>
+      <c r="J287" t="n">
+        <v>18</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>18</v>
+      </c>
+      <c r="C288" t="n">
+        <v>18</v>
+      </c>
+      <c r="D288" t="n">
+        <v>18</v>
+      </c>
+      <c r="E288" t="n">
+        <v>18</v>
+      </c>
+      <c r="F288" t="n">
+        <v>46733.4206</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>18</v>
+      </c>
+      <c r="J288" t="n">
+        <v>18</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>18</v>
-      </c>
-      <c r="C275" t="n">
-        <v>18</v>
-      </c>
-      <c r="D275" t="n">
-        <v>18</v>
-      </c>
-      <c r="E275" t="n">
-        <v>18</v>
-      </c>
-      <c r="F275" t="n">
-        <v>900557.5516</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>18</v>
-      </c>
-      <c r="J275" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>18</v>
-      </c>
-      <c r="C276" t="n">
-        <v>18</v>
-      </c>
-      <c r="D276" t="n">
-        <v>18</v>
-      </c>
-      <c r="E276" t="n">
-        <v>18</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1009622.2012</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>18</v>
-      </c>
-      <c r="J276" t="n">
-        <v>18</v>
-      </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>18</v>
-      </c>
-      <c r="C277" t="n">
-        <v>18</v>
-      </c>
-      <c r="D277" t="n">
-        <v>18</v>
-      </c>
-      <c r="E277" t="n">
-        <v>18</v>
-      </c>
-      <c r="F277" t="n">
-        <v>404554.0554</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-1564788.845562181</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>18</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="C278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="D278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="E278" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3875.8281</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-1568664.673662181</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>18</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>18</v>
-      </c>
-      <c r="C279" t="n">
-        <v>18</v>
-      </c>
-      <c r="D279" t="n">
-        <v>18</v>
-      </c>
-      <c r="E279" t="n">
-        <v>18</v>
-      </c>
-      <c r="F279" t="n">
-        <v>15</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J279" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>18</v>
-      </c>
-      <c r="C280" t="n">
-        <v>18</v>
-      </c>
-      <c r="D280" t="n">
-        <v>18</v>
-      </c>
-      <c r="E280" t="n">
-        <v>18</v>
-      </c>
-      <c r="F280" t="n">
-        <v>81783.977</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>18</v>
-      </c>
-      <c r="C281" t="n">
-        <v>18</v>
-      </c>
-      <c r="D281" t="n">
-        <v>18</v>
-      </c>
-      <c r="E281" t="n">
-        <v>18</v>
-      </c>
-      <c r="F281" t="n">
-        <v>24741.1666</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>18</v>
-      </c>
-      <c r="J281" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>18</v>
-      </c>
-      <c r="C282" t="n">
-        <v>18</v>
-      </c>
-      <c r="D282" t="n">
-        <v>18</v>
-      </c>
-      <c r="E282" t="n">
-        <v>18</v>
-      </c>
-      <c r="F282" t="n">
-        <v>40336.3136</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>18</v>
-      </c>
-      <c r="J282" t="n">
-        <v>18</v>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>18</v>
-      </c>
-      <c r="C283" t="n">
-        <v>18</v>
-      </c>
-      <c r="D283" t="n">
-        <v>18</v>
-      </c>
-      <c r="E283" t="n">
-        <v>18</v>
-      </c>
-      <c r="F283" t="n">
-        <v>41300</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>18</v>
-      </c>
-      <c r="J283" t="n">
-        <v>18</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>18</v>
-      </c>
-      <c r="C284" t="n">
-        <v>18</v>
-      </c>
-      <c r="D284" t="n">
-        <v>18</v>
-      </c>
-      <c r="E284" t="n">
-        <v>18</v>
-      </c>
-      <c r="F284" t="n">
-        <v>214648.5503</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>18</v>
-      </c>
-      <c r="J284" t="n">
-        <v>18</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>18</v>
-      </c>
-      <c r="C285" t="n">
-        <v>18</v>
-      </c>
-      <c r="D285" t="n">
-        <v>18</v>
-      </c>
-      <c r="E285" t="n">
-        <v>18</v>
-      </c>
-      <c r="F285" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>18</v>
-      </c>
-      <c r="J285" t="n">
-        <v>18</v>
-      </c>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>18</v>
-      </c>
-      <c r="C286" t="n">
-        <v>18</v>
-      </c>
-      <c r="D286" t="n">
-        <v>18</v>
-      </c>
-      <c r="E286" t="n">
-        <v>18</v>
-      </c>
-      <c r="F286" t="n">
-        <v>159576.0594</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>18</v>
-      </c>
-      <c r="J286" t="n">
-        <v>18</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>18</v>
-      </c>
-      <c r="C287" t="n">
-        <v>18</v>
-      </c>
-      <c r="D287" t="n">
-        <v>18</v>
-      </c>
-      <c r="E287" t="n">
-        <v>18</v>
-      </c>
-      <c r="F287" t="n">
-        <v>17003.9841</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>18</v>
-      </c>
-      <c r="J287" t="n">
-        <v>18</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>18</v>
-      </c>
-      <c r="C288" t="n">
-        <v>18</v>
-      </c>
-      <c r="D288" t="n">
-        <v>18</v>
-      </c>
-      <c r="E288" t="n">
-        <v>18</v>
-      </c>
-      <c r="F288" t="n">
-        <v>46733.4206</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>18</v>
-      </c>
-      <c r="J288" t="n">
-        <v>18</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10069,44 +9983,48 @@
       <c r="J290" t="n">
         <v>18</v>
       </c>
-      <c r="K290" t="inlineStr">
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>18</v>
+      </c>
+      <c r="C291" t="n">
+        <v>18</v>
+      </c>
+      <c r="D291" t="n">
+        <v>18</v>
+      </c>
+      <c r="E291" t="n">
+        <v>18</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2408.2777</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-1568649.673662181</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>18</v>
+      </c>
+      <c r="J291" t="n">
+        <v>18</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>18</v>
-      </c>
-      <c r="C291" t="n">
-        <v>18</v>
-      </c>
-      <c r="D291" t="n">
-        <v>18</v>
-      </c>
-      <c r="E291" t="n">
-        <v>18</v>
-      </c>
-      <c r="F291" t="n">
-        <v>2408.2777</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-1568649.673662181</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10135,11 +10053,19 @@
         <v>-1571654.893662181</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>18</v>
+      </c>
+      <c r="J292" t="n">
+        <v>18</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10538,14 +10464,10 @@
         <v>-1568440.57453788</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>18</v>
-      </c>
-      <c r="J303" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10578,14 +10500,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>18</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10614,19 +10530,11 @@
         <v>-1354471.52153788</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>18</v>
-      </c>
-      <c r="J305" t="n">
-        <v>18</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10658,14 +10566,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>18</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10697,14 +10599,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>18</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +10632,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>18</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10775,14 +10665,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>18</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10814,14 +10698,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>18</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10853,14 +10731,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>18</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10892,14 +10764,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>18</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10931,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>18</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10970,14 +10830,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>18</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10863,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>18</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11048,14 +10896,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>18</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11087,14 +10929,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>18</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +10962,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>18</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11165,14 +10995,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>18</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +11028,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>18</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11240,17 +11058,11 @@
         <v>-1229631.106986481</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>18</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11282,14 +11094,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>18</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11321,14 +11127,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>18</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11360,14 +11160,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>18</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11399,14 +11193,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>18</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11438,14 +11226,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>18</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11474,17 +11256,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>18</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11513,17 +11289,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>18</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11552,17 +11322,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>18</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11591,17 +11355,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>18</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11630,17 +11388,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>18</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11669,17 +11421,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>18</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11708,17 +11454,11 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>18</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11747,17 +11487,11 @@
         <v>-1296984.356986481</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>18</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11786,17 +11520,11 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>18</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11825,17 +11553,11 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>18</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11864,17 +11586,11 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>18</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11903,17 +11619,11 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>18</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11942,17 +11652,11 @@
         <v>-1304970.00128648</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>18</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11981,17 +11685,11 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>18</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12020,17 +11718,11 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>18</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12059,17 +11751,11 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>18</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12098,17 +11784,11 @@
         <v>-1229439.21998648</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>18</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12137,17 +11817,11 @@
         <v>-1212864.63438648</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>18</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12176,17 +11850,11 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>18</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12215,17 +11883,11 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>18</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12257,14 +11919,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>18</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12296,14 +11952,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>18</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12335,14 +11985,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>18</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12374,14 +12018,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>18</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12413,14 +12051,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>18</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12452,14 +12084,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>18</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12491,14 +12117,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>18</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12530,14 +12150,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>18</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12569,14 +12183,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>18</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12608,14 +12216,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>18</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12647,14 +12249,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>18</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12686,14 +12282,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>18</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12725,14 +12315,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>18</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12764,14 +12348,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>18</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12803,14 +12381,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>18</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12842,14 +12414,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>18</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12881,14 +12447,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>18</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12920,20 +12480,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>18</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
       <c r="M364" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest TRX.xlsx
+++ b/BackTest/2019-10-20 BackTest TRX.xlsx
@@ -451,7 +451,7 @@
         <v>-380077.2459903801</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-380022.2459903801</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-426361.5706903801</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-344659.8389903801</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-348651.4652903801</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-355706.00529038</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-446032.4725903801</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-407730.6023903801</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-408477.02829038</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-357632.90229038</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-272526.78069038</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-264955.73239038</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-267086.14239038</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-265086.14239038</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-444484.19539038</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-444534.19539038</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-436834.65759038</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-455872.43809038</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-288114.01419038</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1015286.08219038</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-920077.08229038</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-942099.22689038</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-767966.70689038</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-335095.29607957</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-267508.26917957</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-379751.88797957</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-427661.75557957</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-429206.08557957</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-418336.52036218</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-419881.4403621799</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-419346.68106218</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-420453.58536218</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-407659.4549621799</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-407960.1069621799</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-58767.67696217995</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-65767.67696217995</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1151002.79226218</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1121002.79226218</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-1471002.79226218</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-1435878.46826218</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1524818.19366218</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-1523184.67726218</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1524639.53726218</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1563028.25556218</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9856,14 +9856,10 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>18</v>
-      </c>
-      <c r="J287" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
@@ -9893,19 +9889,11 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>18</v>
-      </c>
-      <c r="J288" t="n">
-        <v>18</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9934,19 +9922,11 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>18</v>
-      </c>
-      <c r="J289" t="n">
-        <v>18</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9975,14 +9955,10 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>18</v>
-      </c>
-      <c r="J290" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
@@ -10012,19 +9988,11 @@
         <v>-1568649.673662181</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>18</v>
-      </c>
-      <c r="J291" t="n">
-        <v>18</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10053,19 +10021,11 @@
         <v>-1571654.893662181</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>18</v>
-      </c>
-      <c r="J292" t="n">
-        <v>18</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10131,11 +10091,9 @@
         <v>-1573995.60216218</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>17.9</v>
       </c>
@@ -10332,11 +10290,19 @@
         <v>-1568995.60216218</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>18</v>
+      </c>
+      <c r="J299" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10368,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10401,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10434,8 +10412,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +10451,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10530,11 +10526,19 @@
         <v>-1354471.52153788</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>18</v>
+      </c>
+      <c r="J305" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10566,8 +10570,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10599,8 +10609,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10632,8 +10648,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10665,8 +10687,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10698,8 +10726,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10731,8 +10765,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +10804,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10797,8 +10843,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10830,8 +10882,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10863,8 +10921,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10896,8 +10960,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10929,8 +10999,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10962,8 +11038,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10995,8 +11077,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11028,8 +11116,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11058,11 +11152,17 @@
         <v>-1229631.106986481</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11094,8 +11194,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11127,8 +11233,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11160,8 +11272,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11193,8 +11311,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11226,8 +11350,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11256,11 +11386,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +11425,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11322,11 +11464,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11355,11 +11503,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11388,11 +11542,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11421,11 +11581,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11454,11 +11620,17 @@
         <v>-1297144.356986481</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11487,11 +11659,17 @@
         <v>-1296984.356986481</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11520,11 +11698,17 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11553,11 +11737,17 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11586,11 +11776,17 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11619,11 +11815,17 @@
         <v>-1303260.36128648</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11652,11 +11854,17 @@
         <v>-1304970.00128648</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11685,11 +11893,17 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11718,11 +11932,17 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +11971,17 @@
         <v>-1228670.00128648</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11784,11 +12010,17 @@
         <v>-1229439.21998648</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11817,11 +12049,17 @@
         <v>-1212864.63438648</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11850,11 +12088,17 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11883,11 +12127,17 @@
         <v>-1268892.21438648</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11919,8 +12169,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11952,8 +12208,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11985,8 +12247,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12018,8 +12286,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12051,8 +12325,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12084,8 +12364,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12117,8 +12403,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12150,8 +12442,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12183,8 +12481,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12216,8 +12520,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12249,8 +12559,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12282,8 +12598,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12315,8 +12637,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12348,8 +12676,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12381,8 +12715,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12414,8 +12754,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12447,8 +12793,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12480,8 +12832,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
